--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-management-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD92E0-DA6C-2942-A052-8EB7874B4FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4506395-C32A-734C-9FC4-38D094235BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="4840" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="5340" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
@@ -546,7 +546,7 @@
       <c r="H1" s="8"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="4" t="s">
@@ -809,7 +809,7 @@
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="10" t="s">
         <v>13</v>
@@ -826,7 +826,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
         <v>1</v>
       </c>
@@ -858,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0.84620399999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -932,7 +932,7 @@
         <v>0.82469899999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0.93776499999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>0.93646099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -1040,7 +1040,7 @@
         <v>0.95829299999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0.124471</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1114,7 +1114,7 @@
         <v>0.122515</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>4.9528000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>5.0831000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>2</v>
@@ -1222,7 +1222,7 @@
         <v>3.5841999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>2.9326000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
@@ -1296,7 +1296,7 @@
         <v>5.2786E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>1.2708000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>1.2708000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1479,12 +1479,24 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="6">
+        <v>0.51629072681704202</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.10025062656641601</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.383458646616541</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.581453634085213</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.17794486215538799</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.24060150375939801</v>
+      </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,12 +1517,24 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="C5" s="6">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.5062656641604E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.56892230576441105</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.77443609022556303</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.22556390977443599</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,12 +1542,24 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="6">
+        <v>0.581453634085213</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.0125313283208E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.41353383458646598</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.95989974937343303</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.00501253132832E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.00501253132832E-2</v>
+      </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,12 +1569,24 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="C7" s="6">
+        <v>0.38847117794486202</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.7543859649122799E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.581453634085213</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.62406015037593898</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4.5112781954887202E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.31578947368421001</v>
+      </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,12 +1607,24 @@
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="6">
+        <v>0.57644110275689198</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.2531328320802001E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.41102756892230502</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.81954887218045103</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.17794486215538799</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.5062656641604E-3</v>
+      </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,12 +1632,24 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="6">
+        <v>0.77694235588972405</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.21052631578947301</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.2531328320802001E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.907268170426065</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8.7719298245614002E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5.0125313283208E-3</v>
+      </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-management-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4506395-C32A-734C-9FC4-38D094235BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C20AB-2084-F040-BE19-8CBBBBF66B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="5340" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,7 +1422,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1504,12 +1505,24 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="C4" s="6">
+        <v>0.59398496240601495</v>
+      </c>
+      <c r="D4" s="12">
+        <v>9.2731829573934804E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.31328320802005</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.62656641604009999</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.21804511278195399</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.15538847117794399</v>
+      </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -1594,12 +1607,24 @@
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="12">
+        <v>0.360902255639097</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.63909774436090205</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.39348370927318199</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.60651629072681701</v>
+      </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-management-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C20AB-2084-F040-BE19-8CBBBBF66B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB8EBA8-7917-1042-92BB-B1E78CDF366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="5340" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,7 +181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,7 +1421,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,22 +1480,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>0.51629072681704202</v>
+        <v>0.52130325814536305</v>
       </c>
       <c r="D3" s="6">
-        <v>0.10025062656641601</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="E3" s="6">
-        <v>0.383458646616541</v>
+        <v>0.36591478696741803</v>
       </c>
       <c r="F3" s="6">
-        <v>0.581453634085213</v>
+        <v>0.62656641604009999</v>
       </c>
       <c r="G3" s="6">
-        <v>0.17794486215538799</v>
+        <v>0.21804511278195399</v>
       </c>
       <c r="H3" s="6">
-        <v>0.24060150375939801</v>
+        <v>0.15538847117794399</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -1506,22 +1505,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0.59398496240601495</v>
-      </c>
-      <c r="D4" s="12">
-        <v>9.2731829573934804E-2</v>
-      </c>
-      <c r="E4" s="12">
+        <v>0.674185463659147</v>
+      </c>
+      <c r="D4" s="6">
         <v>0.31328320802005</v>
       </c>
-      <c r="F4" s="12">
-        <v>0.62656641604009999</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.21804511278195399</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.15538847117794399</v>
+      <c r="E4" s="6">
+        <v>1.2531328320802001E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.63909774436090205</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.360902255639097</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -1531,22 +1530,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>0.42857142857142799</v>
+        <v>0.49874686716791899</v>
       </c>
       <c r="D5" s="6">
-        <v>2.5062656641604E-3</v>
+        <v>7.5187969924812E-3</v>
       </c>
       <c r="E5" s="6">
-        <v>0.56892230576441105</v>
+        <v>0.49373433583959803</v>
       </c>
       <c r="F5" s="6">
-        <v>0.77443609022556303</v>
+        <v>0.82456140350877105</v>
       </c>
       <c r="G5" s="6">
-        <v>0.22556390977443599</v>
+        <v>0.15538847117794399</v>
       </c>
       <c r="H5" s="6">
-        <v>0</v>
+        <v>2.00501253132832E-2</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -1556,22 +1555,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="6">
-        <v>0.581453634085213</v>
+        <v>0.77944862155388395</v>
       </c>
       <c r="D6" s="6">
-        <v>5.0125313283208E-3</v>
+        <v>1.50375939849624E-2</v>
       </c>
       <c r="E6" s="6">
-        <v>0.41353383458646598</v>
+        <v>0.20551378446115201</v>
       </c>
       <c r="F6" s="6">
-        <v>0.95989974937343303</v>
+        <v>0.94987468671679198</v>
       </c>
       <c r="G6" s="6">
-        <v>2.00501253132832E-2</v>
+        <v>2.7568922305764399E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>2.00501253132832E-2</v>
+        <v>2.2556390977443601E-2</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -1583,22 +1582,22 @@
         <v>0</v>
       </c>
       <c r="C7" s="6">
+        <v>0.49122807017543801</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.107769423558897</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.38847117794486202</v>
       </c>
-      <c r="D7" s="6">
-        <v>1.7543859649122799E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.581453634085213</v>
-      </c>
       <c r="F7" s="6">
-        <v>0.62406015037593898</v>
+        <v>0.69172932330826997</v>
       </c>
       <c r="G7" s="6">
-        <v>4.5112781954887202E-2</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="H7" s="6">
-        <v>0.31578947368421001</v>
+        <v>0.180451127819548</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -1607,23 +1606,23 @@
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="12">
-        <v>0.360902255639097</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.63909774436090205</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.39348370927318199</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.60651629072681701</v>
+      <c r="C8" s="6">
+        <v>0.70676691729323304</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.26566416040100199</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.7568922305764399E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.73182957393483705</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.22305764411027501</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.5112781954887202E-2</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -1633,22 +1632,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.57644110275689198</v>
+        <v>0.69423558897243098</v>
       </c>
       <c r="D9" s="6">
-        <v>1.2531328320802001E-2</v>
+        <v>7.0175438596491196E-2</v>
       </c>
       <c r="E9" s="6">
-        <v>0.41102756892230502</v>
+        <v>0.23558897243107699</v>
       </c>
       <c r="F9" s="6">
-        <v>0.81954887218045103</v>
+        <v>0.82205513784461104</v>
       </c>
       <c r="G9" s="6">
-        <v>0.17794486215538799</v>
+        <v>0.17293233082706699</v>
       </c>
       <c r="H9" s="6">
-        <v>2.5062656641604E-3</v>
+        <v>5.0125313283208E-3</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1658,19 +1657,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="6">
-        <v>0.77694235588972405</v>
+        <v>0.74185463659147799</v>
       </c>
       <c r="D10" s="6">
-        <v>0.21052631578947301</v>
+        <v>0.25313283208019999</v>
       </c>
       <c r="E10" s="6">
-        <v>1.2531328320802001E-2</v>
+        <v>5.0125313283208E-3</v>
       </c>
       <c r="F10" s="6">
-        <v>0.907268170426065</v>
+        <v>0.89724310776942295</v>
       </c>
       <c r="G10" s="6">
-        <v>8.7719298245614002E-2</v>
+        <v>9.7744360902255606E-2</v>
       </c>
       <c r="H10" s="6">
         <v>5.0125313283208E-3</v>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-management-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB8EBA8-7917-1042-92BB-B1E78CDF366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115333F-98E5-5D48-9CCF-1F817F5555EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="5340" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="5340" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
     <sheet name="join-with-learning" sheetId="2" r:id="rId2"/>
     <sheet name="union-no-learning" sheetId="4" r:id="rId3"/>
+    <sheet name="union-with-learning" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
   <si>
     <t>llama</t>
   </si>
@@ -1420,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4356AC3-40EA-0D4C-B9BB-7D4557E5B594}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -1697,4 +1698,324 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F195A-92DD-DC4F-8798-7EB3A813CF21}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-management-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115333F-98E5-5D48-9CCF-1F817F5555EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DE4EB3-11F0-D048-841C-1D63DEF33017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="5340" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
-    <sheet name="join-with-learning" sheetId="2" r:id="rId2"/>
-    <sheet name="union-no-learning" sheetId="4" r:id="rId3"/>
+    <sheet name="union-no-learning" sheetId="4" r:id="rId2"/>
+    <sheet name="join-with-learning" sheetId="2" r:id="rId3"/>
     <sheet name="union-with-learning" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
   <si>
     <t>llama</t>
   </si>
@@ -68,9 +68,6 @@
     <t>heuristic</t>
   </si>
   <si>
-    <t>bert</t>
-  </si>
-  <si>
     <t>4o</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   <si>
     <t>min_distance</t>
   </si>
+  <si>
+    <t>max_area</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +128,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +187,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +534,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J2" sqref="J2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +543,7 @@
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -536,12 +551,12 @@
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -650,7 +665,7 @@
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>0.49560117302052697</v>
@@ -752,7 +767,7 @@
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
         <v>0.63408276311502099</v>
@@ -778,7 +793,9 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="14"/>
+    </row>
     <row r="14" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -798,631 +815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF57865-7810-0A43-BE21-651A20D29F4A}">
-  <dimension ref="A1:L17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="3"/>
-      <c r="C1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.85728300000000002</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.90257399999999999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.93548399999999998</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.84620399999999996</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.86282199999999998</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.86510299999999996</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.86086700000000005</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.84620399999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.815249</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.82469899999999996</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.82241799999999998</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.82469899999999996</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.82535000000000003</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.81329399999999996</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.76930600000000005</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.82437300000000002</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.82600200000000001</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.82469899999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.94591099999999995</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.95145000000000002</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.95894400000000002</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.95307900000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.95079800000000003</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.92538299999999996</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.92114700000000005</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.92114700000000005</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.93092200000000003</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.95666300000000004</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.95894400000000002</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.95633800000000002</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.959596</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.95829299999999995</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.92408000000000001</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.92603500000000005</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.93743900000000002</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.92864100000000005</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.93646099999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.96806800000000004</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.97132600000000002</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.97034900000000002</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.96937099999999998</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.96252899999999997</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.95861799999999997</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.96155100000000004</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.96089899999999995</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.95829299999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3.0629E-2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4.0404000000000002E-2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4.4965999999999999E-2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5.3111999999999999E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>6.4516000000000004E-2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.15249299999999999</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.18051500000000001</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.130661</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.128381</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0.124471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.117628</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.12153799999999999</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.123819</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.124471</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.121864</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.11534700000000001</v>
-      </c>
-      <c r="I9" s="5">
-        <v>6.7448999999999995E-2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.12153799999999999</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.12284100000000001</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.122515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2.6067E-2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.6719E-2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2.3460000000000002E-2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>3.3887E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3.9426999999999997E-2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>6.5819000000000003E-2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>6.4841999999999997E-2</v>
-      </c>
-      <c r="J10" s="5">
-        <v>6.7123000000000002E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <v>5.7674000000000003E-2</v>
-      </c>
-      <c r="L10" s="5">
-        <v>4.9528000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1.7595E-2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2.2808999999999999E-2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2.7695999999999998E-2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2.6393E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2.8021999999999998E-2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>6.4516000000000004E-2</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5.9629000000000001E-2</v>
-      </c>
-      <c r="J11" s="5">
-        <v>5.1483000000000001E-2</v>
-      </c>
-      <c r="K11" s="5">
-        <v>5.9629000000000001E-2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5.0831000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.2708000000000001E-2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.6944000000000001E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2.7695999999999998E-2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2.3786000000000002E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>3.5515999999999999E-2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>4.0078000000000003E-2</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.130661</v>
-      </c>
-      <c r="J12" s="5">
-        <v>3.5191E-2</v>
-      </c>
-      <c r="K12" s="5">
-        <v>3.5515999999999999E-2</v>
-      </c>
-      <c r="L12" s="5">
-        <v>3.5841999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.11208899999999999</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5.7022000000000003E-2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.7269E-2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3.5839999999999999E-3</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1.3029999999999999E-3</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1.9550000000000001E-3</v>
-      </c>
-      <c r="J13" s="5">
-        <v>4.2360000000000002E-3</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1.0753E-2</v>
-      </c>
-      <c r="L13" s="5">
-        <v>2.9326000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5">
-        <v>6.7123000000000002E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5.3762999999999998E-2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>5.3762999999999998E-2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5.0831000000000001E-2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>5.2786E-2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>7.1359000000000006E-2</v>
-      </c>
-      <c r="I14" s="5">
-        <v>5.0179000000000001E-2</v>
-      </c>
-      <c r="J14" s="5">
-        <v>5.4088999999999998E-2</v>
-      </c>
-      <c r="K14" s="5">
-        <v>5.1157000000000001E-2</v>
-      </c>
-      <c r="L14" s="5">
-        <v>5.2786E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.8021999999999998E-2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2.1831E-2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1.7595E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1.3034E-2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>9.7750000000000007E-3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>8.7980000000000003E-3</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1.1403999999999999E-2</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1.1730000000000001E-2</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1.1403999999999999E-2</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1.2708000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.5741E-2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1.8246999999999999E-2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1.5966000000000001E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1.4010999999999999E-2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1.3684999999999999E-2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1.1403999999999999E-2</v>
-      </c>
-      <c r="I16" s="5">
-        <v>9.1229999999999992E-3</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1.1079E-2</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1.1730000000000001E-2</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1.2708000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1.9224999999999999E-2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1.1730000000000001E-2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.9550000000000001E-3</v>
-      </c>
-      <c r="F17" s="5">
-        <v>6.8430000000000001E-3</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1.9550000000000001E-3</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1.3029999999999999E-3</v>
-      </c>
-      <c r="I17" s="5">
-        <v>2.6069999999999999E-3</v>
-      </c>
-      <c r="J17" s="5">
-        <v>3.258E-3</v>
-      </c>
-      <c r="K17" s="5">
-        <v>3.5839999999999999E-3</v>
-      </c>
-      <c r="L17" s="5">
-        <v>5.8650000000000004E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4356AC3-40EA-0D4C-B9BB-7D4557E5B594}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1431,20 +828,21 @@
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -1553,7 +951,7 @@
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>0.77944862155388395</v>
@@ -1655,7 +1053,7 @@
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
         <v>0.74185463659147799</v>
@@ -1681,7 +1079,9 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="14"/>
+    </row>
     <row r="14" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1700,12 +1100,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F195A-92DD-DC4F-8798-7EB3A813CF21}">
-  <dimension ref="A1:L17"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF57865-7810-0A43-BE21-651A20D29F4A}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,7 +1116,522 @@
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.90257399999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.84620399999999996</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.86282199999999998</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.86510299999999996</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.86086700000000005</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.84620399999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.94591099999999995</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.95145000000000002</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.95894400000000002</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.95307900000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.95079800000000003</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.92538299999999996</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.92114700000000005</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.92114700000000005</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.93092200000000003</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.95666300000000004</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.95894400000000002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.95633800000000002</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.959596</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.95829299999999995</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.92408000000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.92603500000000005</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.93743900000000002</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.92864100000000005</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.93646099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.96806800000000004</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.97132600000000002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.97034900000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.96937099999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.96252899999999997</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.95861799999999997</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.96155100000000004</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.96089899999999995</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.95829299999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.0629E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.0404000000000002E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.4965999999999999E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5.3111999999999999E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6.4516000000000004E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.15249299999999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.18051500000000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.130661</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.128381</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.124471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.6067E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.6719E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.3460000000000002E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.3887E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.9426999999999997E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6.5819000000000003E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>6.4841999999999997E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6.7123000000000002E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5.7674000000000003E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4.9528000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.7595E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.2808999999999999E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.7695999999999998E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.6393E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.8021999999999998E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>6.4516000000000004E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5.9629000000000001E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5.1483000000000001E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5.9629000000000001E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>5.0831000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.2708000000000001E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.6944000000000001E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.7695999999999998E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.3786000000000002E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.5515999999999999E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4.0078000000000003E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.130661</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3.5191E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3.5515999999999999E-2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3.5841999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.11208899999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.7022000000000003E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.7269E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.5839999999999999E-3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.3029999999999999E-3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.9550000000000001E-3</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4.2360000000000002E-3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1.0753E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2.9326000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.8021999999999998E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.1831E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.7595E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.3034E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>9.7750000000000007E-3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8.7980000000000003E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.1403999999999999E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1.1403999999999999E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.2708000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.5741E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.8246999999999999E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.5966000000000001E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.4010999999999999E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.3684999999999999E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.1403999999999999E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>9.1229999999999992E-3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1.1079E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1.2708000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.9224999999999999E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.9550000000000001E-3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6.8430000000000001E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.9550000000000001E-3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.3029999999999999E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2.6069999999999999E-3</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3.258E-3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3.5839999999999999E-3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5.8650000000000004E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F195A-92DD-DC4F-8798-7EB3A813CF21}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="7" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -1738,28 +1653,28 @@
         <v>2</v>
       </c>
       <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
-      </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="3">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="J2" s="3">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="K2" s="3">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="L2" s="3">
-        <v>5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -1769,252 +1684,444 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="C3" s="12">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.86716800000000005</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.84210499999999999</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.84210499999999999</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.88220600000000005</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.90225599999999995</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.90977399999999997</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.92731799999999998</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.91729300000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.86967399999999995</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.85463699999999998</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.82706800000000003</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.86716800000000005</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.84461200000000003</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.84461200000000003</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.892231</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.88220600000000005</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.859649</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.88972399999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.80701800000000001</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.85463699999999998</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.87217999999999996</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.862155</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.89724300000000001</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.89974900000000002</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.90476199999999996</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.91478700000000002</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.88721799999999995</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.94486199999999998</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.89724300000000001</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.92230599999999996</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.91729300000000003</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.89724300000000001</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.95488700000000004</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.95488700000000004</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.96992500000000004</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.95989999999999998</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.95238100000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="12">
+        <v>8.5212999999999997E-2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.11278199999999999</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.137845</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.15288199999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.155388</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.10025100000000001</v>
+      </c>
+      <c r="I7" s="13">
+        <v>6.5162999999999999E-2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>5.0125000000000003E-2</v>
+      </c>
+      <c r="K7" s="13">
+        <v>2.7569E-2</v>
+      </c>
+      <c r="L7" s="13">
+        <v>2.506E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>8.2707000000000003E-2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.115288</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.14787</v>
+      </c>
+      <c r="F8" s="13">
+        <v>8.0200999999999995E-2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.14787</v>
+      </c>
+      <c r="H8" s="13">
+        <v>9.2731999999999995E-2</v>
+      </c>
+      <c r="I8" s="13">
+        <v>8.2707000000000003E-2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>6.5162999999999999E-2</v>
+      </c>
+      <c r="K8" s="13">
+        <v>2.7569E-2</v>
+      </c>
+      <c r="L8" s="13">
+        <v>7.2681999999999997E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.180451</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.130326</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.13533800000000001</v>
+      </c>
+      <c r="F9" s="13">
+        <v>9.7743999999999998E-2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.12531300000000001</v>
+      </c>
+      <c r="H9" s="13">
+        <v>5.0125000000000003E-2</v>
+      </c>
+      <c r="I9" s="13">
+        <v>6.0150000000000002E-2</v>
+      </c>
+      <c r="J9" s="13">
+        <v>5.2631999999999998E-2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>2.0049999999999998E-2</v>
+      </c>
+      <c r="L9" s="13">
+        <v>7.7693999999999999E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5.0125000000000003E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>8.5212999999999997E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>6.7669000000000007E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>6.7669000000000007E-2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.10025100000000001</v>
+      </c>
+      <c r="H10" s="13">
+        <v>2.7569E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>2.0049999999999998E-2</v>
+      </c>
+      <c r="K10" s="13">
+        <v>2.7569E-2</v>
+      </c>
+      <c r="L10" s="13">
+        <v>2.5062999999999998E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="12">
+        <v>5.7644000000000001E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2.0049999999999998E-2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5.0130000000000001E-3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>5.0130000000000001E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2.506E-3</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1.7544000000000001E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3.2580999999999999E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="K11" s="13">
+        <v>4.5113E-2</v>
+      </c>
+      <c r="L11" s="13">
+        <v>8.0200999999999995E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4.7619000000000002E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3.0075000000000001E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2.5062999999999998E-2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>5.2631999999999998E-2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>7.5189999999999996E-3</v>
+      </c>
+      <c r="H12" s="13">
+        <v>6.2657000000000004E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2.5062999999999998E-2</v>
+      </c>
+      <c r="J12" s="13">
+        <v>5.2631999999999998E-2</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.11278199999999999</v>
+      </c>
+      <c r="L12" s="13">
+        <v>3.7594000000000002E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1.2531E-2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1.5037999999999999E-2</v>
+      </c>
+      <c r="E13" s="13">
+        <v>7.5189999999999996E-3</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3.0075000000000001E-2</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1.2531E-2</v>
+      </c>
+      <c r="H13" s="13">
+        <v>5.2631999999999998E-2</v>
+      </c>
+      <c r="I13" s="13">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="J13" s="13">
+        <v>4.2606999999999999E-2</v>
+      </c>
+      <c r="K13" s="13">
+        <v>6.5162999999999999E-2</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3.5088000000000001E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="C14" s="13">
+        <v>5.0130000000000001E-3</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1.7544000000000001E-2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1.0024999999999999E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1.5037999999999999E-2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2.506E-3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1.7544000000000001E-2</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5.0130000000000001E-3</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1.0024999999999999E-2</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1.2531E-2</v>
+      </c>
+      <c r="L14" s="13">
+        <v>2.2556E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-management-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DE4EB3-11F0-D048-841C-1D63DEF33017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E49FD-DB00-3645-9C09-B7280FA6AE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -176,6 +176,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -187,15 +196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,23 +548,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -586,7 +586,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -613,7 +613,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -715,7 +715,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -794,7 +794,7 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="14"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -834,23 +834,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -899,7 +899,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -924,7 +924,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1001,7 +1001,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="14"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1115,20 +1115,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1201,7 +1201,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1493,7 +1493,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1630,20 +1630,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1678,440 +1678,440 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>0.85714299999999999</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>0.86716800000000005</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>0.85714299999999999</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>0.84210499999999999</v>
       </c>
       <c r="G3" s="5">
         <v>0.84210499999999999</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="9">
         <v>0.88220600000000005</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>0.90225599999999995</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="9">
         <v>0.90977399999999997</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>0.92731799999999998</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="9">
         <v>0.91729300000000003</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>0.86967399999999995</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>0.85463699999999998</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>0.82706800000000003</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>0.86716800000000005</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <v>0.84461200000000003</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <v>0.84461200000000003</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>0.892231</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>0.88220600000000005</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>0.859649</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="9">
         <v>0.88972399999999996</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>0.80701800000000001</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>0.85463699999999998</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>0.85714299999999999</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>0.87217999999999996</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="9">
         <v>0.862155</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="9">
         <v>0.89724300000000001</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <v>0.89974900000000002</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="9">
         <v>0.90476199999999996</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
         <v>0.91478700000000002</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="9">
         <v>0.88721799999999995</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>0.94486199999999998</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>0.89724300000000001</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>0.92230599999999996</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>0.91729300000000003</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>0.89724300000000001</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>0.95488700000000004</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>0.95488700000000004</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>0.96992500000000004</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="9">
         <v>0.95989999999999998</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="9">
         <v>0.95238100000000003</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>8.5212999999999997E-2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>0.11278199999999999</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>0.137845</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>0.15288199999999999</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <v>0.155388</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>0.10025100000000001</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>6.5162999999999999E-2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="9">
         <v>5.0125000000000003E-2</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="9">
         <v>2.7569E-2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="9">
         <v>2.506E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>8.2707000000000003E-2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>0.115288</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>0.14787</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>8.0200999999999995E-2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <v>0.14787</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>9.2731999999999995E-2</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>8.2707000000000003E-2</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>6.5162999999999999E-2</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="9">
         <v>2.7569E-2</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="9">
         <v>7.2681999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>0.180451</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>0.130326</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="9">
         <v>0.13533800000000001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>9.7743999999999998E-2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="9">
         <v>0.12531300000000001</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="9">
         <v>5.0125000000000003E-2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="9">
         <v>6.0150000000000002E-2</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="9">
         <v>5.2631999999999998E-2</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="9">
         <v>2.0049999999999998E-2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="9">
         <v>7.7693999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>5.0125000000000003E-2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>8.5212999999999997E-2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>6.7669000000000007E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>6.7669000000000007E-2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>0.10025100000000001</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>2.7569E-2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="9">
         <v>2.0049999999999998E-2</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="9">
         <v>2.7569E-2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="9">
         <v>2.5062999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>5.7644000000000001E-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>2.0049999999999998E-2</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>5.0130000000000001E-3</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>5.0130000000000001E-3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="8">
         <v>2.506E-3</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>1.7544000000000001E-2</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>3.2580999999999999E-2</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="9">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="9">
         <v>4.5113E-2</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="9">
         <v>8.0200999999999995E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>4.7619000000000002E-2</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <v>3.0075000000000001E-2</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <v>2.5062999999999998E-2</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>5.2631999999999998E-2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>7.5189999999999996E-3</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="9">
         <v>6.2657000000000004E-2</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <v>2.5062999999999998E-2</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="9">
         <v>5.2631999999999998E-2</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="9">
         <v>0.11278199999999999</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="9">
         <v>3.7594000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <v>1.2531E-2</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <v>1.5037999999999999E-2</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <v>7.5189999999999996E-3</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <v>3.0075000000000001E-2</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="9">
         <v>1.2531E-2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="9">
         <v>5.2631999999999998E-2</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>4.2606999999999999E-2</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="9">
         <v>6.5162999999999999E-2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="9">
         <v>3.5088000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="9">
         <v>5.0130000000000001E-3</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>1.7544000000000001E-2</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>1.0024999999999999E-2</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>1.5037999999999999E-2</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="9">
         <v>2.506E-3</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="9">
         <v>1.7544000000000001E-2</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="9">
         <v>5.0130000000000001E-3</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="9">
         <v>1.0024999999999999E-2</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="9">
         <v>1.2531E-2</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="9">
         <v>2.2556E-2</v>
       </c>
     </row>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-management-github/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E49FD-DB00-3645-9C09-B7280FA6AE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD8960-2722-BE4A-9D27-15967234EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4356AC3-40EA-0D4C-B9BB-7D4557E5B594}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF57865-7810-0A43-BE21-651A20D29F4A}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1617,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C21" sqref="C21:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD8960-2722-BE4A-9D27-15967234EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688DEF14-1D3C-174E-A3B9-68E36315ABC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="31980" yWindow="8500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
-    <sheet name="union-no-learning" sheetId="4" r:id="rId2"/>
-    <sheet name="join-with-learning" sheetId="2" r:id="rId3"/>
+    <sheet name="join-with-learning" sheetId="2" r:id="rId2"/>
+    <sheet name="union-no-learning" sheetId="4" r:id="rId3"/>
     <sheet name="union-with-learning" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +184,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,7 +537,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,23 +551,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -586,7 +589,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -613,7 +616,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -638,7 +641,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -663,7 +666,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -688,7 +691,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -715,7 +718,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -740,7 +743,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +768,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -815,6 +818,521 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF57865-7810-0A43-BE21-651A20D29F4A}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.90257399999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.84620399999999996</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.86282199999999998</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.86510299999999996</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.86086700000000005</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.84620399999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.94591099999999995</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.95145000000000002</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.95894400000000002</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.95307900000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.95079800000000003</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.92538299999999996</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.92114700000000005</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.92114700000000005</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.93092200000000003</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.95666300000000004</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.95894400000000002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.95633800000000002</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.959596</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.95829299999999995</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.92408000000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.92603500000000005</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.93743900000000002</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.92864100000000005</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.93646099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.96806800000000004</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.97132600000000002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.97034900000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.96937099999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.96252899999999997</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.95861799999999997</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.96155100000000004</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.96089899999999995</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.95829299999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.0629E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.0404000000000002E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.4965999999999999E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5.3111999999999999E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6.4516000000000004E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.15249299999999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.18051500000000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.130661</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.128381</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.124471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.6067E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.6719E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.3460000000000002E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.3887E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.9426999999999997E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6.5819000000000003E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>6.4841999999999997E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6.7123000000000002E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5.7674000000000003E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4.9528000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.7595E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.2808999999999999E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.7695999999999998E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.6393E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.8021999999999998E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>6.4516000000000004E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5.9629000000000001E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5.1483000000000001E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5.9629000000000001E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>5.0831000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.2708000000000001E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.6944000000000001E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.7695999999999998E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.3786000000000002E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.5515999999999999E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4.0078000000000003E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.130661</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3.5191E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3.5515999999999999E-2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3.5841999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.11208899999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.7022000000000003E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.7269E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.5839999999999999E-3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.3029999999999999E-3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.9550000000000001E-3</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4.2360000000000002E-3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1.0753E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2.9326000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.8021999999999998E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.1831E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.7595E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.3034E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>9.7750000000000007E-3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8.7980000000000003E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.1403999999999999E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1.1403999999999999E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.2708000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.5741E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.8246999999999999E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.5966000000000001E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.4010999999999999E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.3684999999999999E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.1403999999999999E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>9.1229999999999992E-3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1.1079E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1.2708000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.9224999999999999E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.9550000000000001E-3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6.8430000000000001E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.9550000000000001E-3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.3029999999999999E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2.6069999999999999E-3</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3.258E-3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3.5839999999999999E-3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5.8650000000000004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4356AC3-40EA-0D4C-B9BB-7D4557E5B594}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -834,23 +1352,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -872,7 +1390,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -899,7 +1417,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -924,7 +1442,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -949,7 +1467,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -974,7 +1492,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1001,7 +1519,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1544,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1051,7 +1569,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1100,524 +1618,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF57865-7810-0A43-BE21-651A20D29F4A}">
-  <dimension ref="A1:L14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F195A-92DD-DC4F-8798-7EB3A813CF21}">
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:N25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="3"/>
-      <c r="C1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.85728300000000002</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.90257399999999999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.93548399999999998</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.84620399999999996</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.86282199999999998</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.86510299999999996</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.86086700000000005</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.84620399999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.94591099999999995</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.95145000000000002</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.95894400000000002</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.95307900000000001</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.95079800000000003</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.92538299999999996</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.92114700000000005</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.92114700000000005</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.93092200000000003</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.95666300000000004</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.95894400000000002</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.95633800000000002</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.959596</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.95829299999999995</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.92408000000000001</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.92603500000000005</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.93743900000000002</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.92864100000000005</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.93646099999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.96806800000000004</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.97132600000000002</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.97034900000000002</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.96937099999999998</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.96252899999999997</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.95861799999999997</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.96155100000000004</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.96089899999999995</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.95829299999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3.0629E-2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4.0404000000000002E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4.4965999999999999E-2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5.3111999999999999E-2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>6.4516000000000004E-2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.15249299999999999</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.18051500000000001</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.130661</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.128381</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.124471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.6067E-2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2.6719E-2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2.3460000000000002E-2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3.3887E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3.9426999999999997E-2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>6.5819000000000003E-2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>6.4841999999999997E-2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>6.7123000000000002E-2</v>
-      </c>
-      <c r="K8" s="5">
-        <v>5.7674000000000003E-2</v>
-      </c>
-      <c r="L8" s="5">
-        <v>4.9528000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1.7595E-2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2.2808999999999999E-2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2.7695999999999998E-2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2.6393E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2.8021999999999998E-2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>6.4516000000000004E-2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5.9629000000000001E-2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>5.1483000000000001E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <v>5.9629000000000001E-2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5.0831000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.2708000000000001E-2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.6944000000000001E-2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2.7695999999999998E-2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2.3786000000000002E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3.5515999999999999E-2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>4.0078000000000003E-2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.130661</v>
-      </c>
-      <c r="J10" s="5">
-        <v>3.5191E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <v>3.5515999999999999E-2</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3.5841999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.11208899999999999</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5.7022000000000003E-2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1.7269E-2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3.5839999999999999E-3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1.3029999999999999E-3</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1.9550000000000001E-3</v>
-      </c>
-      <c r="J11" s="5">
-        <v>4.2360000000000002E-3</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1.0753E-2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>2.9326000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.8021999999999998E-2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2.1831E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.7595E-2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.3034E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>9.7750000000000007E-3</v>
-      </c>
-      <c r="H12" s="5">
-        <v>8.7980000000000003E-3</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1.1403999999999999E-2</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1.1730000000000001E-2</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1.1403999999999999E-2</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1.2708000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.5741E-2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1.8246999999999999E-2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.5966000000000001E-2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1.4010999999999999E-2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1.3684999999999999E-2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1.1403999999999999E-2</v>
-      </c>
-      <c r="I13" s="5">
-        <v>9.1229999999999992E-3</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1.1079E-2</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1.1730000000000001E-2</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1.2708000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1.9224999999999999E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.1730000000000001E-2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.9550000000000001E-3</v>
-      </c>
-      <c r="F14" s="5">
-        <v>6.8430000000000001E-3</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1.9550000000000001E-3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1.3029999999999999E-3</v>
-      </c>
-      <c r="I14" s="5">
-        <v>2.6069999999999999E-3</v>
-      </c>
-      <c r="J14" s="5">
-        <v>3.258E-3</v>
-      </c>
-      <c r="K14" s="5">
-        <v>3.5839999999999999E-3</v>
-      </c>
-      <c r="L14" s="5">
-        <v>5.8650000000000004E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F195A-92DD-DC4F-8798-7EB3A813CF21}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:P24"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1628,24 +1634,24 @@
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
         <v>1</v>
       </c>
@@ -1677,8 +1683,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1715,8 +1721,8 @@
         <v>0.91729300000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1751,8 +1757,8 @@
         <v>0.88972399999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1787,8 +1793,8 @@
         <v>0.88721799999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1823,8 +1829,8 @@
         <v>0.95238100000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1860,9 +1866,19 @@
       <c r="L7" s="9">
         <v>2.506E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1896,9 +1912,10 @@
       <c r="L8" s="9">
         <v>7.2681999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1933,8 +1950,8 @@
         <v>7.7693999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1969,8 +1986,8 @@
         <v>2.5062999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2007,8 +2024,8 @@
         <v>8.0200999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2043,8 +2060,8 @@
         <v>3.7594000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2079,8 +2096,8 @@
         <v>3.5088000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688DEF14-1D3C-174E-A3B9-68E36315ABC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216C1CA2-9721-054A-83C9-989054C43609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="8500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="7100" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
     <sheet name="join-with-learning" sheetId="2" r:id="rId2"/>
     <sheet name="union-no-learning" sheetId="4" r:id="rId3"/>
     <sheet name="union-with-learning" sheetId="5" r:id="rId4"/>
+    <sheet name="new-results" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>llama</t>
   </si>
@@ -84,6 +85,91 @@
   </si>
   <si>
     <t>max_area</t>
+  </si>
+  <si>
+    <t>comb-worst</t>
+  </si>
+  <si>
+    <t>comb-best</t>
+  </si>
+  <si>
+    <t>Heuristic-Driven 
+Approaches</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>angle-worst
+(min_angle=1)</t>
+  </si>
+  <si>
+    <t>distance-worst
+(min_distance=1)</t>
+  </si>
+  <si>
+    <t>angle-best
+(min_angle=10)</t>
+  </si>
+  <si>
+    <t>distance-best
+(min_distance=3)</t>
+  </si>
+  <si>
+    <t>no-heuristics</t>
+  </si>
+  <si>
+    <t>with-heuristics-value (degree)</t>
+  </si>
+  <si>
+    <t>with-heuristics-hint (degree)</t>
+  </si>
+  <si>
+    <t>with-heuristics-hint (distance)</t>
+  </si>
+  <si>
+    <t>with-heuristics-hint (comb)</t>
+  </si>
+  <si>
+    <t>with-heuristics-value (distance)</t>
+  </si>
+  <si>
+    <t>with-heuristics-value (comb)</t>
+  </si>
+  <si>
+    <t>Without
+ Fine-Tuning</t>
+  </si>
+  <si>
+    <t>Zero
+Shot</t>
+  </si>
+  <si>
+    <t>Few
+Shot</t>
+  </si>
+  <si>
+    <t>With 
+Fine-Tuning</t>
+  </si>
+  <si>
+    <t>noisy labels</t>
+  </si>
+  <si>
+    <t>ground truth labels</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Spatial Join Task</t>
+  </si>
+  <si>
+    <t>representation</t>
+  </si>
+  <si>
+    <t>Machine/Deep Learning
+Approaches</t>
   </si>
 </sst>
 </file>
@@ -93,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +220,19 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +297,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,12 +948,15 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -1622,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F195A-92DD-DC4F-8798-7EB3A813CF21}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2142,4 +2271,311 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="16"/>
+    <col min="5" max="5" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.84620399999999996</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.86510299999999996</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.95894400000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.95633800000000002</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.97034900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216C1CA2-9721-054A-83C9-989054C43609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C13E9F1-F80E-4C46-9D95-8B8624EF8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="7100" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -119,12 +119,6 @@
     <t>no-heuristics</t>
   </si>
   <si>
-    <t>with-heuristics-value (degree)</t>
-  </si>
-  <si>
-    <t>with-heuristics-hint (degree)</t>
-  </si>
-  <si>
     <t>with-heuristics-hint (distance)</t>
   </si>
   <si>
@@ -170,6 +164,12 @@
   <si>
     <t>Machine/Deep Learning
 Approaches</t>
+  </si>
+  <si>
+    <t>with-heuristics-hint (angle)</t>
+  </si>
+  <si>
+    <t>with-heuristics-value (angle)</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +287,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,22 +309,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -323,8 +320,14 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +666,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,23 +680,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -715,7 +718,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -742,7 +745,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -767,7 +770,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -792,7 +795,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -817,7 +820,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -844,7 +847,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -869,7 +872,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -894,7 +897,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -961,20 +964,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1009,7 +1012,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1047,7 +1050,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1086,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1122,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1155,7 +1158,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1193,7 +1196,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1232,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +1268,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1304,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1339,7 +1342,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1378,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1414,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1481,23 +1484,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1522,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1546,7 +1549,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1574,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1599,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1621,7 +1624,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1648,7 +1651,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1676,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1701,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1765,20 +1768,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1813,7 +1816,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1851,7 +1854,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1890,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1923,7 +1926,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1959,7 +1962,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2007,7 +2010,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2047,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2080,7 +2083,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2119,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2154,7 +2157,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2190,7 +2193,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2229,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2278,264 +2281,336 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="16"/>
-    <col min="5" max="5" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="16.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
+    <col min="5" max="5" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.84620399999999996</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.86510299999999996</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0.85728300000000002</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.84620399999999996</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.86510299999999996</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.48843271423916501</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.58390355164548702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.52362333007494299</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.58162267839687198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.51156728576083399</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.58129683936135501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.57999348321928901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="18" t="s">
+      <c r="D15" s="25">
+        <v>0.55979146301726901</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.63701531443466897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.54154447702834796</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.57771260997067397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.54089279895731501</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.576083414793092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.47018572825024402</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.44020853698272999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="D19" s="25">
+        <v>0.47539915281850698</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.49266862170087899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.44639947865754298</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.51938742261322901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.44965786901270699</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.45389377647442097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.60019550342130901</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.784620397523623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.44542196155099301</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.53176930596285399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.453567937438905</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.48061257738676999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="D26" s="5">
         <v>0.95894400000000002</v>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C13E9F1-F80E-4C46-9D95-8B8624EF8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632C11D-5E51-8040-9D1F-32C6F84A42E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="7100" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
-    <sheet name="join-with-learning" sheetId="2" r:id="rId2"/>
+    <sheet name="join-cross-data-results" sheetId="2" r:id="rId2"/>
     <sheet name="union-no-learning" sheetId="4" r:id="rId3"/>
     <sheet name="union-with-learning" sheetId="5" r:id="rId4"/>
-    <sheet name="new-results" sheetId="6" r:id="rId5"/>
+    <sheet name="new-join-results" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>llama</t>
   </si>
@@ -87,66 +87,12 @@
     <t>max_area</t>
   </si>
   <si>
-    <t>comb-worst</t>
-  </si>
-  <si>
-    <t>comb-best</t>
-  </si>
-  <si>
-    <t>Heuristic-Driven 
-Approaches</t>
-  </si>
-  <si>
     <t>XGBoost</t>
   </si>
   <si>
-    <t>angle-worst
-(min_angle=1)</t>
-  </si>
-  <si>
-    <t>distance-worst
-(min_distance=1)</t>
-  </si>
-  <si>
-    <t>angle-best
-(min_angle=10)</t>
-  </si>
-  <si>
-    <t>distance-best
-(min_distance=3)</t>
-  </si>
-  <si>
     <t>no-heuristics</t>
   </si>
   <si>
-    <t>with-heuristics-hint (distance)</t>
-  </si>
-  <si>
-    <t>with-heuristics-hint (comb)</t>
-  </si>
-  <si>
-    <t>with-heuristics-value (distance)</t>
-  </si>
-  <si>
-    <t>with-heuristics-value (comb)</t>
-  </si>
-  <si>
-    <t>Without
- Fine-Tuning</t>
-  </si>
-  <si>
-    <t>Zero
-Shot</t>
-  </si>
-  <si>
-    <t>Few
-Shot</t>
-  </si>
-  <si>
-    <t>With 
-Fine-Tuning</t>
-  </si>
-  <si>
     <t>noisy labels</t>
   </si>
   <si>
@@ -156,20 +102,61 @@
     <t>Methods</t>
   </si>
   <si>
-    <t>Spatial Join Task</t>
-  </si>
-  <si>
     <t>representation</t>
   </si>
   <si>
-    <t>Machine/Deep Learning
-Approaches</t>
-  </si>
-  <si>
-    <t>with-heuristics-hint (angle)</t>
-  </si>
-  <si>
-    <t>with-heuristics-value (angle)</t>
+    <t>Heuristic-Driven</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>worst (min_angle=1)</t>
+  </si>
+  <si>
+    <t>best (min_angle=10)</t>
+  </si>
+  <si>
+    <t>best (min_dist=3)</t>
+  </si>
+  <si>
+    <t>worst (min_dist=1)</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Without Fine-Tuning</t>
+  </si>
+  <si>
+    <t>With Fine-Tuning</t>
+  </si>
+  <si>
+    <t>min_dist</t>
+  </si>
+  <si>
+    <t>llama3</t>
   </si>
 </sst>
 </file>
@@ -179,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,13 +220,26 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,23 +311,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2278,375 +2296,473 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="12"/>
-    <col min="5" max="5" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="2" width="4.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="20">
         <v>0.85728300000000002</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0.84620399999999996</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="C5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.84620399999999996</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="C6" s="23"/>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.86510299999999996</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.86510299999999996</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>37</v>
+      <c r="C8" s="23"/>
+      <c r="D8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="23"/>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="19"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.48843271423916501</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0.58390355164548702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.52362333007494299</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0.58162267839687198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0.51156728576083399</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0.58129683936135501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="23"/>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0.483870967741935</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0.57999348321928901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="23"/>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.55979146301726901</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.63701531443466897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="25">
-        <v>0.54154447702834796</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0.57771260997067397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="25">
-        <v>0.54089279895731501</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.576083414793092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="25">
-        <v>0.47018572825024402</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0.44020853698272999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0.47539915281850698</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0.49266862170087899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="25">
-        <v>0.44639947865754298</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0.51938742261322901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="25">
-        <v>0.44965786901270699</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.45389377647442097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0.60019550342130901</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0.784620397523623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="25">
-        <v>0.44542196155099301</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0.53176930596285399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="25">
-        <v>0.453567937438905</v>
-      </c>
-      <c r="E24" s="25">
-        <v>0.48061257738676999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.95894400000000002</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.95633800000000002</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.97034900000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="13">
+        <v>5</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="13">
+        <v>10</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="13">
+        <v>20</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="13">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
+  <mergeCells count="27">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:B10"/>
     <mergeCell ref="A11:A24"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B24"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632C11D-5E51-8040-9D1F-32C6F84A42E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354EF0E2-A16F-B149-A097-B9EA8270CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="10340" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,6 @@
     <t>worst (min_dist=1)</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>ML</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>llama3</t>
+  </si>
+  <si>
+    <t>worst (1,5)</t>
+  </si>
+  <si>
+    <t>best (10,2)</t>
   </si>
 </sst>
 </file>
@@ -228,18 +228,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +290,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,40 +317,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,23 +689,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -736,7 +727,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -763,7 +754,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -788,7 +779,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,7 +804,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -838,7 +829,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -865,7 +856,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -890,7 +881,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -915,7 +906,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -982,20 +973,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1030,7 +1021,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1068,7 +1059,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1095,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1140,7 +1131,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1167,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1214,7 +1205,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1241,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1277,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1313,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1360,7 +1351,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1387,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1432,7 +1423,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1502,23 +1493,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1540,7 +1531,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1567,7 +1558,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1583,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1608,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1642,7 +1633,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1669,7 +1660,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1685,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1719,7 +1710,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1786,20 +1777,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1834,7 +1825,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1872,7 +1863,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1899,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1944,7 +1935,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +1971,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2028,7 +2019,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2056,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2092,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2128,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2175,7 +2166,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2202,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2247,7 +2238,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2299,7 +2290,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2313,385 +2304,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="27">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="27">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="27">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="27">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="E11" s="28">
+        <v>0.49234278266536302</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.60247637666992504</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.40795047246660099</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
+      <c r="E12" s="28">
+        <v>0.51710654936461298</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.60084718149234195</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.59237536656891498</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="E13" s="28">
+        <v>0.54089279895731501</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.59954382535027695</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0.50667970022808695</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
+      <c r="E14" s="28">
+        <v>0.49201694362984599</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.59921798631475998</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.46757901596611201</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="28">
+        <v>0.596285434995112</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0.65786901270772202</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.93385467579015902</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
+      <c r="E16" s="28">
+        <v>0.55751058976865397</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.598892147279244</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0.76050830889540499</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="28">
+        <v>0.55131964809384104</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.598892147279244</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0.88367546432062505</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="E18" s="28">
+        <v>0.47214076246334302</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0.493320299771912</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="E19" s="28">
+        <v>0.46953405017921102</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.52916259367872198</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0.60182469859889198</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="E20" s="28">
+        <v>0.50993809058325101</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.67676767676767602</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.516780710329097</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="E21" s="28">
+        <v>0.50863473444118601</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0.57543173672205905</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0.53828608667318301</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="28">
+        <v>0.598892147279244</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0.85174323884001302</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0.92049527533398501</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
+      <c r="E23" s="28">
+        <v>0.503421309872922</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0.59824046920821095</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0.83447376995764</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
+      <c r="E24" s="28">
+        <v>0.51482567611599805</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0.58520690778755202</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0.916585206907787</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23" t="s">
-        <v>37</v>
+      <c r="A30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
@@ -2700,9 +2779,9 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
@@ -2711,40 +2790,45 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2754,18 +2838,13 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="C25:C29"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354EF0E2-A16F-B149-A097-B9EA8270CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77E0A5-8510-9D44-8313-4B64E7B473EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="10340" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>llama</t>
   </si>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +302,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,6 +317,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,22 +327,10 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,23 +683,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -727,7 +721,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -754,7 +748,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -779,7 +773,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -804,7 +798,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -829,7 +823,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -856,7 +850,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -881,7 +875,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -906,7 +900,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -973,20 +967,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1021,7 +1015,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1059,7 +1053,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1089,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1125,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1161,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1205,7 +1199,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1235,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1271,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1307,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1351,7 +1345,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1381,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1417,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1493,23 +1487,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1531,7 +1525,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1558,7 +1552,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +1577,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1602,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1633,7 +1627,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1660,7 +1654,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1679,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +1704,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1777,20 +1771,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1825,7 +1819,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1863,7 +1857,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1893,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1935,7 +1929,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1971,7 +1965,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2019,7 +2013,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2050,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2092,7 +2086,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2128,7 +2122,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2166,7 +2160,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2196,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2238,7 +2232,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2287,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2298,537 +2292,469 @@
     <col min="1" max="2" width="4.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="12"/>
+    <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24" t="s">
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24" t="s">
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="24">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="19">
         <v>0.49234278266536302</v>
       </c>
-      <c r="F11" s="28">
-        <v>0.60247637666992504</v>
-      </c>
-      <c r="G11" s="28">
+      <c r="F11" s="19">
         <v>0.40795047246660099</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="19">
         <v>0.51710654936461298</v>
       </c>
-      <c r="F12" s="28">
-        <v>0.60084718149234195</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="F12" s="19">
         <v>0.59237536656891498</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="19">
         <v>0.54089279895731501</v>
       </c>
-      <c r="F13" s="28">
-        <v>0.59954382535027695</v>
-      </c>
-      <c r="G13" s="28">
+      <c r="F13" s="19">
         <v>0.50667970022808695</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="19">
         <v>0.49201694362984599</v>
       </c>
-      <c r="F14" s="28">
-        <v>0.59921798631475998</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="F14" s="19">
         <v>0.46757901596611201</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="19">
         <v>0.596285434995112</v>
       </c>
-      <c r="F15" s="28">
-        <v>0.65786901270772202</v>
-      </c>
-      <c r="G15" s="28">
+      <c r="F15" s="19">
         <v>0.93385467579015902</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="19">
         <v>0.55751058976865397</v>
       </c>
-      <c r="F16" s="28">
-        <v>0.598892147279244</v>
-      </c>
-      <c r="G16" s="28">
+      <c r="F16" s="19">
         <v>0.76050830889540499</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="19">
         <v>0.55131964809384104</v>
       </c>
-      <c r="F17" s="28">
-        <v>0.598892147279244</v>
-      </c>
-      <c r="G17" s="28">
+      <c r="F17" s="19">
         <v>0.88367546432062505</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="19">
         <v>0.47214076246334302</v>
       </c>
-      <c r="F18" s="28">
-        <v>0.45454545454545398</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="F18" s="19">
         <v>0.493320299771912</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="19">
         <v>0.46953405017921102</v>
       </c>
-      <c r="F19" s="28">
-        <v>0.52916259367872198</v>
-      </c>
-      <c r="G19" s="28">
+      <c r="F19" s="19">
         <v>0.60182469859889198</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="19">
         <v>0.50993809058325101</v>
       </c>
-      <c r="F20" s="28">
-        <v>0.67676767676767602</v>
-      </c>
-      <c r="G20" s="28">
+      <c r="F20" s="19">
         <v>0.516780710329097</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="19">
         <v>0.50863473444118601</v>
       </c>
-      <c r="F21" s="28">
-        <v>0.57543173672205905</v>
-      </c>
-      <c r="G21" s="28">
+      <c r="F21" s="19">
         <v>0.53828608667318301</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="19">
         <v>0.598892147279244</v>
       </c>
-      <c r="F22" s="28">
-        <v>0.85174323884001302</v>
-      </c>
-      <c r="G22" s="28">
+      <c r="F22" s="19">
         <v>0.92049527533398501</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="19">
         <v>0.503421309872922</v>
       </c>
-      <c r="F23" s="28">
-        <v>0.59824046920821095</v>
-      </c>
-      <c r="G23" s="28">
+      <c r="F23" s="19">
         <v>0.83447376995764</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="19">
         <v>0.51482567611599805</v>
       </c>
-      <c r="F24" s="28">
-        <v>0.58520690778755202</v>
-      </c>
-      <c r="G24" s="28">
+      <c r="F24" s="19">
         <v>0.916585206907787</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
       <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24" t="s">
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2838,14 +2764,32 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:F35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="65"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77E0A5-8510-9D44-8313-4B64E7B473EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B52558-71FF-2242-87D5-6DE4110FCCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="10340" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +305,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,20 +320,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,23 +686,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -721,7 +724,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -748,7 +751,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -773,7 +776,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -798,7 +801,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -823,7 +826,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -850,7 +853,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -875,7 +878,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -900,7 +903,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -967,20 +970,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1015,7 +1018,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1053,7 +1056,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1092,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1128,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1164,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1199,7 +1202,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1238,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1274,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1307,7 +1310,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1345,7 +1348,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1384,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1420,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1487,23 +1490,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1552,7 +1555,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1580,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1602,7 +1605,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1630,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1654,7 +1657,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1679,7 +1682,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1704,7 +1707,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1771,20 +1774,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1819,7 +1822,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1857,7 +1860,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1896,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +1932,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1968,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2013,7 +2016,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2053,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2089,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2122,7 +2125,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2160,7 +2163,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2199,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2232,7 +2235,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2284,7 +2287,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2298,22 +2301,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2322,112 +2325,112 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="29">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="29">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="29">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="29">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="29">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="27">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
@@ -2442,9 +2445,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2458,9 +2461,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2472,9 +2475,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2486,9 +2489,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2502,9 +2505,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2516,9 +2519,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2530,8 +2533,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
@@ -2546,9 +2549,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2562,9 +2565,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2576,9 +2579,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2590,9 +2593,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2606,9 +2609,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2620,9 +2623,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2634,55 +2637,61 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="8">
+        <v>0.83805799999999997</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.86933899999999997</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="8">
+        <v>0.92701199999999995</v>
+      </c>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
@@ -2690,9 +2699,9 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
@@ -2702,9 +2711,9 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
@@ -2712,9 +2721,9 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
@@ -2722,39 +2731,47 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2764,21 +2781,13 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:F35">
+  <conditionalFormatting sqref="E3:F24 E26:F27 E29:F35 F28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="0"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B52558-71FF-2242-87D5-6DE4110FCCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484ED3F7-39E0-6D4E-9F15-6A92F5BADDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="10340" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="10840" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>llama</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>best (10,2)</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -320,20 +323,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +675,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,7 +960,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="C4" sqref="C4:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2287,7 +2290,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2325,112 +2328,112 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="25">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="25">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="25">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="25">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="25">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
@@ -2445,9 +2448,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2461,9 +2464,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2475,9 +2478,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2489,9 +2492,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2505,9 +2508,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2519,9 +2522,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2533,8 +2536,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
@@ -2549,9 +2552,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2565,9 +2568,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2579,9 +2582,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2593,9 +2596,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2609,9 +2612,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2623,9 +2626,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2637,13 +2640,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
@@ -2657,9 +2660,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
@@ -2667,9 +2670,9 @@
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
@@ -2677,9 +2680,9 @@
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
@@ -2689,9 +2692,9 @@
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
@@ -2699,9 +2702,9 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
@@ -2711,9 +2714,9 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
@@ -2721,57 +2724,52 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2781,11 +2779,19 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F24 E26:F27 E29:F35 F28">
     <cfRule type="colorScale" priority="1">

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484ED3F7-39E0-6D4E-9F15-6A92F5BADDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE8707-524A-1247-A689-5DA25D87B60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="10840" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
   <si>
     <t>llama</t>
   </si>
@@ -160,13 +160,20 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>zero-shot correction</t>
+  </si>
+  <si>
+    <t>few-shot correction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
@@ -251,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,20 +330,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2287,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2300,10 +2310,13 @@
     <col min="4" max="4" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="12"/>
+    <col min="7" max="7" width="10.83203125" style="12"/>
+    <col min="8" max="8" width="20" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -2315,7 +2328,7 @@
       </c>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2327,113 +2340,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="29">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="29">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="29">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="29">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="29">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="27">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
@@ -2446,11 +2459,12 @@
       <c r="F11" s="19">
         <v>0.40795047246660099</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27" t="s">
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2463,10 +2477,10 @@
         <v>0.59237536656891498</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2477,10 +2491,10 @@
         <v>0.50667970022808695</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2491,10 +2505,10 @@
         <v>0.46757901596611201</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2507,10 +2521,10 @@
         <v>0.93385467579015902</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2521,10 +2535,10 @@
         <v>0.76050830889540499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2535,9 +2549,9 @@
         <v>0.88367546432062505</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
@@ -2551,10 +2565,10 @@
         <v>0.493320299771912</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2567,10 +2581,10 @@
         <v>0.60182469859889198</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2581,10 +2595,10 @@
         <v>0.516780710329097</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2595,10 +2609,10 @@
         <v>0.53828608667318301</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2611,10 +2625,10 @@
         <v>0.92049527533398501</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2625,10 +2639,10 @@
         <v>0.83447376995764</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2639,14 +2653,14 @@
         <v>0.916585206907787</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
@@ -2658,31 +2672,37 @@
       <c r="F25" s="8">
         <v>0.86933899999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="H25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+    <row r="27" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
@@ -2691,20 +2711,20 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
@@ -2713,20 +2733,20 @@
       <c r="E30" s="16"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
@@ -2734,28 +2754,28 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="12" t="s">
         <v>39</v>
       </c>
@@ -2765,11 +2785,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2779,19 +2807,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F24 E26:F27 E29:F35 F28">
     <cfRule type="colorScale" priority="1">

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE8707-524A-1247-A689-5DA25D87B60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35CF31-B6B0-064B-AC9D-3D109E512F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="10840" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>llama</t>
   </si>
@@ -160,12 +160,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>zero-shot correction</t>
-  </si>
-  <si>
-    <t>few-shot correction</t>
   </si>
 </sst>
 </file>
@@ -318,6 +312,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,23 +327,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,23 +693,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -737,7 +731,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -764,7 +758,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -789,7 +783,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +808,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -839,7 +833,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -866,7 +860,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -891,7 +885,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -916,7 +910,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -983,20 +977,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1031,7 +1025,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1069,7 +1063,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1099,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1135,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1171,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1215,7 +1209,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1245,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1281,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1317,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1361,7 +1355,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1391,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1427,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1503,23 +1497,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1535,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1568,7 +1562,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1587,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1618,7 +1612,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1643,7 +1637,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1670,7 +1664,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1695,7 +1689,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1714,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1787,20 +1781,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1835,7 +1829,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1873,7 +1867,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1903,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1945,7 +1939,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1981,7 +1975,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2029,7 +2023,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2060,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2102,7 +2096,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2132,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2176,7 +2170,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2206,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +2242,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2297,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2317,22 +2311,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2341,77 +2335,77 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="26">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="26">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="26">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
@@ -2421,11 +2415,11 @@
       <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
@@ -2433,9 +2427,9 @@
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2443,10 +2437,10 @@
       <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
@@ -2459,12 +2453,12 @@
       <c r="F11" s="19">
         <v>0.40795047246660099</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2478,9 +2472,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2492,9 +2486,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2506,9 +2500,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2522,9 +2516,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2535,10 +2529,10 @@
         <v>0.76050830889540499</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2549,9 +2543,9 @@
         <v>0.88367546432062505</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
@@ -2565,10 +2559,10 @@
         <v>0.493320299771912</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2581,10 +2575,10 @@
         <v>0.60182469859889198</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2595,10 +2589,10 @@
         <v>0.516780710329097</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2609,10 +2603,10 @@
         <v>0.53828608667318301</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2625,10 +2619,10 @@
         <v>0.92049527533398501</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2639,10 +2633,10 @@
         <v>0.83447376995764</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2653,14 +2647,14 @@
         <v>0.916585206907787</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
@@ -2672,37 +2666,31 @@
       <c r="F25" s="8">
         <v>0.86933899999999997</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+    <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
@@ -2711,20 +2699,20 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
@@ -2733,20 +2721,20 @@
       <c r="E30" s="16"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
@@ -2754,23 +2742,23 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="27" t="s">
         <v>18</v>
       </c>
@@ -2785,19 +2773,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2807,11 +2787,19 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F24 E26:F27 E29:F35 F28">
     <cfRule type="colorScale" priority="1">

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35CF31-B6B0-064B-AC9D-3D109E512F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E267BD6-BAD4-0047-8B77-05AB2CCF7DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="10840" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="union-no-learning" sheetId="4" r:id="rId3"/>
     <sheet name="union-with-learning" sheetId="5" r:id="rId4"/>
     <sheet name="new-join-results" sheetId="6" r:id="rId5"/>
+    <sheet name="new-join-results (2)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
   <si>
     <t>llama</t>
   </si>
@@ -160,17 +161,49 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Heuristic
+Driven</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Few-
+Shot</t>
+  </si>
+  <si>
+    <t>Zero-
+Shot</t>
+  </si>
+  <si>
+    <t>No Fine-Tuning</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>value+
+self-correction</t>
+  </si>
+  <si>
+    <t>noisy label+
+value+
+self-correction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +264,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,8 +351,11 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,20 +369,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +724,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,23 +738,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -731,7 +776,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -758,7 +803,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -783,7 +828,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -808,7 +853,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -833,7 +878,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -860,7 +905,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -885,7 +930,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -910,7 +955,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -964,7 +1009,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L14"/>
+      <selection activeCell="H3" sqref="H3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,20 +1022,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1025,7 +1070,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1063,7 +1108,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1144,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1180,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1216,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1209,7 +1254,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1290,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1326,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +1362,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1355,7 +1400,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1436,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1472,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1497,23 +1542,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1535,7 +1580,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1562,7 +1607,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1587,7 +1632,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1657,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1637,7 +1682,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1664,7 +1709,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1734,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +1759,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1781,20 +1826,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1829,7 +1874,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1867,7 +1912,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1948,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1939,7 +1984,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +2020,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2023,7 +2068,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2105,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2141,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2177,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2170,7 +2215,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2251,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2242,7 +2287,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2291,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2304,29 +2349,26 @@
     <col min="4" max="4" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="12"/>
-    <col min="8" max="8" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="12"/>
+    <col min="7" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2334,474 +2376,486 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="31">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="31">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="31">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="31">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="31">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="29">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="19">
         <v>0.49234278266536302</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="19">
         <v>0.40795047246660099</v>
       </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>0.51710654936461298</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F13" s="19">
         <v>0.59237536656891498</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E14" s="19">
         <v>0.54089279895731501</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F14" s="19">
         <v>0.50667970022808695</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E15" s="19">
         <v>0.49201694362984599</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F15" s="19">
         <v>0.46757901596611201</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E16" s="19">
         <v>0.596285434995112</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F16" s="19">
         <v>0.93385467579015902</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="13" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E17" s="19">
         <v>0.55751058976865397</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F17" s="19">
         <v>0.76050830889540499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="13" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="19">
         <v>0.55131964809384104</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F18" s="19">
         <v>0.88367546432062505</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E19" s="19">
         <v>0.47214076246334302</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F19" s="19">
         <v>0.493320299771912</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E20" s="19">
         <v>0.46953405017921102</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F20" s="19">
         <v>0.60182469859889198</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="13" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E21" s="19">
         <v>0.50993809058325101</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F21" s="19">
         <v>0.516780710329097</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="13" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="19">
         <v>0.50863473444118601</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F22" s="19">
         <v>0.53828608667318301</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E23" s="19">
         <v>0.598892147279244</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F23" s="19">
         <v>0.92049527533398501</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="13" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="19">
         <v>0.503421309872922</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F24" s="19">
         <v>0.83447376995764</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="13" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E25" s="19">
         <v>0.51482567611599805</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F25" s="19">
         <v>0.916585206907787</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="26" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>1</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>0.83805799999999997</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>0.86933899999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="13">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="13">
         <v>2</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="13">
-        <v>5</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+    <row r="28" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="13">
+        <v>5</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="13">
         <v>10</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>0.92701199999999995</v>
       </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="13">
+      <c r="F29" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="13">
         <v>20</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="13">
         <v>2</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="13">
-        <v>3</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="13">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="13">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="27" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="12" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="F36" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A12:A25"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:F24 E26:F27 E29:F35 F28">
+  <conditionalFormatting sqref="E3:F25 E27:F28 E30:F36 F29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="0"/>
@@ -2815,4 +2869,323 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.49234278266536302</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.40795047246660099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.51710654936461298</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.59237536656891498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.596285434995112</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.93385467579015902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.47214076246334302</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.493320299771912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.46953405017921102</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.60182469859889198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.598892147279244</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.92049527533398501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.83805799999999997</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.86933899999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="13">
+        <v>5</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="13">
+        <v>10</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.92701199999999995</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B7:C11"/>
+    <mergeCell ref="B12:C16"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E267BD6-BAD4-0047-8B77-05AB2CCF7DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BABFAC6-F591-CE43-9FB3-568053604B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="10840" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="10840" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
   <si>
     <t>llama</t>
   </si>
@@ -187,13 +187,10 @@
     <t>Model</t>
   </si>
   <si>
-    <t>value+
-self-correction</t>
-  </si>
-  <si>
-    <t>noisy label+
-value+
-self-correction</t>
+    <t>value+sc</t>
+  </si>
+  <si>
+    <t>heuristics</t>
   </si>
 </sst>
 </file>
@@ -342,9 +339,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,23 +735,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -776,7 +773,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -803,7 +800,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -828,7 +825,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -853,7 +850,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -878,7 +875,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -905,7 +902,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -930,7 +927,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -955,7 +952,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1006,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:L6"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,20 +1019,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1070,7 +1067,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1108,7 +1105,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1141,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1177,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1216,7 +1213,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1254,7 +1251,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1287,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1323,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1362,7 +1359,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1400,7 +1397,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1433,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1469,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1542,23 +1539,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1580,7 +1577,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1607,7 +1604,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1629,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1657,7 +1654,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1682,7 +1679,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1709,7 +1706,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1734,7 +1731,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1759,7 +1756,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1826,20 +1823,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1874,7 +1871,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1912,7 +1909,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1945,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1984,7 +1981,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2017,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2068,7 +2065,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2102,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2138,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2215,7 +2212,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2248,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2284,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2338,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2353,22 +2350,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2377,333 +2374,333 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="30">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>0.49234278266536302</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>0.40795047246660099</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>0.51710654936461298</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>0.59237536656891498</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>0.54089279895731501</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>0.50667970022808695</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>0.49201694362984599</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>0.46757901596611201</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>0.596285434995112</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>0.93385467579015902</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>0.55751058976865397</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>0.76050830889540499</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>0.55131964809384104</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>0.88367546432062505</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>0.47214076246334302</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>0.493320299771912</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>0.46953405017921102</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>0.60182469859889198</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>0.50993809058325101</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>0.516780710329097</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>0.50863473444118601</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>0.53828608667318301</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>0.598892147279244</v>
       </c>
-      <c r="F23" s="19">
-        <v>0.92049527533398501</v>
+      <c r="F23" s="18">
+        <v>0.928641251221896</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>0.503421309872922</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>0.83447376995764</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>0.51482567611599805</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>0.916585206907787</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="13">
@@ -2717,65 +2714,65 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="13">
         <v>2</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="13">
         <v>5</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="13">
         <v>10</v>
       </c>
       <c r="E29" s="8">
         <v>0.92701199999999995</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="13">
         <v>20</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="13">
         <v>2</v>
       </c>
@@ -2783,9 +2780,9 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="13">
         <v>3</v>
       </c>
@@ -2793,37 +2790,41 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="13">
         <v>4</v>
       </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="13">
         <v>5</v>
       </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="12" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2855,13 +2856,13 @@
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="C26:C30"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:F25 E27:F28 E30:F36 F29">
+  <conditionalFormatting sqref="E3:F36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="65"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.499984740745262"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color theme="6"/>
       </colorScale>
@@ -2873,315 +2874,353 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="21" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="13"/>
+    <col min="7" max="9" width="10.83203125" style="13"/>
+    <col min="10" max="11" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="13"/>
+    <col min="13" max="13" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="M2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="F3" s="30"/>
+      <c r="J3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.85728300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="F4" s="30"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="13">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.90257399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="13">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="13">
+        <v>10</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.94330400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>0.49234278266536302</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>0.40795047246660099</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="13">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.93548399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>0.51710654936461298</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>0.59237536656891498</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>0.596285434995112</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>0.93385467579015902</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="40" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+    <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.47214076246334302</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.493320299771912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.47214076246334302</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0.493320299771912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.46953405017921102</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.60182469859889198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0.46953405017921102</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0.60182469859889198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E13" s="21">
         <v>0.598892147279244</v>
       </c>
-      <c r="F14" s="22">
-        <v>0.92049527533398501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="14" t="s">
+      <c r="F13" s="18">
+        <v>0.928641251221896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.83805799999999997</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.86933899999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0.83805799999999997</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0.86933899999999997</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.92701199999999995</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="13">
-        <v>5</v>
-      </c>
-      <c r="F19" s="20"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="13">
-        <v>10</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0.92701199999999995</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="F20" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A21" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="J3:K7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B7:C11"/>
-    <mergeCell ref="B12:C16"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B11:C14"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E4:F4"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BABFAC6-F591-CE43-9FB3-568053604B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1277AA8F-5F4E-FD4A-AC82-0031411C0DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="10840" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -351,6 +351,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,8 +366,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -373,16 +382,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,23 +735,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -800,7 +800,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -902,7 +902,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1019,20 +1019,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1251,7 +1251,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1539,23 +1539,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1604,7 +1604,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1706,7 +1706,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1823,20 +1823,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1909,7 +1909,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2017,7 +2017,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2065,7 +2065,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2333,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2374,490 +2374,482 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15"/>
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.49234278266536302</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.40795047246660099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.51710654936461298</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.59237536656891498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.54089279895731501</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.50667970022808695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.49201694362984599</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.46757901596611201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.596285434995112</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.93385467579015902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.55751058976865397</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.76050830889540499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.55131964809384104</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.88367546432062505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="18">
-        <v>0.49234278266536302</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0.40795047246660099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26" t="s">
+      <c r="E18" s="18">
+        <v>0.47214076246334302</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.493320299771912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="18">
-        <v>0.51710654936461298</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.59237536656891498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="13" t="s">
+      <c r="E19" s="18">
+        <v>0.46953405017921102</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.60182469859889198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="18">
-        <v>0.54089279895731501</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0.50667970022808695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="13" t="s">
+      <c r="E20" s="18">
+        <v>0.50993809058325101</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.516780710329097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="18">
-        <v>0.49201694362984599</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0.46757901596611201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26" t="s">
+      <c r="E21" s="18">
+        <v>0.50863473444118601</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.53828608667318301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="18">
-        <v>0.596285434995112</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0.93385467579015902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="13" t="s">
+      <c r="E22" s="18">
+        <v>0.598892147279244</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.928641251221896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="18">
-        <v>0.55751058976865397</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0.76050830889540499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="13" t="s">
+      <c r="E23" s="18">
+        <v>0.503421309872922</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0.83447376995764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="18">
-        <v>0.55131964809384104</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.88367546432062505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.47214076246334302</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0.493320299771912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0.46953405017921102</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0.60182469859889198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0.50993809058325101</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0.516780710329097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0.50863473444118601</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0.53828608667318301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0.598892147279244</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0.928641251221896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="E24" s="18">
-        <v>0.503421309872922</v>
+        <v>0.51482567611599805</v>
       </c>
       <c r="F24" s="18">
-        <v>0.83447376995764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0.51482567611599805</v>
-      </c>
-      <c r="F25" s="18">
         <v>0.916585206907787</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C25" s="28" t="s">
         <v>12</v>
       </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.83805799999999997</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.86933899999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0.83805799999999997</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.86933899999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="13">
-        <v>5</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.92701199999999995</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="13">
-        <v>10</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0.92701199999999995</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="D30" s="13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="A31" s="30"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="13">
-        <v>3</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="13">
-        <v>4</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="13">
-        <v>5</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A12:A25"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:C10"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:F36">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E3:F35">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percentile" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2876,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2925,22 +2917,22 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="J3" s="26" t="s">
+      <c r="F3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="13">
         <v>1</v>
       </c>
@@ -2949,18 +2941,18 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="13">
         <v>2</v>
       </c>
@@ -2969,7 +2961,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="29"/>
@@ -2977,10 +2969,10 @@
       <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="13">
         <v>5</v>
       </c>
@@ -2995,10 +2987,10 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="13">
         <v>10</v>
       </c>
@@ -3007,13 +2999,13 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -3023,8 +3015,8 @@
       <c r="F7" s="21">
         <v>0.40795047246660099</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="13">
         <v>20</v>
       </c>
@@ -3033,9 +3025,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
@@ -3047,9 +3039,9 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
@@ -3061,9 +3053,9 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
@@ -3071,11 +3063,11 @@
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
@@ -3087,9 +3079,9 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="13" t="s">
         <v>41</v>
       </c>
@@ -3101,9 +3093,9 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3115,9 +3107,9 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
@@ -3130,13 +3122,13 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13">
@@ -3150,27 +3142,27 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="13">
         <v>2</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="13">
         <v>5</v>
       </c>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="13">
         <v>10</v>
       </c>
@@ -3182,20 +3174,20 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="13" t="s">
         <v>39</v>
       </c>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1277AA8F-5F4E-FD4A-AC82-0031411C0DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5FB47B-D10E-3E48-9DD7-72184E5921DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -366,19 +366,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2335,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2350,22 +2350,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2374,112 +2374,112 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="31">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="31">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="31">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="31">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="31">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="31">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
@@ -2494,9 +2494,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2510,9 +2510,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2524,9 +2524,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2538,9 +2538,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2554,9 +2554,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2568,9 +2568,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2582,8 +2582,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
@@ -2598,9 +2598,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2614,9 +2614,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2628,9 +2628,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2642,9 +2642,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2658,9 +2658,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2672,9 +2672,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2686,13 +2686,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
@@ -2706,9 +2706,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
@@ -2716,9 +2716,9 @@
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
@@ -2726,9 +2726,9 @@
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
@@ -2740,9 +2740,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
@@ -2750,9 +2750,9 @@
       <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
@@ -2762,9 +2762,9 @@
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
@@ -2772,9 +2772,9 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
@@ -2782,9 +2782,9 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
@@ -2792,9 +2792,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
@@ -2802,12 +2802,12 @@
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="22" t="s">
         <v>39</v>
       </c>
@@ -2820,11 +2820,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2834,19 +2842,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F35">
     <cfRule type="colorScale" priority="2">
@@ -2868,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2887,22 +2887,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2925,14 +2925,14 @@
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="31">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="J3" s="28" t="s">
+      <c r="F3" s="31"/>
+      <c r="J3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="28"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="13">
         <v>1</v>
       </c>
@@ -2947,12 +2947,12 @@
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="31">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="F4" s="31"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="13">
         <v>2</v>
       </c>
@@ -2964,15 +2964,15 @@
       <c r="A5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="13">
         <v>5</v>
       </c>
@@ -2981,16 +2981,16 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="13">
         <v>10</v>
       </c>
@@ -2999,13 +2999,13 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -3015,8 +3015,8 @@
       <c r="F7" s="21">
         <v>0.40795047246660099</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="13">
         <v>20</v>
       </c>
@@ -3025,9 +3025,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
@@ -3039,9 +3039,9 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
@@ -3053,9 +3053,9 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
@@ -3063,11 +3063,11 @@
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
@@ -3079,9 +3079,9 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="13" t="s">
         <v>41</v>
       </c>
@@ -3093,9 +3093,9 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3107,9 +3107,9 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
@@ -3122,13 +3122,13 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13">
@@ -3142,27 +3142,27 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="13">
         <v>2</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13">
         <v>5</v>
       </c>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="13">
         <v>10</v>
       </c>
@@ -3174,20 +3174,20 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="13" t="s">
         <v>39</v>
       </c>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5FB47B-D10E-3E48-9DD7-72184E5921DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D99FBF-1593-AB49-B082-FD6C9B403547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
   <si>
     <t>llama</t>
   </si>
@@ -268,12 +268,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,8 +372,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -376,13 +388,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2336,7 +2348,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2350,22 +2362,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2374,112 +2386,112 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="27">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="27">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="27">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="27">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
@@ -2494,9 +2506,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2510,9 +2522,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2524,9 +2536,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2538,9 +2550,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2554,9 +2566,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2568,9 +2580,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2582,8 +2594,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
@@ -2598,9 +2610,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2614,9 +2626,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2628,9 +2640,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2642,9 +2654,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2658,9 +2670,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2672,9 +2684,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2686,13 +2698,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
@@ -2706,9 +2718,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
@@ -2716,9 +2728,9 @@
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
@@ -2726,23 +2738,23 @@
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
       <c r="E28" s="8">
         <v>0.92701199999999995</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>39</v>
+      <c r="F28" s="8">
+        <v>0.94069700000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
@@ -2750,9 +2762,9 @@
       <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
@@ -2762,9 +2774,9 @@
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
@@ -2772,9 +2784,9 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
@@ -2782,9 +2794,9 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
@@ -2792,9 +2804,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
@@ -2802,14 +2814,14 @@
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="22" t="s">
-        <v>39</v>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="22">
+        <v>0.96579999999999999</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>39</v>
@@ -2820,19 +2832,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2842,14 +2846,22 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:F35">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E3:F27 E29:F35 E28">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percentile" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2857,6 +2869,18 @@
         <color theme="1" tint="0.499984740745262"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2869,7 +2893,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2887,22 +2911,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2925,20 +2949,21 @@
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="27">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="J3" s="27" t="s">
+      <c r="F3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="13">
         <v>1</v>
       </c>
       <c r="M3" s="5">
         <v>0.85728300000000002</v>
       </c>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
@@ -2947,65 +2972,68 @@
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="27">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="13">
         <v>2</v>
       </c>
       <c r="M4" s="5">
         <v>0.90257399999999999</v>
       </c>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="13">
         <v>5</v>
       </c>
       <c r="M5" s="5">
         <v>0.93776499999999996</v>
       </c>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="13">
         <v>10</v>
       </c>
       <c r="M6" s="5">
         <v>0.94330400000000003</v>
       </c>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -3015,19 +3043,20 @@
       <c r="F7" s="21">
         <v>0.40795047246660099</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="13">
         <v>20</v>
       </c>
       <c r="M7" s="5">
         <v>0.93548399999999998</v>
       </c>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
@@ -3039,9 +3068,9 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
@@ -3053,21 +3082,21 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
@@ -3079,9 +3108,9 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="13" t="s">
         <v>41</v>
       </c>
@@ -3093,9 +3122,9 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3107,14 +3136,14 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -3122,13 +3151,13 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13">
@@ -3142,54 +3171,54 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="13">
         <v>2</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="13">
         <v>5</v>
       </c>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="13">
         <v>10</v>
       </c>
       <c r="E18" s="21">
         <v>0.92701199999999995</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>39</v>
+      <c r="F18" s="19">
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="13" t="s">
-        <v>39</v>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="19">
+        <v>0.96579999999999999</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>39</v>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D99FBF-1593-AB49-B082-FD6C9B403547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6A8CD7-68A6-7142-9B4F-79F3DA0EAE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,12 +257,6 @@
     <font>
       <i/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -354,11 +348,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,14 +366,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -388,12 +376,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,6 +405,185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8F9DFE-9B04-E0B6-6B7C-C20164EEDBA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="571500"/>
+          <a:ext cx="8204200" cy="5575300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> story:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>1. without ground truth labels, we could use noisy labels under no fine-tuning setting</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LLMs have the self -correction ability to generate competitive results (to be approved)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Using noisy labels as the initial response, LLMs are critisize and improve the response (to be approved)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- fine-tuning with noisy labels does not work well, because LLMs are powerful enough to learn and memorize the wrong patterns from the noisy labels. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>2. with ground truth labels, we could fine-tuning LLMs:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- fine-tuning LLMs outperforms heuristics (yes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- fine-tuning LLMs outperforms ML/DL methods (to be approved)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- fine-tuning LLMs show cross-data generalization (fine-tuning on different parts of the data; generalize to unseen data paterns)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- fine-tuning LLMs show cross-task generalization (fine-tuning on join task; can perform on union task)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2347,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2362,22 +2535,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2386,112 +2559,112 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="31">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="31">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="31">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="31">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="31">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="31">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
@@ -2506,9 +2679,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2522,9 +2695,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2536,9 +2709,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2550,9 +2723,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2566,9 +2739,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2580,9 +2753,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2594,8 +2767,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
@@ -2610,9 +2783,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2626,9 +2799,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2640,9 +2813,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2654,9 +2827,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2670,9 +2843,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2684,9 +2857,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2698,13 +2871,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
@@ -2718,9 +2891,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
@@ -2728,9 +2901,9 @@
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
@@ -2738,9 +2911,9 @@
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
@@ -2752,9 +2925,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
@@ -2762,9 +2935,9 @@
       <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
@@ -2774,9 +2947,9 @@
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
@@ -2784,9 +2957,9 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
@@ -2794,36 +2967,36 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="22">
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="21">
         <v>0.96579999999999999</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2832,11 +3005,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -2846,19 +3027,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F27 E29:F35 E28">
     <cfRule type="colorScale" priority="3">
@@ -2892,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2905,28 +3078,28 @@
     <col min="6" max="6" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.83203125" style="13"/>
     <col min="10" max="11" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="13"/>
+    <col min="12" max="12" width="3.5" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
@@ -2949,21 +3122,21 @@
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="31">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="J3" s="28" t="s">
+      <c r="F3" s="31"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="28"/>
       <c r="L3" s="13">
         <v>1</v>
       </c>
       <c r="M3" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
@@ -2972,178 +3145,178 @@
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="31">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="F4" s="31"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="13">
         <v>2</v>
       </c>
       <c r="M4" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N4" s="34"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="13">
         <v>5</v>
       </c>
       <c r="M5" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N5" s="34"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="13">
         <v>10</v>
       </c>
       <c r="M6" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>0.49234278266536302</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>0.40795047246660099</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="13">
         <v>20</v>
       </c>
       <c r="M7" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N7" s="34"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>0.51710654936461298</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>0.59237536656891498</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>0.596285434995112</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>0.93385467579015902</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>0.47214076246334302</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>0.493320299771912</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>0.46953405017921102</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>0.60182469859889198</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>0.598892147279244</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="21">
         <v>0.928641251221896</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -3151,51 +3324,51 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>0.83805799999999997</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>0.86933899999999997</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="13">
         <v>2</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="13">
         <v>5</v>
       </c>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="13">
         <v>10</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>0.92701199999999995</v>
       </c>
       <c r="F18" s="19">
@@ -3203,20 +3376,20 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="19">
         <v>0.96579999999999999</v>
       </c>
@@ -3229,7 +3402,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J3:K7"/>
+    <mergeCell ref="K3:K7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:C4"/>
@@ -3247,5 +3420,6 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6A8CD7-68A6-7142-9B4F-79F3DA0EAE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9960BDA5-E25B-5B47-A2DF-EE19D57A5E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
   <si>
     <t>llama</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>heuristics</t>
+  </si>
+  <si>
+    <t>value+ec</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +357,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,8 +375,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -376,19 +391,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,15 +587,52 @@
             <a:t>- fine-tuning LLMs show cross-task generalization (fine-tuning on join task; can perform on union task)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4o-mini costs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- 3.33 for inference (for 14 tasks, 30 mins)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,7 +955,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,23 +969,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -958,7 +1007,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -985,7 +1034,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1059,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1084,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1109,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1087,7 +1136,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1161,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1186,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1204,20 +1253,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1252,7 +1301,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1290,7 +1339,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1375,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1411,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1447,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1436,7 +1485,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1521,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1557,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1593,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1582,7 +1631,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1667,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1703,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1724,23 +1773,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1811,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1789,7 +1838,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1814,7 +1863,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1839,7 +1888,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1864,7 +1913,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1891,7 +1940,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1916,7 +1965,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +1990,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2008,20 +2057,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -2056,7 +2105,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2094,7 +2143,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2179,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2166,7 +2215,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2202,7 +2251,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2250,7 +2299,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2336,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2323,7 +2372,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2359,7 +2408,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2397,7 +2446,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +2482,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2469,7 +2518,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2518,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2534,137 +2583,146 @@
     <col min="7" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="G2" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="29">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="29">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="29">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="29">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="15"/>
@@ -2678,10 +2736,10 @@
         <v>0.40795047246660099</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -2694,10 +2752,10 @@
         <v>0.59237536656891498</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2708,10 +2766,10 @@
         <v>0.50667970022808695</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -2722,10 +2780,10 @@
         <v>0.46757901596611201</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2738,10 +2796,10 @@
         <v>0.93385467579015902</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2752,10 +2810,10 @@
         <v>0.76050830889540499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2766,9 +2824,9 @@
         <v>0.88367546432062505</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15"/>
@@ -2782,10 +2840,10 @@
         <v>0.493320299771912</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2798,10 +2856,10 @@
         <v>0.60182469859889198</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="13" t="s">
         <v>26</v>
       </c>
@@ -2812,10 +2870,10 @@
         <v>0.516780710329097</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2826,10 +2884,10 @@
         <v>0.53828608667318301</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2842,10 +2900,10 @@
         <v>0.928641251221896</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
@@ -2856,10 +2914,10 @@
         <v>0.83447376995764</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
@@ -2870,14 +2928,14 @@
         <v>0.916585206907787</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="13">
@@ -2889,31 +2947,34 @@
       <c r="F25" s="8">
         <v>0.86933899999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="13">
         <v>2</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="13">
         <v>5</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="13">
         <v>10</v>
       </c>
@@ -2923,21 +2984,23 @@
       <c r="F28" s="8">
         <v>0.94069700000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="13">
         <v>20</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27" t="s">
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="13">
@@ -2945,79 +3008,78 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="13">
         <v>2</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="G31" s="37"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="13">
         <v>3</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="13">
         <v>4</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="13">
         <v>5</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="21">
         <v>0.96579999999999999</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="28">
+    <mergeCell ref="G25:G35"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -3027,13 +3089,21 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:F27 E29:F35 E28">
+  <conditionalFormatting sqref="E9:F27 E29:F35 E28 E3:E8">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percentile" val="0"/>
@@ -3045,7 +3115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F35">
+  <conditionalFormatting sqref="E9:F35 E3:E8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3065,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3076,7 +3146,8 @@
     <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="13"/>
+    <col min="7" max="7" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="13"/>
     <col min="10" max="11" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.5" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
@@ -3084,50 +3155,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="N1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="M2" s="13" t="s">
         <v>48</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="29">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="27" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="13">
@@ -3137,20 +3224,23 @@
         <v>0.85728300000000002</v>
       </c>
       <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="29">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="27"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="13">
         <v>2</v>
       </c>
@@ -3158,20 +3248,23 @@
         <v>0.90257399999999999</v>
       </c>
       <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="27"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="13">
         <v>5</v>
       </c>
@@ -3179,18 +3272,21 @@
         <v>0.93776499999999996</v>
       </c>
       <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="27"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="13">
         <v>10</v>
       </c>
@@ -3198,15 +3294,17 @@
         <v>0.94330400000000003</v>
       </c>
       <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -3216,8 +3314,9 @@
       <c r="F7" s="19">
         <v>0.40795047246660099</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="27"/>
+      <c r="G7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="13">
         <v>20</v>
       </c>
@@ -3225,11 +3324,13 @@
         <v>0.93548399999999998</v>
       </c>
       <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
@@ -3239,11 +3340,12 @@
       <c r="F8" s="19">
         <v>0.59237536656891498</v>
       </c>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
@@ -3253,23 +3355,25 @@
       <c r="F9" s="19">
         <v>0.93385467579015902</v>
       </c>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
@@ -3279,11 +3383,12 @@
       <c r="F11" s="19">
         <v>0.493320299771912</v>
       </c>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="13" t="s">
         <v>41</v>
       </c>
@@ -3293,11 +3398,12 @@
       <c r="F12" s="19">
         <v>0.60182469859889198</v>
       </c>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3307,16 +3413,18 @@
       <c r="F13" s="21">
         <v>0.928641251221896</v>
       </c>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -3324,13 +3432,13 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="13">
@@ -3342,29 +3450,32 @@
       <c r="F15" s="19">
         <v>0.86933899999999997</v>
       </c>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="13">
         <v>2</v>
       </c>
       <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="13">
         <v>5</v>
       </c>
       <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="13">
         <v>10</v>
       </c>
@@ -3374,37 +3485,45 @@
       <c r="F18" s="19">
         <v>0.94099999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="19">
         <v>0.96579999999999999</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="K3:K7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B19"/>
@@ -3415,9 +3534,6 @@
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="B7:C10"/>
     <mergeCell ref="B11:C14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9960BDA5-E25B-5B47-A2DF-EE19D57A5E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC7AF36-ECCA-CF48-AF5B-2745ACED5AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={EED0D08B-EFB4-6449-9728-0EC52AEB9BD2}</author>
+  </authors>
+  <commentList>
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{EED0D08B-EFB4-6449-9728-0EC52AEB9BD2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8EEEE5FB-BB02-E74A-8762-6734D3965F35}</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
   <si>
     <t>llama</t>
   </si>
@@ -182,9 +218,6 @@
   </si>
   <si>
     <t>No Fine-Tuning</t>
-  </si>
-  <si>
-    <t>Model</t>
   </si>
   <si>
     <t>value+sc</t>
@@ -265,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,9 +375,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,6 +399,27 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,32 +432,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,13 +492,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -511,7 +580,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>LLMs have the self -correction ability to generate competitive results (to be approved)</a:t>
+            <a:t>LLMs have the self-correction ability to generate competitive results (to be approved)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -539,6 +608,16 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	- it also does not work well with XGBoost.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
         </a:p>
         <a:p>
@@ -561,10 +640,20 @@
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
             </a:rPr>
             <a:t>- fine-tuning LLMs outperforms ML/DL methods (to be approved)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	- no. LLMs do not outperform ML/DL</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -584,15 +673,55 @@
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>	- XGBoost does not have this ability</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>- fine-tuning LLMs show cross-task generalization (fine-tuning on join task; can perform on union task)</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	- XGBoost does not have this ability</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- overall, when we have ground truth labels, the results are not in favor of ML methods. XGBoost has an awesome job (even though they do not generalize well cross-data)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1600" baseline="0">
@@ -633,6 +762,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="BIN HAN" id="{9D9E5CA6-6815-0341-8285-EC861268655E}" userId="S::bh193@uw.edu::127440c9-23d8-4da2-b038-0741fedb2385" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,12 +1085,28 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A25" dT="2025-02-24T23:09:05.30" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{EED0D08B-EFB4-6449-9728-0EC52AEB9BD2}">
+    <text>Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A15" dT="2025-02-24T23:09:20.07" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
+    <text>Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25587A43-803C-A145-92E5-0401065CD429}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,23 +1120,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1158,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1034,7 +1185,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1210,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1235,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1260,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1136,7 +1287,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1312,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +1337,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1391,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,20 +1404,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1301,7 +1452,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1339,7 +1490,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1526,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1562,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1447,7 +1598,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1485,7 +1636,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1672,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1557,7 +1708,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +1744,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1631,7 +1782,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1818,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1703,7 +1854,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1773,23 +1924,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1962,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1838,7 +1989,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1863,7 +2014,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +2039,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1913,7 +2064,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1940,7 +2091,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1965,7 +2116,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +2141,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2044,7 +2195,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L3"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2057,20 +2208,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -2105,7 +2256,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2143,7 +2294,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2330,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2215,7 +2366,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2402,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2299,7 +2450,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2487,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2372,7 +2523,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2408,7 +2559,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2446,7 +2597,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2633,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2669,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2566,11 +2717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2580,497 +2731,502 @@
     <col min="4" max="4" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="12"/>
+    <col min="7" max="7" width="4.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="38">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="38">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="38">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="38">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="38">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="38">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.49234278266536302</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.40795047246660099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.51710654936461298</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.59237536656891498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.54089279895731501</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.50667970022808695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.49201694362984599</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.46757901596611201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.596285434995112</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.93385467579015902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.55751058976865397</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.76050830889540499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.55131964809384104</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.88367546432062505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.47214076246334302</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.493320299771912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.46953405017921102</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.60182469859889198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.50993809058325101</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.516780710329097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.50863473444118601</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.53828608667318301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.598892147279244</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.928641251221896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.503421309872922</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.83447376995764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.51482567611599805</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.916585206907787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="13" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="13" t="s">
+      <c r="E23" s="37">
+        <v>0.995</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.49234278266536302</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0.40795047246660099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0.51710654936461298</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0.59237536656891498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.54089279895731501</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.50667970022808695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.49201694362984599</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0.46757901596611201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.596285434995112</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0.93385467579015902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0.55751058976865397</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0.76050830889540499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.55131964809384104</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0.88367546432062505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.47214076246334302</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.493320299771912</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.46953405017921102</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0.60182469859889198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0.50993809058325101</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0.516780710329097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0.50863473444118601</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0.53828608667318301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0.598892147279244</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0.928641251221896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0.503421309872922</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0.83447376995764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="18">
-        <v>0.51482567611599805</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0.916585206907787</v>
-      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="25">
         <v>1</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="26">
         <v>0.83805799999999997</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="26">
         <v>0.86933899999999997</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="13">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="25">
         <v>2</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="37"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="13">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="25">
         <v>5</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="37"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="13">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="25">
         <v>10</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="26">
         <v>0.92701199999999995</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="26">
         <v>0.94069700000000001</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="13">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="25">
         <v>20</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="37"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="25">
         <v>1</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="13">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="25">
         <v>2</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="37"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="13">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="25">
         <v>3</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="37"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="13">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="25">
         <v>4</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="37"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="13">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="25">
         <v>5</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="37"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="21">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="30">
         <v>0.96579999999999999</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="37"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3081,29 +3237,39 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:F27 E29:F35 E28 E3:E8">
+  <conditionalFormatting sqref="E9:F22 E3:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percentile" val="0"/>
@@ -3115,28 +3281,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:F35 E3:E8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
-  <dimension ref="A1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3144,398 +3299,360 @@
     <col min="1" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="13"/>
-    <col min="10" max="11" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="13"/>
+    <col min="5" max="5" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="13"/>
+    <col min="9" max="10" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="N1" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="17" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="M1" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="O2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="38">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="30" t="s">
+      <c r="F3" s="38"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="13">
+      <c r="K3" s="13">
         <v>1</v>
       </c>
-      <c r="M3" s="5">
+      <c r="L3" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="38">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="13">
+      <c r="F4" s="38"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="13">
         <v>2</v>
       </c>
-      <c r="M4" s="5">
+      <c r="L4" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.40795047246660099</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="13">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.59237536656891498</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="13">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.93385467579015902</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="13">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.493320299771912</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.60182469859889198</v>
+      </c>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.928641251221896</v>
+      </c>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="13" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="13">
-        <v>5</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="13" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="13">
-        <v>10</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0.49234278266536302</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.40795047246660099</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="13">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.93548399999999998</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.51710654936461298</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.59237536656891498</v>
-      </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0.596285434995112</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0.93385467579015902</v>
-      </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.47214076246334302</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0.493320299771912</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0.46953405017921102</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.60182469859889198</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0.598892147279244</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.928641251221896</v>
-      </c>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+    </row>
+    <row r="15" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="25">
         <v>1</v>
       </c>
-      <c r="E15" s="19">
-        <v>0.83805799999999997</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="E15" s="28">
         <v>0.86933899999999997</v>
       </c>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="13">
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="25">
         <v>2</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="13">
+      <c r="E16" s="28"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="25">
         <v>5</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="13">
+      <c r="E17" s="28"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="25">
         <v>10</v>
       </c>
-      <c r="E18" s="19">
-        <v>0.92701199999999995</v>
-      </c>
-      <c r="F18" s="19">
+      <c r="E18" s="28">
         <v>0.94099999999999995</v>
       </c>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="13">
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="25">
         <v>20</v>
       </c>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="19">
-        <v>0.96579999999999999</v>
-      </c>
-      <c r="F20" s="22" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="F15:F20"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="A3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC7AF36-ECCA-CF48-AF5B-2745ACED5AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB89C2-076A-6945-B6B1-46F4B1CE1387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <author>tc={8EEEE5FB-BB02-E74A-8762-6734D3965F35}</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,13 +220,13 @@
     <t>No Fine-Tuning</t>
   </si>
   <si>
-    <t>value+sc</t>
-  </si>
-  <si>
     <t>heuristics</t>
   </si>
   <si>
     <t>value+ec</t>
+  </si>
+  <si>
+    <t>no fine-tuning</t>
   </si>
 </sst>
 </file>
@@ -396,9 +396,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,28 +429,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -467,9 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,15 +492,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -615,6 +615,15 @@
               </a:solidFill>
             </a:rPr>
             <a:t>	- it also does not work well with XGBoost.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>add vision results</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1095,7 +1104,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A15" dT="2025-02-24T23:09:20.07" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
+  <threadedComment ref="A13" dT="2025-02-24T23:09:20.07" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
     <text>Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1120,23 +1129,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1167,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1185,7 +1194,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1210,7 +1219,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1235,7 +1244,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1269,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1287,7 +1296,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1321,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1346,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1404,20 +1413,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1452,7 +1461,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1490,7 +1499,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1535,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1562,7 +1571,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1607,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1636,7 +1645,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1681,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1717,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +1753,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1782,7 +1791,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1827,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1854,7 +1863,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1924,23 +1933,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +1971,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1989,7 +1998,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2014,7 +2023,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2048,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2064,7 +2073,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2091,7 +2100,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2125,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2150,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2208,20 +2217,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -2256,7 +2265,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2294,7 +2303,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2339,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2366,7 +2375,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2411,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2450,7 +2459,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2496,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2523,7 +2532,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2559,7 +2568,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2597,7 +2606,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2642,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2669,7 +2678,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2720,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2736,123 +2745,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="39"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="40">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="40">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="40">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="40">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="40">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="40">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2867,9 +2876,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2883,9 +2892,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2897,9 +2906,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2911,9 +2920,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2927,9 +2936,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2941,9 +2950,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2955,8 +2964,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -2971,9 +2980,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2987,9 +2996,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3001,9 +3010,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3015,9 +3024,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3031,9 +3040,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3045,9 +3054,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3059,183 +3068,187 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="25" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="41">
         <v>0.995</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="25" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>1</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="25">
         <v>0.83805799999999997</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>0.86933899999999997</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="24">
         <v>2</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="41"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="24">
         <v>5</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="41"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="24">
         <v>10</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="25">
         <v>0.92701199999999995</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="25">
         <v>0.94069700000000001</v>
       </c>
-      <c r="G28" s="41"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="24">
         <v>20</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="41"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="41"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="24">
         <v>2</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="41"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="24">
         <v>3</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="41"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="24">
         <v>4</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="41"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="24">
         <v>5</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="41"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="42" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="30">
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="29">
         <v>0.96579999999999999</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G25:G35"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
@@ -3248,16 +3261,12 @@
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="G25:G35"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:F22 E3:E8">
     <cfRule type="colorScale" priority="1">
@@ -3288,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3305,29 +3314,33 @@
     <col min="9" max="10" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="13"/>
+    <col min="13" max="14" width="10.1640625" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="M1" s="47" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="M1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="42"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
@@ -3335,33 +3348,36 @@
         <v>9</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="40">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="40"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="13">
@@ -3370,41 +3386,45 @@
       <c r="L3" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="M3" s="43">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="N3" s="43"/>
       <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="40">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="40"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="40"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="13">
         <v>2</v>
       </c>
       <c r="L4" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
       <c r="O4" s="21"/>
-    </row>
-    <row r="5" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
@@ -3413,21 +3433,22 @@
       </c>
       <c r="F5" s="21"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="13">
         <v>5</v>
       </c>
       <c r="L5" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="13" t="s">
         <v>41</v>
       </c>
@@ -3436,21 +3457,22 @@
       </c>
       <c r="F6" s="21"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="13">
         <v>10</v>
       </c>
       <c r="L6" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
       <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
@@ -3459,197 +3481,181 @@
       </c>
       <c r="F7" s="21"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="13">
         <v>20</v>
       </c>
       <c r="L7" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="23"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.493320299771912</v>
+      </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="45"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="13" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E9" s="18">
-        <v>0.493320299771912</v>
+        <v>0.60182469859889198</v>
       </c>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+    <row r="10" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.60182469859889198</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.928641251221896</v>
       </c>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="44" t="s">
+        <v>32</v>
+      </c>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
-      <c r="D11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0.928641251221896</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
+      <c r="D11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
-      <c r="D12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E13" s="27">
         <v>0.86933899999999997</v>
       </c>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="25">
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="24">
         <v>2</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="17" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="25">
+      <c r="E14" s="27"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="24">
         <v>5</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="42"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="24">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="24">
+        <v>20</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="25">
-        <v>10</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="F18" s="42"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="25">
-        <v>20</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="42"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A19" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="M1:O1"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB89C2-076A-6945-B6B1-46F4B1CE1387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0849D22E-D986-4B48-BF1A-13CEF97E4408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <author>tc={8EEEE5FB-BB02-E74A-8762-6734D3965F35}</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
   <si>
     <t>llama</t>
   </si>
@@ -223,10 +223,12 @@
     <t>heuristics</t>
   </si>
   <si>
-    <t>value+ec</t>
-  </si>
-  <si>
-    <t>no fine-tuning</t>
+    <t>few_shot_with_
+heur_angle_value</t>
+  </si>
+  <si>
+    <t>zero_shot_with_
+heur_angle_value</t>
   </si>
 </sst>
 </file>
@@ -429,36 +431,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,6 +466,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,15 +494,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1104,7 +1106,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A13" dT="2025-02-24T23:09:20.07" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
+  <threadedComment ref="A12" dT="2025-02-24T23:09:20.07" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
     <text>Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2729,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2740,7 +2742,7 @@
     <col min="4" max="4" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
@@ -2782,11 +2784,11 @@
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
@@ -2795,11 +2797,11 @@
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
@@ -2810,11 +2812,11 @@
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="37">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
@@ -2823,11 +2825,11 @@
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="37">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
@@ -2838,11 +2840,11 @@
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="37">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
@@ -2851,11 +2853,11 @@
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="37">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
@@ -2934,6 +2936,9 @@
       <c r="F13" s="17">
         <v>0.93385467579015902</v>
       </c>
+      <c r="G13" s="6">
+        <v>0.94395568589116896</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
@@ -2948,6 +2953,7 @@
       <c r="F14" s="17">
         <v>0.76050830889540499</v>
       </c>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
@@ -2962,6 +2968,9 @@
       <c r="F15" s="17">
         <v>0.88367546432062505</v>
       </c>
+      <c r="G15" s="6">
+        <v>0.93776474421635703</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -2978,6 +2987,7 @@
       <c r="F16" s="17">
         <v>0.493320299771912</v>
       </c>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
@@ -2994,6 +3004,7 @@
       <c r="F17" s="17">
         <v>0.60182469859889198</v>
       </c>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -3008,6 +3019,7 @@
       <c r="F18" s="17">
         <v>0.516780710329097</v>
       </c>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -3022,6 +3034,7 @@
       <c r="F19" s="17">
         <v>0.53828608667318301</v>
       </c>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
@@ -3037,6 +3050,9 @@
       </c>
       <c r="F20" s="17">
         <v>0.928641251221896</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.92994460736396201</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3052,6 +3068,7 @@
       <c r="F21" s="17">
         <v>0.83447376995764</v>
       </c>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
@@ -3066,9 +3083,12 @@
       <c r="F22" s="17">
         <v>0.916585206907787</v>
       </c>
+      <c r="G22" s="6">
+        <v>0.94134897360703795</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="35"/>
@@ -3076,11 +3096,11 @@
       <c r="D23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="36">
         <v>0.995</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -3089,12 +3109,12 @@
       <c r="D24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="35" t="s">
@@ -3112,10 +3132,10 @@
       <c r="F25" s="25">
         <v>0.86933899999999997</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="24">
@@ -3123,10 +3143,10 @@
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="24">
@@ -3134,10 +3154,10 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="34"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="24">
@@ -3149,10 +3169,10 @@
       <c r="F28" s="25">
         <v>0.94069700000000001</v>
       </c>
-      <c r="G28" s="34"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="24">
@@ -3160,10 +3180,10 @@
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="34"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35" t="s">
         <v>35</v>
@@ -3173,10 +3193,10 @@
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="34"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="24">
@@ -3184,10 +3204,10 @@
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="34"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="24">
@@ -3195,10 +3215,10 @@
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="34"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="24">
@@ -3206,10 +3226,10 @@
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="34"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="24">
@@ -3217,38 +3237,34 @@
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="34"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="29">
         <v>0.96579999999999999</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="G25:G35"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
@@ -3261,12 +3277,16 @@
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="G25:G35"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:F22 E3:E8">
     <cfRule type="colorScale" priority="1">
@@ -3297,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3309,353 +3329,319 @@
     <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="13"/>
     <col min="9" max="10" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.1640625" style="13" customWidth="1"/>
+    <col min="13" max="14" width="17.5" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="M1" s="42" t="s">
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="42"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="16" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="37">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="13">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="40">
-        <v>0.85728300000000002</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
       <c r="L3" s="5">
-        <v>0.85728300000000002</v>
-      </c>
-      <c r="M3" s="43">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="40">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="F4" s="40"/>
+        <v>0.90257399999999999</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.40795047246660099</v>
+      </c>
+      <c r="F4" s="21"/>
       <c r="I4" s="22"/>
       <c r="J4" s="39"/>
       <c r="K4" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" s="5">
-        <v>0.90257399999999999</v>
-      </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="46"/>
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E5" s="18">
-        <v>0.40795047246660099</v>
+        <v>0.59237536656891498</v>
       </c>
       <c r="F5" s="21"/>
       <c r="I5" s="22"/>
       <c r="J5" s="39"/>
       <c r="K5" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L5" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="18">
-        <v>0.59237536656891498</v>
-      </c>
-      <c r="F6" s="21"/>
+        <v>0.93385467579015902</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.94399999999999995</v>
+      </c>
       <c r="I6" s="22"/>
       <c r="J6" s="39"/>
       <c r="K6" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L6" s="5">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="44"/>
       <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.493320299771912</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.60182469859889198</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="18">
-        <v>0.93385467579015902</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="13">
+      <c r="E9" s="20">
+        <v>0.928641251221896</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="5">
-        <v>0.93548399999999998</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:19" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.493320299771912</v>
-      </c>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0.60182469859889198</v>
-      </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0.928641251221896</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C12" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.86933899999999997</v>
+      </c>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0.86933899999999997</v>
-      </c>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="24">
-        <v>5</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="37"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="24">
-        <v>10</v>
-      </c>
-      <c r="E16" s="27">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="F16" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="24">
-        <v>20</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A18" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A11:C12"/>
+  <mergeCells count="16">
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="A2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0849D22E-D986-4B48-BF1A-13CEF97E4408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F7BB6B-959D-A34B-9DF2-B4BFA41C1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -419,6 +419,12 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,30 +437,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,12 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,23 +1131,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1196,7 +1196,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1298,7 +1298,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1415,20 +1415,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1463,7 +1463,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1501,7 +1501,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1647,7 +1647,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1719,7 +1719,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1755,7 +1755,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1829,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1935,23 +1935,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2000,7 +2000,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2102,7 +2102,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2219,20 +2219,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -2267,7 +2267,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2305,7 +2305,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2341,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2461,7 +2461,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2608,7 +2608,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2644,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2680,7 +2680,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2747,22 +2747,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2774,96 +2774,96 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="42">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="42">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="42">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="42">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="42">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="42">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2878,9 +2878,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2894,9 +2894,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2908,9 +2908,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2922,9 +2922,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2941,9 +2941,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2956,9 +2956,9 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2973,8 +2973,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -2990,9 +2990,9 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3007,9 +3007,9 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3022,9 +3022,9 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3037,9 +3037,9 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3056,9 +3056,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3071,9 +3071,9 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3088,39 +3088,39 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="43">
         <v>0.995</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="24">
@@ -3132,34 +3132,34 @@
       <c r="F25" s="25">
         <v>0.86933899999999997</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="24">
         <v>2</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="24">
         <v>5</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -3169,23 +3169,23 @@
       <c r="F28" s="25">
         <v>0.94069700000000001</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="24">
         <v>20</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="40"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="24">
@@ -3193,78 +3193,82 @@
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="40"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="24">
         <v>2</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="40"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="24">
         <v>3</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="40"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="24">
         <v>4</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="24">
         <v>5</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="40"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="29">
         <v>0.96579999999999999</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="40"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G25:G35"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
@@ -3277,16 +3281,12 @@
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="G25:G35"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:F22 E3:E8">
     <cfRule type="colorScale" priority="1">
@@ -3320,7 +3320,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3339,12 +3339,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
@@ -3362,20 +3362,20 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="42">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="42"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="41" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="13">
@@ -3384,24 +3384,24 @@
       <c r="L2" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31">
         <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="42">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="42"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="13">
         <v>2</v>
       </c>
@@ -3412,13 +3412,13 @@
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="41"/>
       <c r="K4" s="13">
         <v>5</v>
       </c>
@@ -3438,9 +3438,9 @@
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="13" t="s">
         <v>41</v>
       </c>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="F5" s="21"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="13">
         <v>10</v>
       </c>
@@ -3460,20 +3460,20 @@
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="18">
         <v>0.93385467579015902</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="30">
         <v>0.94399999999999995</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="13">
         <v>20</v>
       </c>
@@ -3484,11 +3484,11 @@
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -3498,9 +3498,9 @@
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
@@ -3510,53 +3510,53 @@
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="20">
         <v>0.928641251221896</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="30">
         <v>0.93</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="24">
@@ -3565,67 +3565,75 @@
       <c r="E12" s="27">
         <v>0.86933899999999997</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="24">
         <v>2</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="F13" s="41"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="24">
         <v>5</v>
       </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="41"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="24">
         <v>10</v>
       </c>
       <c r="E15" s="27">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="24">
         <v>20</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="41"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="A2:C3"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -3634,14 +3642,6 @@
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="A2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F7BB6B-959D-A34B-9DF2-B4BFA41C1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B453602-D697-B847-AEC0-0BB9D9F5DFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -437,28 +437,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2784,11 +2784,11 @@
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="39">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
@@ -2797,11 +2797,11 @@
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="39">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
@@ -2812,11 +2812,11 @@
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="39">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
@@ -2825,11 +2825,11 @@
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="39">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
@@ -2840,11 +2840,11 @@
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="39">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
@@ -2853,11 +2853,11 @@
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="39">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
@@ -3088,7 +3088,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="37"/>
@@ -3096,11 +3096,11 @@
       <c r="D23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="38">
         <v>0.995</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
@@ -3109,12 +3109,12 @@
       <c r="D24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -3132,10 +3132,10 @@
       <c r="F25" s="25">
         <v>0.86933899999999997</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="24">
@@ -3143,10 +3143,10 @@
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="24">
@@ -3154,10 +3154,10 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="36"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="24">
@@ -3169,10 +3169,10 @@
       <c r="F28" s="25">
         <v>0.94069700000000001</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="24">
@@ -3180,10 +3180,10 @@
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="36"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37" t="s">
         <v>35</v>
@@ -3193,10 +3193,10 @@
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="36"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
       <c r="D31" s="24">
@@ -3204,10 +3204,10 @@
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="36"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="24">
@@ -3215,10 +3215,10 @@
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="36"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="24">
@@ -3226,10 +3226,10 @@
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="36"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
       <c r="D34" s="24">
@@ -3237,38 +3237,34 @@
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="36"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="29">
         <v>0.96579999999999999</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="36"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="G25:G35"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
@@ -3281,12 +3277,16 @@
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="G25:G35"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:F22 E3:E8">
     <cfRule type="colorScale" priority="1">
@@ -3320,7 +3320,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3370,10 +3370,10 @@
       <c r="D2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="39">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="39"/>
       <c r="I2" s="22"/>
       <c r="J2" s="41" t="s">
         <v>17</v>
@@ -3384,7 +3384,9 @@
       <c r="L2" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="31">
+        <v>0.92800000000000005</v>
+      </c>
       <c r="N2" s="31">
         <v>0.94299999999999995</v>
       </c>
@@ -3396,10 +3398,10 @@
       <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="39">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F3" s="42"/>
+      <c r="F3" s="39"/>
       <c r="I3" s="22"/>
       <c r="J3" s="41"/>
       <c r="K3" s="13">
@@ -3408,7 +3410,9 @@
       <c r="L3" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="M3" s="21"/>
+      <c r="M3" s="21">
+        <v>0.93100000000000005</v>
+      </c>
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,7 +3438,9 @@
       <c r="L4" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="30">
+        <v>0.93840000000000001</v>
+      </c>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3532,8 +3538,8 @@
       <c r="D10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
@@ -3542,15 +3548,15 @@
       <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="37" t="s">
@@ -3565,30 +3571,30 @@
       <c r="E12" s="27">
         <v>0.86933899999999997</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="24">
         <v>2</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="F13" s="39"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="24">
         <v>5</v>
       </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="39"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="24">
@@ -3597,35 +3603,43 @@
       <c r="E15" s="27">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="24">
         <v>20</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F12:F17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="E10:F10"/>
@@ -3634,14 +3648,6 @@
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B7:C9"/>
     <mergeCell ref="A2:C3"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F12:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B453602-D697-B847-AEC0-0BB9D9F5DFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA60012-DDB6-4048-B23A-370948DCCFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
   <si>
     <t>llama</t>
   </si>
@@ -223,12 +223,42 @@
     <t>heuristics</t>
   </si>
   <si>
+    <t>zero_shot_with_
+heur_value_comb</t>
+  </si>
+  <si>
     <t>few_shot_with_
-heur_angle_value</t>
+heur_value_comb</t>
+  </si>
+  <si>
+    <t>few_shot_with_
+heur_value_angle</t>
   </si>
   <si>
     <t>zero_shot_with_
-heur_angle_value</t>
+heur_value_angle</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>Heuristic Hint</t>
+  </si>
+  <si>
+    <t>Heuristic Value</t>
+  </si>
+  <si>
+    <t>Angle 
+Heuristic</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>noisy label</t>
   </si>
 </sst>
 </file>
@@ -300,18 +330,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -332,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,38 +416,29 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,34 +452,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -472,6 +484,47 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,16 +547,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -518,8 +571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12306300" y="571500"/>
-          <a:ext cx="8204200" cy="5575300"/>
+          <a:off x="16268700" y="1231900"/>
+          <a:ext cx="8204200" cy="7581900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1131,23 +1184,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1222,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1196,7 +1249,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1221,7 +1274,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1246,7 +1299,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1324,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1298,7 +1351,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1376,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1401,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1415,20 +1468,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1463,7 +1516,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1501,7 +1554,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1590,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1626,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1662,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1647,7 +1700,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1736,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1719,7 +1772,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1755,7 +1808,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1793,7 +1846,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1882,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1865,7 +1918,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1935,23 +1988,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +2026,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2000,7 +2053,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2078,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2050,7 +2103,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2128,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2102,7 +2155,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +2180,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -2152,7 +2205,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2219,20 +2272,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -2267,7 +2320,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2305,7 +2358,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2394,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +2430,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2413,7 +2466,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2461,7 +2514,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2551,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2534,7 +2587,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2623,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2608,7 +2661,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2697,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2680,7 +2733,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2729,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2742,128 +2795,154 @@
     <col min="4" max="4" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="12"/>
+    <col min="7" max="11" width="10.83203125" style="12"/>
+    <col min="12" max="12" width="3.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="6.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" style="12"/>
+    <col min="29" max="29" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    </row>
+    <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="F3" s="38"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+      <c r="F4" s="38"/>
+      <c r="H4" s="47"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
+      <c r="F6" s="38"/>
+      <c r="H6" s="47"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="F7" s="38"/>
+      <c r="H7" s="47"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="F8" s="38"/>
+      <c r="H8" s="47"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2876,11 +2955,31 @@
       <c r="F9" s="17">
         <v>0.40795047246660099</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41" t="s">
+      <c r="L9" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="51"/>
+      <c r="N9" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2892,11 +2991,31 @@
       <c r="F10" s="17">
         <v>0.59237536656891498</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+    </row>
+    <row r="11" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2906,11 +3025,39 @@
       <c r="F11" s="17">
         <v>0.50667970022808695</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+    </row>
+    <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2920,11 +3067,66 @@
       <c r="F12" s="17">
         <v>0.46757901596611201</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41" t="s">
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="52"/>
+      <c r="V12" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG12" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2936,14 +3138,74 @@
       <c r="F13" s="17">
         <v>0.93385467579015902</v>
       </c>
-      <c r="G13" s="6">
-        <v>0.94395568589116896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
+      <c r="L13" s="28">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="N13" s="48">
+        <v>0.40795047246660099</v>
+      </c>
+      <c r="O13" s="49">
+        <v>0.59237536656891498</v>
+      </c>
+      <c r="P13" s="49">
+        <v>0.50667970022808695</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>0.46757901596611201</v>
+      </c>
+      <c r="R13" s="38">
+        <v>0.93385467579015902</v>
+      </c>
+      <c r="S13" s="38">
+        <v>0.76050830889540499</v>
+      </c>
+      <c r="T13" s="38">
+        <v>0.88367546432062505</v>
+      </c>
+      <c r="U13" s="48">
+        <v>0.493320299771912</v>
+      </c>
+      <c r="V13" s="49">
+        <v>0.60182469859889198</v>
+      </c>
+      <c r="W13" s="49">
+        <v>0.516780710329097</v>
+      </c>
+      <c r="X13" s="38">
+        <v>0.53828608667318301</v>
+      </c>
+      <c r="Y13" s="38">
+        <v>0.928641251221896</v>
+      </c>
+      <c r="Z13" s="38">
+        <v>0.83447376995764</v>
+      </c>
+      <c r="AA13" s="38">
+        <v>0.916585206907787</v>
+      </c>
+      <c r="AC13" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="56">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="AE13" s="45">
+        <v>0.85630498533724297</v>
+      </c>
+      <c r="AF13" s="58">
+        <v>0.83805799999999997</v>
+      </c>
+      <c r="AG13" s="58">
+        <v>0.86933899999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2953,12 +3215,46 @@
       <c r="F14" s="17">
         <v>0.76050830889540499</v>
       </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+      <c r="L14" s="28">
+        <v>2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.90257399999999999</v>
+      </c>
+      <c r="N14" s="48"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AC14" s="28">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="56">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="AE14" s="58">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="AF14" s="58">
+        <v>0.92701199999999995</v>
+      </c>
+      <c r="AG14" s="58">
+        <v>0.94069700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2968,13 +3264,30 @@
       <c r="F15" s="17">
         <v>0.88367546432062505</v>
       </c>
-      <c r="G15" s="6">
-        <v>0.93776474421635703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="L15" s="28">
+        <v>5</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -2987,12 +3300,31 @@
       <c r="F16" s="17">
         <v>0.493320299771912</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41" t="s">
+      <c r="L16" s="28">
+        <v>10</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="N16" s="48"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3004,12 +3336,31 @@
       <c r="F17" s="17">
         <v>0.60182469859889198</v>
       </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="L17" s="28">
+        <v>20</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3019,12 +3370,11 @@
       <c r="F18" s="17">
         <v>0.516780710329097</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3034,12 +3384,11 @@
       <c r="F19" s="17">
         <v>0.53828608667318301</v>
       </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3051,14 +3400,17 @@
       <c r="F20" s="17">
         <v>0.928641251221896</v>
       </c>
-      <c r="G20" s="6">
-        <v>0.92994460736396201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+    </row>
+    <row r="21" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3068,12 +3420,18 @@
       <c r="F21" s="17">
         <v>0.83447376995764</v>
       </c>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="54"/>
+      <c r="AC21" s="50"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3083,188 +3441,234 @@
       <c r="F22" s="17">
         <v>0.916585206907787</v>
       </c>
-      <c r="G22" s="6">
-        <v>0.94134897360703795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="54"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="24" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="39">
         <v>0.995</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="24" t="s">
+      <c r="F23" s="39"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+    </row>
+    <row r="25" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>1</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>0.83805799999999997</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <v>0.86933899999999997</v>
       </c>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="24">
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="22">
         <v>2</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="42"/>
-    </row>
-    <row r="27" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="24">
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="22">
         <v>5</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="24">
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="22">
         <v>10</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <v>0.92701199999999995</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="23">
         <v>0.94069700000000001</v>
       </c>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="24">
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="22">
         <v>20</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="22">
         <v>1</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="42"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="24">
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="22">
         <v>2</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="24">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="22">
         <v>3</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="42"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="24">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="22">
         <v>4</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="24">
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="22">
         <v>5</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="42"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="43" t="s">
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="29">
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="27">
         <v>0.96579999999999999</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="42"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G25:G35"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+  <mergeCells count="51">
+    <mergeCell ref="N9:AA9"/>
+    <mergeCell ref="L9:M12"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="T13:T17"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="U13:U17"/>
+    <mergeCell ref="V13:V17"/>
+    <mergeCell ref="W13:W17"/>
+    <mergeCell ref="X13:X17"/>
+    <mergeCell ref="Y13:Y17"/>
+    <mergeCell ref="Z13:Z17"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
@@ -3277,19 +3681,14 @@
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:F22 E3:E8">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3299,9 +3698,21 @@
         <color theme="6" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:AA17">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="percentile" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color theme="1" tint="0.499984740745262"/>
@@ -3317,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3329,326 +3740,341 @@
     <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="13"/>
-    <col min="9" max="10" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="13"/>
+    <col min="6" max="7" width="10.83203125" style="13"/>
+    <col min="8" max="9" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="L1" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="M1" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="O1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="18">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="41" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13">
+      <c r="J2" s="13">
         <v>1</v>
       </c>
-      <c r="L2" s="5">
+      <c r="K2" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="M2" s="31">
+      <c r="L2" s="45">
         <v>0.92800000000000005</v>
       </c>
-      <c r="N2" s="31">
+      <c r="M2" s="45">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="N2" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="18">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="13">
+      <c r="H3" s="21"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="13">
         <v>2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="K3" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="M3" s="21">
+      <c r="L3" s="44">
         <v>0.93100000000000005</v>
       </c>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="M3" s="45">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="18">
         <v>0.40795047246660099</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="13">
+      <c r="H4" s="21"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="13">
         <v>5</v>
       </c>
-      <c r="L4" s="5">
+      <c r="K4" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="M4" s="30">
+      <c r="L4" s="44">
         <v>0.93840000000000001</v>
       </c>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+      <c r="M4" s="45">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="18">
         <v>0.59237536656891498</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="13">
+      <c r="H5" s="21"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="13">
         <v>10</v>
       </c>
-      <c r="L5" s="5">
+      <c r="K5" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="L5" s="45">
+        <v>0.94200065167807101</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+    </row>
+    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="18">
         <v>0.93385467579015902</v>
       </c>
-      <c r="F6" s="30">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="13">
+      <c r="H6" s="21"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="13">
         <v>20</v>
       </c>
-      <c r="L6" s="5">
+      <c r="K6" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46" t="s">
+      <c r="L6" s="45">
+        <v>0.93711306614532397</v>
+      </c>
+      <c r="M6" s="45">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+    </row>
+    <row r="7" spans="1:15" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="18">
         <v>0.493320299771912</v>
       </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="18">
         <v>0.60182469859889198</v>
       </c>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+    </row>
+    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="20">
         <v>0.928641251221896</v>
       </c>
-      <c r="F9" s="30">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="24" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="24" t="s">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="E11" s="22"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+    </row>
+    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>0.86933899999999997</v>
       </c>
-      <c r="F12" s="43"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="24">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="22">
         <v>2</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="43"/>
-    </row>
-    <row r="14" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="24">
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="22">
         <v>5</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="24">
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="22">
         <v>10</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F15" s="43"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="24">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="22">
         <v>20</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="43" t="s">
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="24" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="12">
+    <mergeCell ref="N2:O6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="I2:I6"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="A2:C3"/>
   </mergeCells>
+  <conditionalFormatting sqref="K2:M6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA60012-DDB6-4048-B23A-370948DCCFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C53430-2348-394D-8A1F-96BE99BCAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -46,25 +46,7 @@
     <author>tc={EED0D08B-EFB4-6449-9728-0EC52AEB9BD2}</author>
   </authors>
   <commentList>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{EED0D08B-EFB4-6449-9728-0EC52AEB9BD2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={8EEEE5FB-BB02-E74A-8762-6734D3965F35}</author>
-  </authors>
-  <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{EED0D08B-EFB4-6449-9728-0EC52AEB9BD2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
   <si>
     <t>llama</t>
   </si>
@@ -203,23 +185,6 @@
 Driven</t>
   </si>
   <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>Few-
-Shot</t>
-  </si>
-  <si>
-    <t>Zero-
-Shot</t>
-  </si>
-  <si>
-    <t>No Fine-Tuning</t>
-  </si>
-  <si>
     <t>heuristics</t>
   </si>
   <si>
@@ -259,6 +224,12 @@
   </si>
   <si>
     <t>noisy label</t>
+  </si>
+  <si>
+    <t>gemini</t>
+  </si>
+  <si>
+    <t>qwen</t>
   </si>
 </sst>
 </file>
@@ -356,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,9 +375,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,24 +390,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,58 +442,29 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,291 +481,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8F9DFE-9B04-E0B6-6B7C-C20164EEDBA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16268700" y="1231900"/>
-          <a:ext cx="8204200" cy="7581900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>The</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t> story:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>1. without ground truth labels, we could use noisy labels under no fine-tuning setting</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LLMs have the self-correction ability to generate competitive results (to be approved)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Using noisy labels as the initial response, LLMs are critisize and improve the response (to be approved)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- fine-tuning with noisy labels does not work well, because LLMs are powerful enough to learn and memorize the wrong patterns from the noisy labels. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>	- it also does not work well with XGBoost.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>add vision results</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t>2. with ground truth labels, we could fine-tuning LLMs:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- fine-tuning LLMs outperforms heuristics (yes)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- fine-tuning LLMs outperforms ML/DL methods (to be approved)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>	- no. LLMs do not outperform ML/DL</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- fine-tuning LLMs show cross-data generalization (fine-tuning on different parts of the data; generalize to unseen data paterns)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>	- XGBoost does not have this ability</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- fine-tuning LLMs show cross-task generalization (fine-tuning on join task; can perform on union task)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>	- XGBoost does not have this ability</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- overall, when we have ground truth labels, the results are not in favor of ML methods. XGBoost has an awesome job (even though they do not generalize well cross-data)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4o-mini costs</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- 3.33 for inference (for 14 tasks, 30 mins)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1151,15 +806,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A25" dT="2025-02-24T23:09:05.30" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{EED0D08B-EFB4-6449-9728-0EC52AEB9BD2}">
-    <text>Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A12" dT="2025-02-24T23:09:20.07" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{8EEEE5FB-BB02-E74A-8762-6734D3965F35}">
+  <threadedComment ref="A26" dT="2025-02-24T23:09:05.30" personId="{9D9E5CA6-6815-0341-8285-EC861268655E}" id="{EED0D08B-EFB4-6449-9728-0EC52AEB9BD2}">
     <text>Fine-tuning is no longer needed since simple ML method (XGBoost) works very well.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2782,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2834,6 +2481,12 @@
       <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -2850,6 +2503,8 @@
         <v>0.85728300000000002</v>
       </c>
       <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -2865,10 +2520,11 @@
         <v>0.94330400000000003</v>
       </c>
       <c r="F4" s="38"/>
-      <c r="H4" s="47"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
@@ -2883,10 +2539,11 @@
         <v>0.84620399999999996</v>
       </c>
       <c r="F5" s="38"/>
-      <c r="H5" s="47"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
@@ -2899,10 +2556,11 @@
         <v>0.86510299999999996</v>
       </c>
       <c r="F6" s="38"/>
-      <c r="H6" s="47"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
@@ -2917,10 +2575,11 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="F7" s="38"/>
-      <c r="H7" s="47"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
@@ -2933,10 +2592,11 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="F8" s="38"/>
-      <c r="H8" s="47"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
@@ -2949,32 +2609,38 @@
       <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="19">
         <v>0.49234278266536302</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="19">
         <v>0.40795047246660099</v>
       </c>
-      <c r="L9" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="52" t="s">
+      <c r="G9" s="19">
+        <v>0.64418399999999998</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.603128</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="42"/>
+      <c r="N9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -2985,32 +2651,38 @@
       <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="19">
         <v>0.51710654936461298</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="19">
         <v>0.59237536656891498</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52" t="s">
+      <c r="G10" s="19">
+        <v>0.64678999999999998</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.63962200000000002</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52" t="s">
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
     </row>
     <row r="11" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -3019,40 +2691,46 @@
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <v>0.54089279895731501</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <v>0.50667970022808695</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
+      <c r="G11" s="19">
+        <v>0.727599</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.60540899999999997</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
     </row>
     <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
@@ -3061,60 +2739,66 @@
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="19">
         <v>0.49201694362984599</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="19">
         <v>0.46757901596611201</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53" t="s">
+      <c r="G12" s="19">
+        <v>0.75920500000000002</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.65982399999999997</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="53" t="s">
+      <c r="P12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="53" t="s">
+      <c r="Q12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="53" t="s">
+      <c r="R12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="53" t="s">
+      <c r="S12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="53" t="s">
+      <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53" t="s">
+      <c r="U12" s="40"/>
+      <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="W12" s="53" t="s">
+      <c r="W12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="53" t="s">
+      <c r="X12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y12" s="53" t="s">
+      <c r="Y12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Z12" s="53" t="s">
+      <c r="Z12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AA12" s="53" t="s">
+      <c r="AA12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AC12" s="50" t="s">
-        <v>57</v>
+      <c r="AC12" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="AD12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF12" s="12" t="s">
         <v>36</v>
@@ -3132,25 +2816,31 @@
       <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="19">
         <v>0.596285434995112</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="19">
         <v>0.93385467579015902</v>
       </c>
-      <c r="L13" s="28">
+      <c r="G13" s="19">
+        <v>0.79081100000000004</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.94037099999999996</v>
+      </c>
+      <c r="L13" s="24">
         <v>1</v>
       </c>
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="41">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="43">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="43">
         <v>0.50667970022808695</v>
       </c>
       <c r="Q13" s="38">
@@ -3165,13 +2855,13 @@
       <c r="T13" s="38">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="41">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="49">
+      <c r="V13" s="43">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="49">
+      <c r="W13" s="43">
         <v>0.516780710329097</v>
       </c>
       <c r="X13" s="38">
@@ -3186,19 +2876,19 @@
       <c r="AA13" s="38">
         <v>0.916585206907787</v>
       </c>
-      <c r="AC13" s="28">
+      <c r="AC13" s="24">
         <v>1</v>
       </c>
-      <c r="AD13" s="56">
+      <c r="AD13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="AE13" s="45">
+      <c r="AE13" s="25">
         <v>0.85630498533724297</v>
       </c>
-      <c r="AF13" s="58">
+      <c r="AF13" s="28">
         <v>0.83805799999999997</v>
       </c>
-      <c r="AG13" s="58">
+      <c r="AG13" s="28">
         <v>0.86933899999999997</v>
       </c>
     </row>
@@ -3209,45 +2899,51 @@
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="19">
         <v>0.55751058976865397</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="19">
         <v>0.76050830889540499</v>
       </c>
-      <c r="L14" s="28">
+      <c r="G14" s="19">
+        <v>0.70837399999999995</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.754969</v>
+      </c>
+      <c r="L14" s="24">
         <v>2</v>
       </c>
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="48"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
-      <c r="AC14" s="28">
+      <c r="AC14" s="24">
         <v>10</v>
       </c>
-      <c r="AD14" s="56">
+      <c r="AD14" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="AE14" s="58">
+      <c r="AE14" s="28">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AF14" s="58">
+      <c r="AF14" s="28">
         <v>0.92701199999999995</v>
       </c>
-      <c r="AG14" s="58">
+      <c r="AG14" s="28">
         <v>0.94069700000000001</v>
       </c>
     </row>
@@ -3258,28 +2954,34 @@
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="19">
         <v>0.55131964809384104</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="19">
         <v>0.88367546432062505</v>
       </c>
-      <c r="L15" s="28">
+      <c r="G15" s="19">
+        <v>0.88432699999999997</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.94884299999999999</v>
+      </c>
+      <c r="L15" s="24">
         <v>5</v>
       </c>
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
@@ -3294,28 +2996,34 @@
       <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="19">
         <v>0.47214076246334302</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="19">
         <v>0.493320299771912</v>
       </c>
-      <c r="L16" s="28">
+      <c r="G16" s="19">
+        <v>0.608016</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.63245399999999996</v>
+      </c>
+      <c r="L16" s="24">
         <v>10</v>
       </c>
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
@@ -3330,28 +3038,34 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="19">
         <v>0.46953405017921102</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="19">
         <v>0.60182469859889198</v>
       </c>
-      <c r="L17" s="28">
+      <c r="G17" s="19">
+        <v>0.61551</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.68589100000000003</v>
+      </c>
+      <c r="L17" s="24">
         <v>20</v>
       </c>
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
@@ -3364,11 +3078,17 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="19">
         <v>0.50993809058325101</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="19">
         <v>0.516780710329097</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.62463299999999999</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.68067800000000001</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -3378,11 +3098,17 @@
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="19">
         <v>0.50863473444118601</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="19">
         <v>0.53828608667318301</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.63603799999999999</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.67513800000000002</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -3394,18 +3120,18 @@
       <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="19">
         <v>0.598892147279244</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="19">
         <v>0.928641251221896</v>
       </c>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
+      <c r="G20" s="19">
+        <v>0.88139500000000004</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.93581000000000003</v>
+      </c>
     </row>
     <row r="21" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
@@ -3414,19 +3140,24 @@
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="19">
         <v>0.503421309872922</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="19">
         <v>0.83447376995764</v>
       </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="54"/>
-      <c r="AC21" s="50"/>
+      <c r="G21" s="19">
+        <v>0.84685600000000005</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.85695699999999997</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
@@ -3435,203 +3166,218 @@
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="19">
         <v>0.51482567611599805</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="19">
         <v>0.916585206907787</v>
       </c>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="54"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
+      <c r="G22" s="19">
+        <v>0.90746199999999999</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.94525899999999996</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="39">
-        <v>0.995</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="39">
+        <v>0.995</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="5"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-    </row>
-    <row r="25" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C26" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D26" s="21">
         <v>1</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E26" s="23">
         <v>0.83805799999999997</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F26" s="23">
         <v>0.86933899999999997</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="22">
-        <v>2</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="24"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="22">
-        <v>5</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D27" s="21">
+        <v>2</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="22">
-        <v>10</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0.92701199999999995</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0.94069700000000001</v>
-      </c>
+      <c r="D28" s="21">
+        <v>5</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="22">
-        <v>20</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
+      <c r="D29" s="21">
+        <v>10</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0.92701199999999995</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.94069700000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="21">
+        <v>20</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="22">
-        <v>2</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="C31" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="22">
-        <v>3</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="D32" s="21">
+        <v>2</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="22">
-        <v>4</v>
-      </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="D33" s="21">
+        <v>3</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="22">
-        <v>5</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="D34" s="21">
+        <v>4</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="21">
+        <v>5</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="27">
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F36" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -3659,16 +3405,16 @@
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O13:O17"/>
     <mergeCell ref="P13:P17"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:C25"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
@@ -3681,36 +3427,14 @@
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:F22 E3:E8">
+  <conditionalFormatting sqref="M13:AA17">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:AA17">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3721,17 +3445,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E3:H22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3741,330 +3477,629 @@
     <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="13"/>
-    <col min="8" max="9" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="13"/>
+    <col min="8" max="8" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.1640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+    </row>
+    <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="G2" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+    </row>
+    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="14" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E3" s="38">
         <v>0.85728300000000002</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="13">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.85728300000000002</v>
-      </c>
-      <c r="L2" s="45">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="M2" s="45">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N2" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E4" s="38">
         <v>0.94330400000000003</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="13">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.90257399999999999</v>
-      </c>
-      <c r="L3" s="44">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="M3" s="45">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.40795047246660099</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="13">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-      <c r="L4" s="44">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="M4" s="45">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.59237536656891498</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="13">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="L5" s="45">
-        <v>0.94200065167807101</v>
-      </c>
-      <c r="M5" s="45">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.84620399999999996</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+    </row>
+    <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.93385467579015902</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="13">
-        <v>20</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.93548399999999998</v>
-      </c>
-      <c r="L6" s="45">
-        <v>0.93711306614532397</v>
-      </c>
-      <c r="M6" s="45">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-    </row>
-    <row r="7" spans="1:15" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.86510299999999996</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+    </row>
+    <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
+        <v>0.49234278266536302</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.40795047246660099</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.64418399999999998</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.603128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.51710654936461298</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.59237536656891498</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.64678999999999998</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.63962200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.54089279895731501</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.50667970022808695</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.727599</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.60540899999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.49201694362984599</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.46757901596611201</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.75920500000000002</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.65982399999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.596285434995112</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.93385467579015902</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.79081100000000004</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.94037099999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.55751058976865397</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.76050830889540499</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.70837399999999995</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.754969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.55131964809384104</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.88367546432062505</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.88432699999999997</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.94884299999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.47214076246334302</v>
+      </c>
+      <c r="F14" s="19">
         <v>0.493320299771912</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="13" t="s">
+      <c r="G14" s="19">
+        <v>0.608016</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.63245399999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.46953405017921102</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.60182469859889198</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.61551</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.68589100000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.50993809058325101</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0.516780710329097</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.62463299999999999</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.68067800000000001</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.50863473444118601</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.53828608667318301</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.63603799999999999</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.67513800000000002</v>
+      </c>
+      <c r="N17" s="37"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.598892147279244</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.928641251221896</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.88139500000000004</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.93581000000000003</v>
+      </c>
+      <c r="N18" s="37"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.503421309872922</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.83447376995764</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.84685600000000005</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.85695699999999997</v>
+      </c>
+      <c r="N19" s="37"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.51482567611599805</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.916585206907787</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.90746199999999999</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.94525899999999996</v>
+      </c>
+      <c r="N20" s="37"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N21" s="37"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+    </row>
+    <row r="27" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="P27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="18">
-        <v>0.60182469859889198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="13" t="s">
+      <c r="Q27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="20">
-        <v>0.928641251221896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="22" t="s">
+      <c r="T27" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N28" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="13">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="R28" s="25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S28" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N29" s="37"/>
+      <c r="O29" s="13">
+        <v>2</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.90257399999999999</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="R29" s="25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N30" s="37"/>
+      <c r="O30" s="13">
+        <v>5</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="R30" s="25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N31" s="37"/>
+      <c r="O31" s="13">
+        <v>10</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>0.94200065167807101</v>
+      </c>
+      <c r="R31" s="25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N32" s="37"/>
+      <c r="O32" s="13">
         <v>20</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0.86933899999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="22">
-        <v>2</v>
-      </c>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="22">
-        <v>5</v>
-      </c>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="22">
-        <v>10</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="22">
-        <v>20</v>
-      </c>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="P32" s="5">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>0.93711306614532397</v>
+      </c>
+      <c r="R32" s="25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="N2:O6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:D17"/>
+  <mergeCells count="20">
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="S28:T32"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="N17:N21"/>
+    <mergeCell ref="S17:T21"/>
+    <mergeCell ref="A3:B6"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:M6">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="P17:R21">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4075,8 +4110,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E3:H20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C53430-2348-394D-8A1F-96BE99BCAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA355E-BDFE-8540-96A5-B4CDF0B52C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
   <si>
     <t>llama</t>
   </si>
@@ -185,28 +185,6 @@
 Driven</t>
   </si>
   <si>
-    <t>heuristics</t>
-  </si>
-  <si>
-    <t>zero_shot_with_
-heur_value_comb</t>
-  </si>
-  <si>
-    <t>few_shot_with_
-heur_value_comb</t>
-  </si>
-  <si>
-    <t>few_shot_with_
-heur_value_angle</t>
-  </si>
-  <si>
-    <t>zero_shot_with_
-heur_value_angle</t>
-  </si>
-  <si>
-    <t>tonight</t>
-  </si>
-  <si>
     <t>Heuristic Hint</t>
   </si>
   <si>
@@ -230,6 +208,27 @@
   </si>
   <si>
     <t>qwen</t>
+  </si>
+  <si>
+    <t>zs-angle</t>
+  </si>
+  <si>
+    <t>fs-angle</t>
+  </si>
+  <si>
+    <t>zs-comb</t>
+  </si>
+  <si>
+    <t>fs-comb</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>min_angle threshold</t>
+  </si>
+  <si>
+    <t>models</t>
   </si>
 </sst>
 </file>
@@ -327,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +408,12 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,50 +426,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,23 +833,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -869,7 +871,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -896,7 +898,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -921,7 +923,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -946,7 +948,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -971,7 +973,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -998,7 +1000,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1025,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1050,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1115,20 +1117,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1163,7 +1165,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1201,7 +1203,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1239,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1275,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1311,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1347,7 +1349,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1385,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1421,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1457,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1493,7 +1495,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1531,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1565,7 +1567,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1635,23 +1637,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1673,7 +1675,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1700,7 +1702,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1725,7 +1727,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1750,7 +1752,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1775,7 +1777,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1802,7 +1804,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1827,7 +1829,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1854,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1919,20 +1921,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1967,7 +1969,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2005,7 +2007,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2043,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2079,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +2115,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2161,7 +2163,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2200,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2234,7 +2236,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2272,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2308,7 +2310,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2346,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2380,7 +2382,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2434,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2459,150 +2461,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="36"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>54</v>
+      <c r="G2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2621,31 +2623,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="40" t="s">
+      <c r="L9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2663,31 +2665,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="40" t="s">
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40" t="s">
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
     </row>
     <row r="11" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2703,39 +2705,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
     </row>
     <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2751,9 +2753,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="40"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2772,7 +2774,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="40"/>
+      <c r="U12" s="35"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2792,13 +2794,13 @@
         <v>27</v>
       </c>
       <c r="AC12" s="26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AD12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AF12" s="12" t="s">
         <v>36</v>
@@ -2808,9 +2810,9 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2834,46 +2836,46 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="38">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="39">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="39">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="37">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="38">
+      <c r="R13" s="37">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="38">
+      <c r="S13" s="37">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="38">
+      <c r="T13" s="37">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="38">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="39">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="43">
+      <c r="W13" s="39">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="38">
+      <c r="X13" s="37">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="38">
+      <c r="Y13" s="37">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="38">
+      <c r="Z13" s="37">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="38">
+      <c r="AA13" s="37">
         <v>0.916585206907787</v>
       </c>
       <c r="AC13" s="24">
@@ -2893,9 +2895,9 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2917,20 +2919,20 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
       <c r="AC14" s="24">
         <v>10</v>
       </c>
@@ -2948,9 +2950,9 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2972,24 +2974,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3014,25 +3016,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3056,25 +3058,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3092,9 +3094,9 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3112,9 +3114,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3134,9 +3136,9 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3160,9 +3162,9 @@
       <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3210,18 +3212,18 @@
       <c r="AG23" s="28"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="42">
         <v>0.995</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="42"/>
       <c r="L24" s="24"/>
       <c r="M24" s="5"/>
       <c r="AC24" s="24"/>
@@ -3231,27 +3233,27 @@
       <c r="AG24" s="28"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="L25" s="24"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3267,9 +3269,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3277,9 +3279,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3287,9 +3289,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3301,9 +3303,9 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3311,9 +3313,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3323,9 +3325,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3333,9 +3335,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3343,9 +3345,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3353,9 +3355,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3363,12 +3365,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3381,6 +3383,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3397,42 +3434,19 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:H22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M13:AA17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -3442,18 +3456,6 @@
         <color theme="1" tint="0.499984740745262"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:H22">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -3467,7 +3469,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3480,170 +3482,232 @@
     <col min="8" max="8" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="4.1640625" style="13" customWidth="1"/>
     <col min="12" max="12" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="13"/>
+    <col min="13" max="13" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>54</v>
+      <c r="G2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
+      <c r="L2" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="46">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="37">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="P2" s="17">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="R2" s="17">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S2" s="17">
+        <v>0.94525904203323496</v>
+      </c>
+      <c r="T2" s="17">
+        <v>0.94819159335288306</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="17">
+        <v>0.90700000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="17">
+        <v>0.94899999999999995</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="46">
+        <v>2</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="37">
+        <v>0.90257399999999999</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0.94558488106875205</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0.94688823721081705</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="17">
+        <v>0.90700000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3662,11 +3726,20 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="17">
+        <v>0.94899999999999995</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3684,11 +3757,36 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
+      <c r="L8" s="44"/>
+      <c r="M8" s="46">
+        <v>5</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="37">
+        <v>0.93776499999999996</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0.94656239817530097</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0.94623655913978499</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3704,11 +3802,20 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="37"/>
+      <c r="P9" s="17">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3724,11 +3831,20 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="17">
+        <v>0.94899999999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3746,11 +3862,34 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
+      <c r="L11" s="44"/>
+      <c r="M11" s="46">
+        <v>10</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>0.94200065167807101</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S11" s="17">
+        <v>0.94851743238840003</v>
+      </c>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -3766,11 +3905,20 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
+      <c r="L12" s="44"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="37"/>
+      <c r="P12" s="17">
+        <v>0.90700000000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -3786,10 +3934,19 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="17">
+        <v>0.94899999999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -3808,11 +3965,34 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="46">
+        <v>20</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="37">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>0.93711306614532397</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S14" s="17">
+        <v>0.94428152492668604</v>
+      </c>
+      <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -3830,11 +4010,20 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="37"/>
+      <c r="P15" s="17">
+        <v>0.90700000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -3850,15 +4039,20 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="37"/>
+      <c r="P16" s="17">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -3874,17 +4068,13 @@
       <c r="H17" s="19">
         <v>0.67513800000000002</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37" t="s">
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -3902,17 +4092,17 @@
       <c r="H18" s="19">
         <v>0.93581000000000003</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="17"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -3928,17 +4118,13 @@
       <c r="H19" s="19">
         <v>0.85695699999999997</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -3954,134 +4140,107 @@
       <c r="H20" s="19">
         <v>0.94525899999999996</v>
       </c>
-      <c r="N20" s="37"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="N21" s="37"/>
-      <c r="P21" s="5"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M21" s="5"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-    </row>
-    <row r="27" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="P27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="N28" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="13">
-        <v>1</v>
-      </c>
-      <c r="P28" s="5">
-        <v>0.85728300000000002</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="R28" s="25">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="S28" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" s="44"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="N29" s="37"/>
-      <c r="O29" s="13">
-        <v>2</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0.90257399999999999</v>
-      </c>
-      <c r="Q29" s="17">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="R29" s="25">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="N30" s="37"/>
-      <c r="O30" s="13">
-        <v>5</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0.93776499999999996</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="R30" s="25">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="N31" s="37"/>
-      <c r="O31" s="13">
-        <v>10</v>
-      </c>
-      <c r="P31" s="5">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>0.94200065167807101</v>
-      </c>
-      <c r="R31" s="25">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="N32" s="37"/>
-      <c r="O32" s="13">
-        <v>20</v>
-      </c>
-      <c r="P32" s="5">
-        <v>0.93548399999999998</v>
-      </c>
-      <c r="Q32" s="25">
-        <v>0.93711306614532397</v>
-      </c>
-      <c r="R32" s="25">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M24" s="5"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L27" s="30"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L28" s="5"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L29" s="5"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L30" s="5"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L31" s="5"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="17"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L32" s="5"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="S28:T32"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="N17:N21"/>
-    <mergeCell ref="S17:T21"/>
+  <mergeCells count="28">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="A3:B6"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="B7:B13"/>
@@ -4090,26 +4249,15 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="O2:O4"/>
   </mergeCells>
-  <conditionalFormatting sqref="P17:R21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E3:H20">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA355E-BDFE-8540-96A5-B4CDF0B52C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97421C9-B74D-5A4B-8F73-182772995D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -414,6 +414,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,47 +429,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,23 +833,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -871,7 +871,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -898,7 +898,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1000,7 +1000,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1117,20 +1117,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1239,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1311,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1637,23 +1637,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1702,7 +1702,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1804,7 +1804,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1921,20 +1921,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1969,7 +1969,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2043,7 +2043,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2163,7 +2163,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2461,22 +2461,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="43"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2491,120 +2493,120 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="41">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="41">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="41">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="41">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="41">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="41">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2623,31 +2625,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="35" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2665,31 +2667,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="35" t="s">
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35" t="s">
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
     </row>
     <row r="11" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2705,39 +2707,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35" t="s">
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36" t="s">
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="V11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35" t="s">
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
     </row>
     <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2753,9 +2755,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="35"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2774,7 +2776,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="35"/>
+      <c r="U12" s="43"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2810,9 +2812,9 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2836,46 +2838,46 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="44">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="46">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="46">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="41">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="41">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="37">
+      <c r="S13" s="41">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="41">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="38">
+      <c r="U13" s="44">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="39">
+      <c r="V13" s="46">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="46">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="37">
+      <c r="X13" s="41">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="37">
+      <c r="Y13" s="41">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="37">
+      <c r="Z13" s="41">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="37">
+      <c r="AA13" s="41">
         <v>0.916585206907787</v>
       </c>
       <c r="AC13" s="24">
@@ -2895,9 +2897,9 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2919,20 +2921,20 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
       <c r="AC14" s="24">
         <v>10</v>
       </c>
@@ -2950,9 +2952,9 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2974,24 +2976,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3016,25 +3018,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3058,25 +3060,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3094,9 +3096,9 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3114,9 +3116,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3136,9 +3138,9 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3162,9 +3164,9 @@
       <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3212,11 +3214,11 @@
       <c r="AG23" s="28"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
@@ -3233,9 +3235,9 @@
       <c r="AG24" s="28"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
@@ -3247,13 +3249,13 @@
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3269,9 +3271,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3279,9 +3281,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3289,9 +3291,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3303,9 +3305,9 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3313,9 +3315,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3325,9 +3327,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3335,9 +3337,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3345,9 +3347,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3355,9 +3357,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3365,12 +3367,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3383,41 +3385,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3434,6 +3401,41 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H22">
     <cfRule type="colorScale" priority="1">
@@ -3469,7 +3471,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3477,8 +3479,9 @@
     <col min="1" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="13"/>
+    <col min="5" max="5" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="4.1640625" style="13" customWidth="1"/>
     <col min="12" max="12" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
@@ -3494,18 +3497,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3516,24 +3519,24 @@
       <c r="P1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3549,16 +3552,16 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2" s="48">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="41">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3581,84 +3584,84 @@
       <c r="A3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="41">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="46"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="41">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="46"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="41">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="46">
+      <c r="L5" s="40"/>
+      <c r="M5" s="48">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="41">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3678,36 +3681,36 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="41">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="46"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="37"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3726,20 +3729,20 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="46"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3757,14 +3760,14 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="46">
+      <c r="L8" s="40"/>
+      <c r="M8" s="48">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="41">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -3784,9 +3787,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3802,20 +3805,20 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="46"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="37"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3831,20 +3834,20 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="46"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="48"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="37"/>
+      <c r="O10" s="41"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3862,14 +3865,14 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="46">
+      <c r="L11" s="40"/>
+      <c r="M11" s="48">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="41">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -3887,9 +3890,9 @@
       <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -3905,20 +3908,20 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="46"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="48"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="37"/>
+      <c r="O12" s="41"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -3934,19 +3937,19 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="46"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="37"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -3965,14 +3968,14 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="46">
+      <c r="L14" s="40"/>
+      <c r="M14" s="48">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="41">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -3990,9 +3993,9 @@
       <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4010,20 +4013,20 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="46"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="48"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="37"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4039,20 +4042,20 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="46"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="37"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4072,9 +4075,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4100,9 +4103,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4122,9 +4125,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4184,7 +4187,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="38"/>
+      <c r="M28" s="44"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="38"/>
+      <c r="M29" s="44"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="38"/>
+      <c r="M30" s="44"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4211,7 +4214,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="38"/>
+      <c r="M31" s="44"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4220,7 +4223,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="38"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4229,11 +4232,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:H3"/>
@@ -4242,23 +4254,26 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="A3:B6"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C18:C20"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="M28:M32"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:T16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97421C9-B74D-5A4B-8F73-182772995D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49078914-4F84-3849-AA11-9A3C69B165BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,43 +429,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2461,24 +2464,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2493,120 +2496,120 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="38">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="38">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2625,31 +2628,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="43" t="s">
+      <c r="M9" s="37"/>
+      <c r="N9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2667,31 +2670,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="43" t="s">
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43" t="s">
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
     </row>
     <row r="11" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2707,39 +2710,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="43" t="s">
+      <c r="O11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43" t="s">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="45" t="s">
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="43" t="s">
+      <c r="V11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43" t="s">
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
     </row>
     <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2755,9 +2758,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="43"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="36"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2776,7 +2779,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="43"/>
+      <c r="U12" s="36"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2812,9 +2815,9 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2838,46 +2841,46 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="39">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="40">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="40">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="38">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="38">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="41">
+      <c r="S13" s="38">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="41">
+      <c r="T13" s="38">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="44">
+      <c r="U13" s="39">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="46">
+      <c r="V13" s="40">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13" s="40">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="41">
+      <c r="X13" s="38">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="41">
+      <c r="Y13" s="38">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="41">
+      <c r="Z13" s="38">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="41">
+      <c r="AA13" s="38">
         <v>0.916585206907787</v>
       </c>
       <c r="AC13" s="24">
@@ -2897,9 +2900,9 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2921,20 +2924,20 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
       <c r="AC14" s="24">
         <v>10</v>
       </c>
@@ -2952,9 +2955,9 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2976,24 +2979,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3018,25 +3021,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="44"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3060,25 +3063,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3096,9 +3099,9 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3116,9 +3119,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3138,9 +3141,9 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3164,9 +3167,9 @@
       <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3214,18 +3217,18 @@
       <c r="AG23" s="28"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="43">
         <v>0.995</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="43"/>
       <c r="L24" s="24"/>
       <c r="M24" s="5"/>
       <c r="AC24" s="24"/>
@@ -3235,27 +3238,27 @@
       <c r="AG24" s="28"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
       <c r="L25" s="24"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3271,9 +3274,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3281,9 +3284,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3291,9 +3294,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3305,9 +3308,9 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3315,9 +3318,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3327,9 +3330,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3337,9 +3340,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3347,9 +3350,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3357,9 +3360,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3367,12 +3370,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3385,6 +3388,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3401,41 +3439,6 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H22">
     <cfRule type="colorScale" priority="1">
@@ -3471,7 +3474,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3497,18 +3500,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3533,10 +3536,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3552,16 +3555,16 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="47">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="38">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3581,87 +3584,87 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="48"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="41"/>
+      <c r="O3" s="38"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="38">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="48"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="41"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="48">
+      <c r="L5" s="45"/>
+      <c r="M5" s="47">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="38">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3681,36 +3684,36 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="38">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="48"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="41"/>
+      <c r="O6" s="38"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3729,20 +3732,20 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="48"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="38"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3760,14 +3763,14 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="48">
+      <c r="L8" s="45"/>
+      <c r="M8" s="47">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="38">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -3787,9 +3790,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3805,20 +3808,20 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="48"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="41"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3834,20 +3837,20 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="48"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="41"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3865,14 +3868,14 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="48">
+      <c r="L11" s="45"/>
+      <c r="M11" s="47">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="38">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -3887,12 +3890,14 @@
       <c r="S11" s="17">
         <v>0.94851743238840003</v>
       </c>
-      <c r="T11" s="17"/>
+      <c r="T11" s="49">
+        <v>0.94656239817530097</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -3908,20 +3913,20 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="48"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="41"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -3937,19 +3942,19 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="48"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="41"/>
+      <c r="O13" s="38"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -3968,14 +3973,14 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="48">
+      <c r="L14" s="45"/>
+      <c r="M14" s="47">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="38">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -3993,9 +3998,9 @@
       <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4013,20 +4018,20 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="48"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="41"/>
+      <c r="O15" s="38"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4042,20 +4047,20 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="48"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="41"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4075,9 +4080,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4103,9 +4108,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4125,9 +4130,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4187,7 +4192,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="44"/>
+      <c r="M28" s="39"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4196,7 +4201,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="44"/>
+      <c r="M29" s="39"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4205,7 +4210,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="44"/>
+      <c r="M30" s="39"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4214,7 +4219,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="44"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4223,7 +4228,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="44"/>
+      <c r="M32" s="39"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4232,20 +4237,7 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="M28:M32"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:H3"/>
@@ -4255,11 +4247,24 @@
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="A3:B6"/>
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
     <mergeCell ref="O5:O7"/>
     <mergeCell ref="O8:O10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="O14:O16"/>
-    <mergeCell ref="M28:M32"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H20">
     <cfRule type="colorScale" priority="2">
@@ -4273,18 +4278,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:T16">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49078914-4F84-3849-AA11-9A3C69B165BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9EE14-9B6A-4A40-8C59-4D17CA9A64FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,6 +423,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,46 +438,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,23 +845,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -874,7 +883,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -901,7 +910,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -926,7 +935,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -951,7 +960,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -976,7 +985,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1003,7 +1012,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1037,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1062,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1120,20 +1129,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1168,7 +1177,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1206,7 +1215,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1251,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1287,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1323,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1352,7 +1361,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1397,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +1433,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1469,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1498,7 +1507,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1543,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1579,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1640,23 +1649,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1678,7 +1687,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1705,7 +1714,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1730,7 +1739,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1755,7 +1764,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1789,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1807,7 +1816,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1832,7 +1841,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1857,7 +1866,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1924,20 +1933,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1972,7 +1981,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2010,7 +2019,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2055,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2082,7 +2091,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2118,7 +2127,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2166,7 +2175,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2212,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +2248,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2275,7 +2284,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2313,7 +2322,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2358,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2385,7 +2394,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2464,24 +2473,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2496,120 +2505,120 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="42">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="42">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="42">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="42">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="42">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="42">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2628,31 +2637,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="36" t="s">
+      <c r="M9" s="46"/>
+      <c r="N9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2670,31 +2679,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="36" t="s">
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36" t="s">
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
     </row>
     <row r="11" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2710,39 +2719,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36" t="s">
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37" t="s">
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="36" t="s">
+      <c r="V11" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36" t="s">
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
     </row>
     <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2758,9 +2767,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="36"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2779,7 +2788,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="36"/>
+      <c r="U12" s="44"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2815,9 +2824,9 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2841,46 +2850,46 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="45">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="47">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="47">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="42">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="38">
+      <c r="R13" s="42">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="38">
+      <c r="S13" s="42">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="38">
+      <c r="T13" s="42">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="45">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="40">
+      <c r="V13" s="47">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="40">
+      <c r="W13" s="47">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="38">
+      <c r="X13" s="42">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="38">
+      <c r="Y13" s="42">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="38">
+      <c r="Z13" s="42">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="38">
+      <c r="AA13" s="42">
         <v>0.916585206907787</v>
       </c>
       <c r="AC13" s="24">
@@ -2900,9 +2909,9 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2924,20 +2933,20 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
       <c r="AC14" s="24">
         <v>10</v>
       </c>
@@ -2955,9 +2964,9 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2979,24 +2988,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3021,25 +3030,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3063,25 +3072,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3099,9 +3108,9 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3119,9 +3128,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3141,9 +3150,9 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3167,9 +3176,9 @@
       <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3217,11 +3226,11 @@
       <c r="AG23" s="28"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
@@ -3238,9 +3247,9 @@
       <c r="AG24" s="28"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
@@ -3252,13 +3261,13 @@
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3274,9 +3283,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3284,9 +3293,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3294,9 +3303,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3308,9 +3317,9 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3318,9 +3327,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3330,9 +3339,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3340,9 +3349,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3350,9 +3359,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3360,9 +3369,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3370,12 +3379,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3388,41 +3397,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3439,6 +3413,41 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H22">
     <cfRule type="colorScale" priority="1">
@@ -3474,7 +3483,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3483,8 +3492,8 @@
     <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="4.1640625" style="13" customWidth="1"/>
     <col min="12" max="12" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
@@ -3500,18 +3509,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3536,18 +3545,18 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>48</v>
@@ -3555,16 +3564,16 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="49">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="42">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3587,84 +3596,88 @@
       <c r="A3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="42">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="47"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="38"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="42">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="47"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="38"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="42">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="47">
+      <c r="L5" s="41"/>
+      <c r="M5" s="49">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="42">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3684,36 +3697,38 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="42">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="47"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="38"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3724,28 +3739,30 @@
         <v>0.49234278266536302</v>
       </c>
       <c r="F7" s="19">
+        <v>0.64418399999999998</v>
+      </c>
+      <c r="G7" s="19">
         <v>0.40795047246660099</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0.64418399999999998</v>
       </c>
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="47"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3755,22 +3772,22 @@
         <v>0.51710654936461298</v>
       </c>
       <c r="F8" s="19">
+        <v>0.64678999999999998</v>
+      </c>
+      <c r="G8" s="19">
         <v>0.59237536656891498</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.64678999999999998</v>
       </c>
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="47">
+      <c r="L8" s="41"/>
+      <c r="M8" s="49">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="42">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -3790,9 +3807,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3800,28 +3817,30 @@
         <v>0.54089279895731501</v>
       </c>
       <c r="F9" s="19">
+        <v>0.727599</v>
+      </c>
+      <c r="G9" s="19">
         <v>0.50667970022808695</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0.727599</v>
       </c>
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="47"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="38"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3829,28 +3848,30 @@
         <v>0.49201694362984599</v>
       </c>
       <c r="F10" s="19">
+        <v>0.75920500000000002</v>
+      </c>
+      <c r="G10" s="19">
         <v>0.46757901596611201</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.75920500000000002</v>
       </c>
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="47"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="49"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="38"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3860,22 +3881,22 @@
         <v>0.596285434995112</v>
       </c>
       <c r="F11" s="19">
+        <v>0.79081100000000004</v>
+      </c>
+      <c r="G11" s="19">
         <v>0.93385467579015902</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0.79081100000000004</v>
       </c>
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="47">
+      <c r="L11" s="41"/>
+      <c r="M11" s="49">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="42">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -3890,14 +3911,14 @@
       <c r="S11" s="17">
         <v>0.94851743238840003</v>
       </c>
-      <c r="T11" s="49">
+      <c r="T11" s="32">
         <v>0.94656239817530097</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -3905,28 +3926,30 @@
         <v>0.55751058976865397</v>
       </c>
       <c r="F12" s="19">
+        <v>0.70837399999999995</v>
+      </c>
+      <c r="G12" s="19">
         <v>0.76050830889540499</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.70837399999999995</v>
       </c>
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="47"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="49"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="38"/>
+      <c r="O12" s="42"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -3934,27 +3957,29 @@
         <v>0.55131964809384104</v>
       </c>
       <c r="F13" s="19">
+        <v>0.88432699999999997</v>
+      </c>
+      <c r="G13" s="19">
         <v>0.88367546432062505</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0.88432699999999997</v>
       </c>
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="47"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="49"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="38"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -3965,22 +3990,22 @@
         <v>0.47214076246334302</v>
       </c>
       <c r="F14" s="19">
+        <v>0.608016</v>
+      </c>
+      <c r="G14" s="19">
         <v>0.493320299771912</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.608016</v>
       </c>
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="47">
+      <c r="L14" s="41"/>
+      <c r="M14" s="49">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="42">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -3995,12 +4020,14 @@
       <c r="S14" s="17">
         <v>0.94428152492668604</v>
       </c>
-      <c r="T14" s="17"/>
+      <c r="T14" s="3">
+        <v>0.94395568589116896</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4010,28 +4037,30 @@
         <v>0.46953405017921102</v>
       </c>
       <c r="F15" s="19">
+        <v>0.61551</v>
+      </c>
+      <c r="G15" s="19">
         <v>0.60182469859889198</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0.61551</v>
       </c>
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="47"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="49"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="38"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4039,28 +4068,30 @@
         <v>0.50993809058325101</v>
       </c>
       <c r="F16" s="19">
+        <v>0.62463299999999999</v>
+      </c>
+      <c r="G16" s="19">
         <v>0.516780710329097</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0.62463299999999999</v>
       </c>
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="47"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="38"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4068,10 +4099,10 @@
         <v>0.50863473444118601</v>
       </c>
       <c r="F17" s="19">
+        <v>0.63603799999999999</v>
+      </c>
+      <c r="G17" s="19">
         <v>0.53828608667318301</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0.63603799999999999</v>
       </c>
       <c r="H17" s="19">
         <v>0.67513800000000002</v>
@@ -4080,9 +4111,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4092,10 +4123,10 @@
         <v>0.598892147279244</v>
       </c>
       <c r="F18" s="19">
+        <v>0.88139500000000004</v>
+      </c>
+      <c r="G18" s="19">
         <v>0.928641251221896</v>
-      </c>
-      <c r="G18" s="19">
-        <v>0.88139500000000004</v>
       </c>
       <c r="H18" s="19">
         <v>0.93581000000000003</v>
@@ -4108,9 +4139,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4118,10 +4149,10 @@
         <v>0.503421309872922</v>
       </c>
       <c r="F19" s="19">
+        <v>0.84685600000000005</v>
+      </c>
+      <c r="G19" s="19">
         <v>0.83447376995764</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0.84685600000000005</v>
       </c>
       <c r="H19" s="19">
         <v>0.85695699999999997</v>
@@ -4130,9 +4161,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4140,10 +4171,10 @@
         <v>0.51482567611599805</v>
       </c>
       <c r="F20" s="19">
+        <v>0.90746199999999999</v>
+      </c>
+      <c r="G20" s="19">
         <v>0.916585206907787</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0.90746199999999999</v>
       </c>
       <c r="H20" s="19">
         <v>0.94525899999999996</v>
@@ -4192,7 +4223,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="39"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4201,7 +4232,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="39"/>
+      <c r="M29" s="45"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4210,7 +4241,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="39"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4219,7 +4250,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="39"/>
+      <c r="M31" s="45"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4228,7 +4259,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="39"/>
+      <c r="M32" s="45"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4237,6 +4268,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
     <mergeCell ref="M28:M32"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C3:C4"/>
@@ -4253,21 +4296,21 @@
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:H20">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E3:H6 E7:F20 H7:H20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G20">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9EE14-9B6A-4A40-8C59-4D17CA9A64FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD9FD8-5963-FD46-B6F5-B94503972F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -426,6 +426,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,47 +441,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,23 +845,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -910,7 +910,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1012,7 +1012,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1129,20 +1129,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1251,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1361,7 +1361,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1649,23 +1649,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1714,7 +1714,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1816,7 +1816,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1933,20 +1933,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1981,7 +1981,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2019,7 +2019,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2175,7 +2175,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2322,7 +2322,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2473,24 +2473,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2505,120 +2505,120 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="40">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="40">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="40">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="40">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2637,31 +2637,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="44" t="s">
+      <c r="M9" s="39"/>
+      <c r="N9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2679,31 +2679,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="44" t="s">
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44" t="s">
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
     </row>
     <row r="11" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2719,39 +2719,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46" t="s">
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44" t="s">
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="46" t="s">
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="44" t="s">
+      <c r="V11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44" t="s">
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
     </row>
     <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2767,9 +2767,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="44"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="44"/>
+      <c r="U12" s="38"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2824,9 +2824,9 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2850,46 +2850,46 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="41">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="42">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="42">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="40">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="40">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="40">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="40">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="45">
+      <c r="U13" s="41">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="47">
+      <c r="V13" s="42">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="47">
+      <c r="W13" s="42">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="42">
+      <c r="X13" s="40">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="42">
+      <c r="Y13" s="40">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="42">
+      <c r="Z13" s="40">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="42">
+      <c r="AA13" s="40">
         <v>0.916585206907787</v>
       </c>
       <c r="AC13" s="24">
@@ -2909,9 +2909,9 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2933,20 +2933,20 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
       <c r="AC14" s="24">
         <v>10</v>
       </c>
@@ -2964,9 +2964,9 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2988,24 +2988,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3030,25 +3030,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3072,25 +3072,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="45"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3108,9 +3108,9 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3128,9 +3128,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3150,9 +3150,9 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3176,9 +3176,9 @@
       <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3226,18 +3226,18 @@
       <c r="AG23" s="28"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="45">
         <v>0.995</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="45"/>
       <c r="L24" s="24"/>
       <c r="M24" s="5"/>
       <c r="AC24" s="24"/>
@@ -3247,27 +3247,27 @@
       <c r="AG24" s="28"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
       <c r="L25" s="24"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3283,9 +3283,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3293,9 +3293,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3303,9 +3303,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3317,9 +3317,9 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3327,9 +3327,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3339,9 +3339,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3349,9 +3349,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3359,9 +3359,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3369,9 +3369,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3379,12 +3379,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3397,6 +3397,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3413,41 +3448,6 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H22">
     <cfRule type="colorScale" priority="1">
@@ -3483,7 +3483,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3509,18 +3509,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3545,10 +3545,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="47" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="49">
@@ -3573,7 +3573,7 @@
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="42">
+      <c r="O2" s="40">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3593,91 +3593,91 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="40">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="41"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="49"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="42"/>
+      <c r="O3" s="40"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="41"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="49"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="49">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="40">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3697,38 +3697,38 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="40">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="47"/>
       <c r="M6" s="49"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="42"/>
+      <c r="O6" s="40"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3747,22 +3747,22 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="49"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="40"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3780,14 +3780,14 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="41"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="49">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="40">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -3807,9 +3807,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3825,22 +3825,22 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="41"/>
+      <c r="L9" s="47"/>
       <c r="M9" s="49"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="42"/>
+      <c r="O9" s="40"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3856,22 +3856,22 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="41"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="49"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="42"/>
+      <c r="O10" s="40"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3889,14 +3889,14 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="41"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="49">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="40">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -3916,9 +3916,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -3934,22 +3934,22 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="41"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="49"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="42"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -3965,21 +3965,21 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="41"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="49"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="42"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -3998,14 +3998,14 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="49">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="40">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -4025,9 +4025,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4045,22 +4045,22 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="41"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="49"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4076,22 +4076,22 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="41"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="49"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="42"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4111,9 +4111,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4139,9 +4139,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4161,9 +4161,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="45"/>
+      <c r="M28" s="41"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="45"/>
+      <c r="M29" s="41"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="45"/>
+      <c r="M30" s="41"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="45"/>
+      <c r="M31" s="41"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="45"/>
+      <c r="M32" s="41"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4268,18 +4268,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
     <mergeCell ref="M28:M32"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C3:C4"/>
@@ -4296,6 +4284,18 @@
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H6 E7:F20 H7:H20">
     <cfRule type="colorScale" priority="4">

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD9FD8-5963-FD46-B6F5-B94503972F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DF609-287B-5641-8120-3BEC2C23A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
     <sheet name="join-cross-data-results" sheetId="2" r:id="rId2"/>
     <sheet name="union-no-learning" sheetId="4" r:id="rId3"/>
     <sheet name="union-with-learning" sheetId="5" r:id="rId4"/>
-    <sheet name="new-join-results" sheetId="6" r:id="rId5"/>
-    <sheet name="new-join-results (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="new-join-results (all)" sheetId="6" r:id="rId5"/>
+    <sheet name="new-join-results (3k)" sheetId="7" r:id="rId6"/>
+    <sheet name="new-join-results (1k)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="56">
   <si>
     <t>llama</t>
   </si>
@@ -300,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +311,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,12 +418,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,28 +430,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -471,14 +445,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,23 +840,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -883,7 +878,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -910,7 +905,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -935,7 +930,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -960,7 +955,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -985,7 +980,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1012,7 +1007,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1032,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1057,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1129,20 +1124,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1177,7 +1172,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1215,7 +1210,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1246,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1282,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1318,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1361,7 +1356,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1392,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1428,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1464,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1507,7 +1502,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1538,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1574,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1649,23 +1644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1687,7 +1682,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1714,7 +1709,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1739,7 +1734,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1759,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1784,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1816,7 +1811,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1841,7 +1836,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1866,7 +1861,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1933,20 +1928,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1981,7 +1976,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2019,7 +2014,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2050,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2086,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2127,7 +2122,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2175,7 +2170,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2207,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +2243,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2284,7 +2279,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2322,7 +2317,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2353,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2389,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2443,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D8E7FE-FAB4-D346-82D0-F2324C6E246F}">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2458,39 +2453,35 @@
     <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10.83203125" style="12"/>
     <col min="12" max="12" width="3.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="6.5" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="27" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="12"/>
-    <col min="29" max="29" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="10.83203125" style="12"/>
+    <col min="28" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2504,121 +2495,121 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="41">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+    <row r="4" spans="1:27" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="41">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="41">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+    <row r="6" spans="1:27" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="41">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47" t="s">
+    <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="41">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="41">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2637,31 +2628,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="38" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2679,31 +2670,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="38" t="s">
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38" t="s">
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-    </row>
-    <row r="11" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+    </row>
+    <row r="11" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2719,39 +2710,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38" t="s">
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="39" t="s">
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38" t="s">
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-    </row>
-    <row r="12" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2767,9 +2758,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="38"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2788,7 +2779,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="38"/>
+      <c r="U12" s="43"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2807,26 +2798,11 @@
       <c r="AA12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AC12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG12" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47" t="s">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2850,68 +2826,53 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="44">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="46">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="46">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="40">
+      <c r="Q13" s="41">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="40">
+      <c r="R13" s="41">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="40">
+      <c r="S13" s="41">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="40">
+      <c r="T13" s="41">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="44">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="42">
+      <c r="V13" s="46">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="46">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="40">
+      <c r="X13" s="41">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="40">
+      <c r="Y13" s="41">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="40">
+      <c r="Z13" s="41">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="40">
+      <c r="AA13" s="41">
         <v>0.916585206907787</v>
       </c>
-      <c r="AC13" s="24">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>0.85728300000000002</v>
-      </c>
-      <c r="AE13" s="25">
-        <v>0.85630498533724297</v>
-      </c>
-      <c r="AF13" s="28">
-        <v>0.83805799999999997</v>
-      </c>
-      <c r="AG13" s="28">
-        <v>0.86933899999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2933,40 +2894,25 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AC14" s="24">
-        <v>10</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="AE14" s="28">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="AF14" s="28">
-        <v>0.92701199999999995</v>
-      </c>
-      <c r="AG14" s="28">
-        <v>0.94069700000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2988,24 +2934,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47" t="s">
+      <c r="N15" s="44"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3030,25 +2976,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47" t="s">
+      <c r="N16" s="44"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3072,25 +3018,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3107,10 +3053,10 @@
         <v>0.68067800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3127,10 +3073,10 @@
         <v>0.67513800000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3149,10 +3095,10 @@
         <v>0.93581000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+    <row r="21" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3168,17 +3114,26 @@
       <c r="H21" s="19">
         <v>0.85695699999999997</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="AC21" s="26"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="L21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3194,18 +3149,23 @@
       <c r="H22" s="19">
         <v>0.94525899999999996</v>
       </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="L22" s="24">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.85728300000000002</v>
+      </c>
+      <c r="N22" s="25">
+        <v>0.85630498533724297</v>
+      </c>
+      <c r="O22" s="28">
+        <v>0.83805799999999997</v>
+      </c>
+      <c r="P22" s="28">
+        <v>0.86933899999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -3214,60 +3174,60 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="L23" s="24">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="N23" s="28">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="O23" s="28">
+        <v>0.92701199999999995</v>
+      </c>
+      <c r="P23" s="28">
+        <v>0.94069700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>0.995</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="42"/>
       <c r="L24" s="24"/>
       <c r="M24" s="5"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="L25" s="24"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+    <row r="26" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3282,30 +3242,30 @@
       <c r="L26" s="24"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
+    <row r="28" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3316,20 +3276,20 @@
         <v>0.94069700000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3338,10 +3298,10 @@
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3349,9 +3309,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3359,9 +3319,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3369,9 +3329,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3379,12 +3339,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3397,41 +3357,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3448,6 +3373,41 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H22">
     <cfRule type="colorScale" priority="1">
@@ -3482,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF747009-55C2-AB4E-B479-FDB3F7D0E7C7}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3500,7 +3460,7 @@
     <col min="13" max="13" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.1640625" style="13" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
@@ -3509,18 +3469,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3545,10 +3505,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3564,16 +3524,16 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="48">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="41">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3593,91 +3553,101 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="41">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="49"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="40"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="Q3" s="17">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="41">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="49"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="40"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="49">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="T4" s="49">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="41">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="49">
+      <c r="L5" s="40"/>
+      <c r="M5" s="48">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="41">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3689,46 +3659,50 @@
       <c r="R5" s="17">
         <v>0.94299999999999995</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="49">
         <v>0.94558488106875205</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="49">
         <v>0.94688823721081705</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="41">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="49"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="40"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
+      <c r="Q6" s="17">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3747,22 +3721,28 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="49"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="49">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="T7" s="49">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3780,14 +3760,14 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="49">
+      <c r="L8" s="40"/>
+      <c r="M8" s="48">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="41">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -3799,17 +3779,17 @@
       <c r="R8" s="17">
         <v>0.94299999999999995</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="49">
         <v>0.94656239817530097</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="49">
         <v>0.94623655913978499</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3825,22 +3805,26 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="49"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="40"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
+      <c r="Q9" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3856,22 +3840,28 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="49"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="48"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="40"/>
+      <c r="O10" s="41"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="49">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="T10" s="49">
+        <v>0.95199999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3889,14 +3879,14 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="49">
+      <c r="L11" s="40"/>
+      <c r="M11" s="48">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="41">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -3908,17 +3898,17 @@
       <c r="R11" s="17">
         <v>0.94299999999999995</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="49">
         <v>0.94851743238840003</v>
       </c>
-      <c r="T11" s="32">
+      <c r="T11" s="50">
         <v>0.94656239817530097</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -3934,22 +3924,26 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="49"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="48"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="40"/>
+      <c r="O12" s="41"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
+      <c r="Q12" s="17">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -3965,21 +3959,27 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="49"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="40"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="49">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="T13" s="49">
+        <v>0.95199999999999996</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -3998,14 +3998,14 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="49">
+      <c r="L14" s="40"/>
+      <c r="M14" s="48">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="41">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -4017,17 +4017,17 @@
       <c r="R14" s="17">
         <v>0.94299999999999995</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="49">
         <v>0.94428152492668604</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="50">
         <v>0.94395568589116896</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4045,22 +4045,26 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="49"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="48"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="40"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
+      <c r="Q15" s="17">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4076,22 +4080,28 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="49"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="40"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="49">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="T16" s="49">
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4111,9 +4121,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4139,9 +4149,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4161,9 +4171,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4223,7 +4233,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="41"/>
+      <c r="M28" s="44"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4232,7 +4242,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="41"/>
+      <c r="M29" s="44"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4241,7 +4251,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="41"/>
+      <c r="M30" s="44"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4250,7 +4260,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="41"/>
+      <c r="M31" s="44"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4259,7 +4269,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="41"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4268,6 +4278,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
     <mergeCell ref="M28:M32"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C3:C4"/>
@@ -4284,18 +4306,6 @@
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H6 E7:F20 H7:H20">
     <cfRule type="colorScale" priority="4">
@@ -4323,4 +4333,671 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.1640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="48">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+    </row>
+    <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="48">
+        <v>2</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+    </row>
+    <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+    </row>
+    <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="41"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+    </row>
+    <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="48">
+        <v>5</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="41"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+    </row>
+    <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="48">
+        <v>10</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="41"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="41"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="48">
+        <v>20</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="41"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="41"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="41"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M21" s="5"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M24" s="5"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L27" s="30"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L28" s="5"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L29" s="5"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L30" s="5"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L31" s="5"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="17"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L32" s="5"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="A3:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:H6 E7:F20 H7:H20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DF609-287B-5641-8120-3BEC2C23A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C364C272-C6F6-0F41-BBB7-F08F5A84D7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="65">
   <si>
     <t>llama</t>
   </si>
@@ -230,16 +230,45 @@
   </si>
   <si>
     <t>models</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>best (min_dist=4)</t>
+  </si>
+  <si>
+    <t>worst (min_dist=5)</t>
+  </si>
+  <si>
+    <t>min_angle thresholds</t>
+  </si>
+  <si>
+    <t>Best
+(10,2)</t>
+  </si>
+  <si>
+    <t>baseline heuristics</t>
+  </si>
+  <si>
+    <t>llm results</t>
+  </si>
+  <si>
+    <t>external correction results</t>
+  </si>
+  <si>
+    <t>noisy finetuning results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,6 +329,19 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -315,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -323,11 +365,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,6 +541,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,53 +556,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -840,23 +1128,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -878,7 +1166,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -905,7 +1193,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -930,7 +1218,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -955,7 +1243,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -980,7 +1268,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1007,7 +1295,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1320,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1345,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1124,20 +1412,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1172,7 +1460,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1210,7 +1498,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1534,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1570,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1606,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1356,7 +1644,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1680,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1428,7 +1716,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1752,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1502,7 +1790,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1826,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1862,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1644,23 +1932,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1970,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1709,7 +1997,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1734,7 +2022,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1759,7 +2047,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1784,7 +2072,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1811,7 +2099,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1836,7 +2124,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1861,7 +2149,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1928,20 +2216,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1976,7 +2264,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2014,7 +2302,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2338,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2374,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2122,7 +2410,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2170,7 +2458,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2495,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2531,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2279,7 +2567,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2317,7 +2605,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2641,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2389,7 +2677,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2441,7 +2729,7 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="L21" sqref="L21:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2464,24 +2752,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2496,120 +2784,120 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="39">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2628,31 +2916,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="43" t="s">
+      <c r="M9" s="38"/>
+      <c r="N9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2670,31 +2958,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="43" t="s">
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43" t="s">
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
     </row>
     <row r="11" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2710,39 +2998,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45" t="s">
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="43" t="s">
+      <c r="O11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43" t="s">
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="45" t="s">
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="43" t="s">
+      <c r="V11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43" t="s">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2758,9 +3046,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="43"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2779,7 +3067,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="43"/>
+      <c r="U12" s="37"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -2800,9 +3088,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -2826,53 +3114,53 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="40">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="41">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="41">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="39">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="39">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="41">
+      <c r="S13" s="39">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="41">
+      <c r="T13" s="39">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="44">
+      <c r="U13" s="40">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="46">
+      <c r="V13" s="41">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13" s="41">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="41">
+      <c r="X13" s="39">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="41">
+      <c r="Y13" s="39">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="41">
+      <c r="Z13" s="39">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="41">
+      <c r="AA13" s="39">
         <v>0.916585206907787</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2894,25 +3182,25 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2934,24 +3222,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -2976,25 +3264,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="44"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3018,25 +3306,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3054,9 +3342,9 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3074,9 +3362,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3096,9 +3384,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3131,9 +3419,9 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3191,43 +3479,43 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="44">
         <v>0.995</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="44"/>
       <c r="L24" s="24"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="L25" s="24"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3243,9 +3531,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3253,9 +3541,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3263,9 +3551,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3277,9 +3565,9 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3287,9 +3575,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3299,9 +3587,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3309,9 +3597,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3319,9 +3607,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3329,9 +3617,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3339,12 +3627,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3357,6 +3645,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3373,41 +3696,6 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H22">
     <cfRule type="colorScale" priority="1">
@@ -3469,18 +3757,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3505,10 +3793,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3524,7 +3812,7 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="46" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="48">
@@ -3533,7 +3821,7 @@
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="39">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3553,31 +3841,31 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="39">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="40"/>
+      <c r="L3" s="46"/>
       <c r="M3" s="48"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="41"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3585,69 +3873,69 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="R3" s="17"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="40"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="48"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="41"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="49">
+      <c r="S4" s="17">
         <v>0.91500000000000004</v>
       </c>
-      <c r="T4" s="49">
+      <c r="T4" s="17">
         <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="40"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="48">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="39">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3659,35 +3947,35 @@
       <c r="R5" s="17">
         <v>0.94299999999999995</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="17">
         <v>0.94558488106875205</v>
       </c>
-      <c r="T5" s="49">
+      <c r="T5" s="17">
         <v>0.94688823721081705</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="40"/>
+      <c r="L6" s="46"/>
       <c r="M6" s="48"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="41"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3695,14 +3983,14 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="R6" s="17"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3721,28 +4009,28 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="48"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
-      <c r="S7" s="49">
+      <c r="S7" s="17">
         <v>0.92300000000000004</v>
       </c>
-      <c r="T7" s="49">
+      <c r="T7" s="17">
         <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3760,14 +4048,14 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="40"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="48">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="39">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -3779,17 +4067,17 @@
       <c r="R8" s="17">
         <v>0.94299999999999995</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="17">
         <v>0.94656239817530097</v>
       </c>
-      <c r="T8" s="49">
+      <c r="T8" s="17">
         <v>0.94623655913978499</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3805,12 +4093,12 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="40"/>
+      <c r="L9" s="46"/>
       <c r="M9" s="48"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="41"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3818,13 +4106,13 @@
         <v>0.94</v>
       </c>
       <c r="R9" s="17"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3840,28 +4128,28 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="40"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="48"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="41"/>
+      <c r="O10" s="39"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="49">
+      <c r="S10" s="17">
         <v>0.92400000000000004</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T10" s="17">
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3879,14 +4167,14 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="48">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="39">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -3898,17 +4186,17 @@
       <c r="R11" s="17">
         <v>0.94299999999999995</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="17">
         <v>0.94851743238840003</v>
       </c>
-      <c r="T11" s="50">
+      <c r="T11" s="32">
         <v>0.94656239817530097</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -3924,12 +4212,12 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="40"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="48"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="41"/>
+      <c r="O12" s="39"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3937,13 +4225,13 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="R12" s="17"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -3959,27 +4247,27 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="40"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="48"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="41"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="49">
+      <c r="S13" s="17">
         <v>0.91200000000000003</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="17">
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -3998,14 +4286,14 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="48">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="39">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -4017,17 +4305,17 @@
       <c r="R14" s="17">
         <v>0.94299999999999995</v>
       </c>
-      <c r="S14" s="49">
+      <c r="S14" s="17">
         <v>0.94428152492668604</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14" s="32">
         <v>0.94395568589116896</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4045,12 +4333,12 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="48"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="41"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4058,13 +4346,13 @@
         <v>0.93400000000000005</v>
       </c>
       <c r="R15" s="17"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4080,28 +4368,28 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="48"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="41"/>
+      <c r="O16" s="39"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="49">
+      <c r="S16" s="17">
         <v>0.91200000000000003</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="17">
         <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4121,9 +4409,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4149,9 +4437,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4171,9 +4459,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4233,7 +4521,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="44"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4242,7 +4530,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="44"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4251,7 +4539,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="44"/>
+      <c r="M30" s="40"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4260,7 +4548,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="44"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4269,7 +4557,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="44"/>
+      <c r="M32" s="40"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4278,18 +4566,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
     <mergeCell ref="M28:M32"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C3:C4"/>
@@ -4306,6 +4582,18 @@
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H6 E7:F20 H7:H20">
     <cfRule type="colorScale" priority="4">
@@ -4337,645 +4625,1389 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="B2:AN49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.1640625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="13"/>
+    <col min="11" max="11" width="8.1640625" style="13" customWidth="1"/>
+    <col min="12" max="13" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.1640625" style="13" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9" style="13" customWidth="1"/>
+    <col min="34" max="34" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" style="13"/>
+    <col min="36" max="36" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="2" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="L2" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="X2" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AJ2" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+    </row>
+    <row r="3" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="L3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="24" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="55"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="AA3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="31" t="s">
+      <c r="AB3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="AC3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="AD3" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="AE3" s="81" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="16" t="s">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AJ3" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="AN3" s="103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="95"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="67">
+        <v>1</v>
+      </c>
+      <c r="F4" s="67">
+        <v>2</v>
+      </c>
+      <c r="G4" s="67">
+        <v>3</v>
+      </c>
+      <c r="H4" s="67">
+        <v>4</v>
+      </c>
+      <c r="I4" s="96">
+        <v>5</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="R4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="S4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="48">
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="82">
         <v>1</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="Z4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-    </row>
-    <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="AA4" s="64">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AB4" s="83">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AC4" s="83">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AD4" s="83">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE4" s="84">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AJ4" s="104">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="83">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AL4" s="83">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="AM4" s="105">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AN4" s="84">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F5" s="97">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="G5" s="97">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="H5" s="97">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I5" s="98">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="L5" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="O5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="16" t="s">
+      <c r="P5" s="64">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-    </row>
-    <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="14" t="s">
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AJ5" s="106">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="88">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AL5" s="88">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AM5" s="88">
+        <v>0.92</v>
+      </c>
+      <c r="AN5" s="89">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="90"/>
+      <c r="C6" s="67">
+        <v>1</v>
+      </c>
+      <c r="D6" s="97">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E6" s="97">
+        <v>0.85923753665689095</v>
+      </c>
+      <c r="F6" s="97">
+        <v>0.85988921472792401</v>
+      </c>
+      <c r="G6" s="97">
+        <v>0.85858585858585801</v>
+      </c>
+      <c r="H6" s="97">
+        <v>0.85337243401759499</v>
+      </c>
+      <c r="I6" s="98">
+        <v>0.83740632127728898</v>
+      </c>
+      <c r="L6" s="66"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="16" t="s">
+      <c r="P6" s="64">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AE6" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+    </row>
+    <row r="7" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="90"/>
+      <c r="C7" s="67">
+        <v>2</v>
+      </c>
+      <c r="D7" s="97">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E7" s="97">
+        <v>0.90648399999999996</v>
+      </c>
+      <c r="F7" s="97">
+        <v>0.90713600000000005</v>
+      </c>
+      <c r="G7" s="97">
+        <v>0.90550699999999995</v>
+      </c>
+      <c r="H7" s="97">
+        <v>0.89996699999999996</v>
+      </c>
+      <c r="I7" s="98">
+        <v>0.88302400000000003</v>
+      </c>
+      <c r="L7" s="66"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="48">
+      <c r="O7" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="64">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="82">
         <v>2</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="Z7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-    </row>
-    <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="16" t="s">
+      <c r="AA7" s="64">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AB7" s="83">
+        <v>0.94</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AD7" s="83">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE7" s="84">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+    </row>
+    <row r="8" spans="2:40" ht="20" x14ac:dyDescent="0.2">
+      <c r="B8" s="90"/>
+      <c r="C8" s="67">
+        <v>5</v>
+      </c>
+      <c r="D8" s="97">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E8" s="97">
+        <v>0.942326</v>
+      </c>
+      <c r="F8" s="97">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="G8" s="97">
+        <v>0.94167500000000004</v>
+      </c>
+      <c r="H8" s="97">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="I8" s="98">
+        <v>0.91756300000000002</v>
+      </c>
+      <c r="L8" s="66"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="64">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-    </row>
-    <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+    </row>
+    <row r="9" spans="2:40" ht="20" x14ac:dyDescent="0.25">
+      <c r="B9" s="90"/>
+      <c r="C9" s="67">
+        <v>10</v>
+      </c>
+      <c r="D9" s="97">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E9" s="97">
+        <v>0.95047199999999998</v>
+      </c>
+      <c r="F9" s="97">
+        <v>0.95145000000000002</v>
+      </c>
+      <c r="G9" s="97">
+        <v>0.94982100000000003</v>
+      </c>
+      <c r="H9" s="97">
+        <v>0.94362999999999997</v>
+      </c>
+      <c r="I9" s="98">
+        <v>0.92538299999999996</v>
+      </c>
+      <c r="L9" s="66"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="64">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="AE9" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+    </row>
+    <row r="10" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="91"/>
+      <c r="C10" s="73">
+        <v>20</v>
+      </c>
+      <c r="D10" s="99">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E10" s="99">
+        <v>0.94525899999999996</v>
+      </c>
+      <c r="F10" s="99">
+        <v>0.94688799999999995</v>
+      </c>
+      <c r="G10" s="99">
+        <v>0.94525899999999996</v>
+      </c>
+      <c r="H10" s="99">
+        <v>0.93906800000000001</v>
+      </c>
+      <c r="I10" s="100">
+        <v>0.92049499999999995</v>
+      </c>
+      <c r="L10" s="66"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="64">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="82">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="64">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AB10" s="83">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AC10" s="83">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AD10" s="83">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AE10" s="84">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="M11" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13" t="s">
+      <c r="N11" s="68"/>
+      <c r="O11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="16" t="s">
+      <c r="P11" s="69">
+        <v>0.52</v>
+      </c>
+      <c r="Q11" s="69">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="R11" s="69">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="S11" s="70">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="W11" s="30"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83">
+        <v>0.94</v>
+      </c>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+    </row>
+    <row r="12" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="66"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="69">
+        <v>0.52</v>
+      </c>
+      <c r="Q12" s="69">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="R12" s="69">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="S12" s="70">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="W12" s="30"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-    </row>
-    <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40" t="s">
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="AE12" s="84">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="L13" s="66"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="69">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="Q13" s="69">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="R13" s="69">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="S13" s="70">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="W13" s="30"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="82">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="64">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AB13" s="83">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AC13" s="83">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AD13" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="AE13" s="84">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+    </row>
+    <row r="14" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="66"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="69">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="Q14" s="69">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="R14" s="69">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="S14" s="70">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="W14" s="30"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="L15" s="66"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="69">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="Q15" s="69">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="R15" s="69">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="S15" s="70">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="W15" s="30"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AE15" s="84">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="L16" s="66"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="69">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="Q16" s="69">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="R16" s="69">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="S16" s="70">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="W16" s="30"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="82">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="64">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AB16" s="83">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="AC16" s="83">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AD16" s="83">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="AE16" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+    </row>
+    <row r="17" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="L17" s="66"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="69">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="Q17" s="69">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="R17" s="69">
+        <v>0.877</v>
+      </c>
+      <c r="S17" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="W17" s="30"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+    </row>
+    <row r="18" spans="12:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="66"/>
+      <c r="M18" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="68"/>
+      <c r="O18" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="69">
+        <v>0.495</v>
+      </c>
+      <c r="Q18" s="69">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="R18" s="69">
+        <v>0.495</v>
+      </c>
+      <c r="S18" s="70">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="W18" s="30"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AE18" s="89">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+    </row>
+    <row r="19" spans="12:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="66"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="O19" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="48">
-        <v>5</v>
-      </c>
-      <c r="N8" s="16" t="s">
+      <c r="P19" s="69">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="Q19" s="69">
+        <v>0.628</v>
+      </c>
+      <c r="R19" s="69">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="S19" s="70">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+    </row>
+    <row r="20" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="L20" s="66"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="69">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="Q20" s="69">
+        <v>0.627</v>
+      </c>
+      <c r="R20" s="69">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="S20" s="70">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="W20" s="30"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC20" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD20" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE20" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+    </row>
+    <row r="21" spans="12:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="66"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="69">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="Q21" s="69">
+        <v>0.64</v>
+      </c>
+      <c r="R21" s="69">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S21" s="70">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="W21" s="30"/>
+      <c r="X21" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="13" t="s">
+      <c r="AA21" s="64">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+    </row>
+    <row r="22" spans="12:34" x14ac:dyDescent="0.25">
+      <c r="L22" s="66"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="69">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="Q22" s="69">
+        <v>0.872</v>
+      </c>
+      <c r="R22" s="69">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="S22" s="70">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="W22" s="30"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+    </row>
+    <row r="23" spans="12:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="66"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-    </row>
-    <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="13" t="s">
+      <c r="P23" s="69">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Q23" s="69">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="R23" s="69">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="S23" s="70">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="W23" s="30"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+    </row>
+    <row r="24" spans="12:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="71"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="48">
-        <v>10</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="50"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="48">
-        <v>20</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="50"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M21" s="5"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M24" s="5"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L27" s="30"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L28" s="5"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L29" s="5"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L30" s="5"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L31" s="5"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="17"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L32" s="5"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="17"/>
+      <c r="P24" s="74">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="Q24" s="74">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R24" s="74">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="S24" s="75">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+    </row>
+    <row r="25" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="X25" s="77"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+    </row>
+    <row r="26" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+    </row>
+    <row r="27" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+    </row>
+    <row r="28" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="X28" s="77"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+    </row>
+    <row r="29" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+    </row>
+    <row r="30" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+    </row>
+    <row r="31" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="X31" s="14"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AH31" s="30"/>
+    </row>
+    <row r="32" spans="12:34" x14ac:dyDescent="0.2">
+      <c r="W32" s="20"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AH32" s="30"/>
+    </row>
+    <row r="33" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W33" s="20"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AH33" s="50"/>
+    </row>
+    <row r="34" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W34" s="20"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AH34" s="50"/>
+    </row>
+    <row r="35" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W35" s="20"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AH35" s="50"/>
+    </row>
+    <row r="36" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W36" s="20"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AH36" s="50"/>
+    </row>
+    <row r="37" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W37" s="20"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AH37" s="50"/>
+    </row>
+    <row r="38" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W38" s="20"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AH38" s="50"/>
+    </row>
+    <row r="39" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W39" s="20"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+    </row>
+    <row r="40" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W40" s="20"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+    </row>
+    <row r="41" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W41" s="20"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="32"/>
+    </row>
+    <row r="42" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W42" s="20"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+    </row>
+    <row r="43" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W43" s="20"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+    </row>
+    <row r="44" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W44" s="20"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="32"/>
+    </row>
+    <row r="45" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W45" s="20"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AH45" s="50"/>
+    </row>
+    <row r="46" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="W46" s="20"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AH46" s="50"/>
+    </row>
+    <row r="47" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="X47" s="76"/>
+      <c r="Y47" s="76"/>
+      <c r="AH47" s="50"/>
+    </row>
+    <row r="48" spans="23:34" x14ac:dyDescent="0.2">
+      <c r="X48" s="77"/>
+      <c r="Y48" s="76"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AH48" s="50"/>
+    </row>
+    <row r="49" spans="24:34" x14ac:dyDescent="0.2">
+      <c r="X49" s="76"/>
+      <c r="Y49" s="76"/>
+      <c r="AH49" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A3:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:C6"/>
+  <mergeCells count="40">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="X21:Y23"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="Y13:Y15"/>
+    <mergeCell ref="AA13:AA15"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="AA16:AA18"/>
+    <mergeCell ref="X4:X18"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="Y10:Y12"/>
+    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="L5:M10"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="L11:L24"/>
+    <mergeCell ref="M11:M17"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="M18:M24"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N22:N24"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:H6 E7:F20 H7:H20">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="P5:S7 P11:Q24 S11:S24 P8:P10">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4986,7 +6018,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G20">
+  <conditionalFormatting sqref="R11:R24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:I10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C364C272-C6F6-0F41-BBB7-F08F5A84D7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102C3E5-8A05-7F4B-8560-80B8B418B10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="68">
   <si>
     <t>llama</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>noisy finetuning results</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,173 +553,192 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -718,49 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1128,23 +1113,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1151,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1193,7 +1178,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1203,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +1228,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1253,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="67" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1295,7 +1280,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1305,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1330,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1412,20 +1397,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1460,7 +1445,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="68" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1498,7 +1483,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1519,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1555,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1591,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1644,7 +1629,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1665,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1716,7 +1701,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1752,7 +1737,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="68" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1790,7 +1775,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1811,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +1847,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1932,23 +1917,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1970,7 +1955,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1997,7 +1982,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +2007,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2032,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2072,7 +2057,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="67" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2099,7 +2084,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2124,7 +2109,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -2149,7 +2134,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2216,20 +2201,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -2264,7 +2249,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="68" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2302,7 +2287,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2323,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2374,7 +2359,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2410,7 +2395,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2458,7 +2443,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2480,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2531,7 +2516,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2567,7 +2552,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="68" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2605,7 +2590,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +2626,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2662,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2752,24 +2737,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2784,120 +2769,120 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="71">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="71">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="71">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="71">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="71">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="71">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="78" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2916,31 +2901,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="70"/>
+      <c r="N9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2958,31 +2943,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="37" t="s">
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37" t="s">
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
     </row>
     <row r="11" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2998,39 +2983,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37" t="s">
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38" t="s">
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="37" t="s">
+      <c r="V11" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37" t="s">
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3046,9 +3031,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="37"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -3067,7 +3052,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="37"/>
+      <c r="U12" s="69"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -3088,9 +3073,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -3114,53 +3099,53 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="72">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="73">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="73">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="71">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="71">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="71">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="71">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="40">
+      <c r="U13" s="72">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="73">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="41">
+      <c r="W13" s="73">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="39">
+      <c r="X13" s="71">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="Y13" s="71">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="71">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="39">
+      <c r="AA13" s="71">
         <v>0.916585206907787</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -3182,25 +3167,25 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -3222,24 +3207,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3264,25 +3249,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3306,25 +3291,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3342,9 +3327,9 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3362,9 +3347,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3384,9 +3369,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3419,9 +3404,9 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3479,43 +3464,43 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="76">
         <v>0.995</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="76"/>
       <c r="L24" s="24"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
       <c r="L25" s="24"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="75" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3531,9 +3516,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3541,9 +3526,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3551,9 +3536,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3565,9 +3550,9 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3575,9 +3560,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3587,9 +3572,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3597,9 +3582,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3607,9 +3592,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3617,9 +3602,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3627,12 +3612,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="74"/>
+      <c r="B36" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3757,18 +3742,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3793,10 +3778,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3812,16 +3797,16 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="80">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="71">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3841,31 +3826,31 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="71">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="48"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="39"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3877,27 +3862,27 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="71">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="48"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="39"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -3911,31 +3896,31 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="71">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="48">
+      <c r="L5" s="78"/>
+      <c r="M5" s="80">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="71">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3955,27 +3940,27 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="71">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="48"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="71"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3987,10 +3972,10 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="78" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -4009,12 +3994,12 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="48"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="71"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4028,9 +4013,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -4048,14 +4033,14 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="48">
+      <c r="L8" s="78"/>
+      <c r="M8" s="80">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="71">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -4075,9 +4060,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -4093,12 +4078,12 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="48"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="71"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4110,9 +4095,9 @@
       <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -4128,12 +4113,12 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="48"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="39"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4147,9 +4132,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -4167,14 +4152,14 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="48">
+      <c r="L11" s="78"/>
+      <c r="M11" s="80">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="71">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -4194,9 +4179,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -4212,12 +4197,12 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="48"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="39"/>
+      <c r="O12" s="71"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4229,9 +4214,9 @@
       <c r="T12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -4247,12 +4232,12 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="48"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="39"/>
+      <c r="O13" s="71"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4266,8 +4251,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -4286,14 +4271,14 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="48">
+      <c r="L14" s="78"/>
+      <c r="M14" s="80">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="71">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -4313,9 +4298,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4333,12 +4318,12 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="48"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4350,9 +4335,9 @@
       <c r="T15" s="17"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4368,12 +4353,12 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="48"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4387,9 +4372,9 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4409,9 +4394,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4437,9 +4422,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4459,9 +4444,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4521,7 +4506,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="40"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4530,7 +4515,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="40"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4539,7 +4524,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="40"/>
+      <c r="M30" s="72"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4548,7 +4533,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="40"/>
+      <c r="M31" s="72"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4557,7 +4542,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="40"/>
+      <c r="M32" s="72"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4625,10 +4610,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
-  <dimension ref="B2:AN49"/>
+  <dimension ref="B2:AK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4637,930 +4622,915 @@
     <col min="2" max="2" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="6.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="13"/>
-    <col min="11" max="11" width="8.1640625" style="13" customWidth="1"/>
-    <col min="12" max="13" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.1640625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.1640625" style="13" customWidth="1"/>
-    <col min="23" max="23" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="13" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6.5" style="13" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="13"/>
+    <col min="16" max="17" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9" style="13" customWidth="1"/>
-    <col min="34" max="34" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" style="13"/>
-    <col min="36" max="36" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="13"/>
+    <col min="32" max="32" width="9" style="13" customWidth="1"/>
+    <col min="33" max="33" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+    <row r="2" spans="2:37" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="L2" s="85" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="P2" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="X2" s="85" t="s">
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="Z2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AJ2" s="85" t="s">
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AG2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-    </row>
-    <row r="3" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93" t="s">
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+    </row>
+    <row r="3" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="L3" s="53" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="96"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54" t="s">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80" t="s">
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="88"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="80" t="s">
+      <c r="AC3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="80" t="s">
+      <c r="AD3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="81" t="s">
+      <c r="AE3" s="36" t="s">
         <v>52</v>
       </c>
       <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AJ3" s="101" t="s">
+      <c r="AG3" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AK3" s="102" t="s">
+      <c r="AH3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AL3" s="102" t="s">
+      <c r="AI3" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="102" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="AN3" s="103" t="s">
+      <c r="AK3" s="60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="95"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="13">
         <v>3</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="13">
         <v>4</v>
       </c>
-      <c r="I4" s="96">
+      <c r="I4" s="53">
         <v>5</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="58" t="s">
+      <c r="K4" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="54">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="M4" s="54">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="N4" s="55">
+        <f>AVERAGE(D6:D10)</f>
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="U4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="V4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="60" t="s">
+      <c r="W4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="66" t="s">
+      <c r="X4" s="20"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="82">
+      <c r="AA4" s="80">
         <v>1</v>
       </c>
-      <c r="Z4" s="58" t="s">
+      <c r="AB4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" s="64">
+      <c r="AC4" s="71">
         <v>0.86699999999999999</v>
       </c>
-      <c r="AB4" s="83">
+      <c r="AD4" s="17">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="37">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="17">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AI4" s="17">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="AJ4" s="61">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AK4" s="39">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F5" s="54">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="H5" s="54">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="54">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M5" s="54">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="N5" s="55">
+        <f>AVERAGE(E5:I5)</f>
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="P5" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="71">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="17">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="62">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="49">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AI5" s="49">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AJ5" s="49">
+        <v>0.92</v>
+      </c>
+      <c r="AK5" s="50">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="97"/>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E6" s="54">
+        <v>0.85923753665689095</v>
+      </c>
+      <c r="F6" s="54">
+        <v>0.85988921472792401</v>
+      </c>
+      <c r="G6" s="54">
+        <v>0.85858585858585801</v>
+      </c>
+      <c r="H6" s="54">
+        <v>0.85337243401759499</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0.83740632127728898</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="56">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="M6" s="56">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="N6" s="57">
+        <f>AVERAGE(E6:I10)</f>
+        <v>0.91474745461062212</v>
+      </c>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="71">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="17">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AE6" s="39">
+        <v>0.95</v>
+      </c>
+      <c r="AF6" s="33"/>
+    </row>
+    <row r="7" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="97"/>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E7" s="54">
+        <v>0.90648399999999996</v>
+      </c>
+      <c r="F7" s="54">
+        <v>0.90713600000000005</v>
+      </c>
+      <c r="G7" s="54">
+        <v>0.90550699999999995</v>
+      </c>
+      <c r="H7" s="54">
+        <v>0.89996699999999996</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0.88302400000000003</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="71">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="80">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="71">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE7" s="39">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AF7" s="17"/>
+    </row>
+    <row r="8" spans="2:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="B8" s="97"/>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0.942326</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0.94330400000000003</v>
+      </c>
+      <c r="G8" s="54">
+        <v>0.94167500000000004</v>
+      </c>
+      <c r="H8" s="54">
+        <v>0.93548399999999998</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0.91756300000000002</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="71">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="17">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="17"/>
+    </row>
+    <row r="9" spans="2:37" ht="20" x14ac:dyDescent="0.25">
+      <c r="B9" s="97"/>
+      <c r="C9" s="13">
+        <v>10</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E9" s="54">
+        <v>0.95047199999999998</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0.95145000000000002</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0.94982100000000003</v>
+      </c>
+      <c r="H9" s="54">
+        <v>0.94362999999999997</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0.92538299999999996</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="71">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="17">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="AE9" s="39">
+        <v>0.95</v>
+      </c>
+      <c r="AF9" s="33"/>
+    </row>
+    <row r="10" spans="2:37" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="98"/>
+      <c r="C10" s="41">
+        <v>20</v>
+      </c>
+      <c r="D10" s="56">
         <v>0.93400000000000005</v>
       </c>
-      <c r="AC4" s="83">
+      <c r="E10" s="56">
+        <v>0.94525899999999996</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0.94688799999999995</v>
+      </c>
+      <c r="G10" s="56">
+        <v>0.94525899999999996</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0.93906800000000001</v>
+      </c>
+      <c r="I10" s="57">
+        <v>0.92049499999999995</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="71">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="80">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="71">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AD10" s="17">
         <v>0.94799999999999995</v>
       </c>
-      <c r="AD4" s="83">
+      <c r="AE10" s="39">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AF10" s="17"/>
+    </row>
+    <row r="11" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="P11" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="U11" s="19">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="V11" s="19">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="W11" s="40">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="17">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="17"/>
+    </row>
+    <row r="12" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="82"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="U12" s="19">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="V12" s="19">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="W12" s="40">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="17">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="AE12" s="39">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AF12" s="33"/>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="P13" s="82"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="U13" s="19">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="W13" s="40">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="80">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="71">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="AE13" s="39">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AF13" s="17"/>
+    </row>
+    <row r="14" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="82"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="19">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="U14" s="19">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="V14" s="19">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="W14" s="40">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="17">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="17"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="P15" s="82"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="19">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="U15" s="19">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="V15" s="19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="W15" s="40">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE4" s="84">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AJ4" s="104">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="83">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="AL4" s="83">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="AM4" s="105">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="AN4" s="84">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:40" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="F5" s="97">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="G5" s="97">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="H5" s="97">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="I5" s="98">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62" t="s">
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="17">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AE15" s="39">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AF15" s="33"/>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="P16" s="82"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="19">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="U16" s="19">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="V16" s="19">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="W16" s="40">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="80">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="71">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="AE16" s="39">
+        <v>0.94</v>
+      </c>
+      <c r="AF16" s="17"/>
+    </row>
+    <row r="17" spans="16:32" x14ac:dyDescent="0.25">
+      <c r="P17" s="82"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="19">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="U17" s="19">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="V17" s="19">
+        <v>0.877</v>
+      </c>
+      <c r="W17" s="40">
+        <v>0.95</v>
+      </c>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="17">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="17"/>
+    </row>
+    <row r="18" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="82"/>
+      <c r="Q18" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="15"/>
+      <c r="S18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="19">
+        <v>0.495</v>
+      </c>
+      <c r="U18" s="19">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="V18" s="19">
+        <v>0.495</v>
+      </c>
+      <c r="W18" s="40">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="49">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AE18" s="50">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AF18" s="33"/>
+    </row>
+    <row r="19" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="82"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="64">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AJ5" s="106">
-        <v>10</v>
-      </c>
-      <c r="AK5" s="88">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AL5" s="88">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="AM5" s="88">
-        <v>0.92</v>
-      </c>
-      <c r="AN5" s="89">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="90"/>
-      <c r="C6" s="67">
-        <v>1</v>
-      </c>
-      <c r="D6" s="97">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="E6" s="97">
-        <v>0.85923753665689095</v>
-      </c>
-      <c r="F6" s="97">
-        <v>0.85988921472792401</v>
-      </c>
-      <c r="G6" s="97">
-        <v>0.85858585858585801</v>
-      </c>
-      <c r="H6" s="97">
-        <v>0.85337243401759499</v>
-      </c>
-      <c r="I6" s="98">
-        <v>0.83740632127728898</v>
-      </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="64">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="AE6" s="84">
-        <v>0.95</v>
-      </c>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-    </row>
-    <row r="7" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="67">
-        <v>2</v>
-      </c>
-      <c r="D7" s="97">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="E7" s="97">
-        <v>0.90648399999999996</v>
-      </c>
-      <c r="F7" s="97">
-        <v>0.90713600000000005</v>
-      </c>
-      <c r="G7" s="97">
-        <v>0.90550699999999995</v>
-      </c>
-      <c r="H7" s="97">
-        <v>0.89996699999999996</v>
-      </c>
-      <c r="I7" s="98">
-        <v>0.88302400000000003</v>
-      </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="64">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="82">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="64">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="AB7" s="83">
-        <v>0.94</v>
-      </c>
-      <c r="AC7" s="83">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AD7" s="83">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AE7" s="84">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-    </row>
-    <row r="8" spans="2:40" ht="20" x14ac:dyDescent="0.2">
-      <c r="B8" s="90"/>
-      <c r="C8" s="67">
-        <v>5</v>
-      </c>
-      <c r="D8" s="97">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="E8" s="97">
-        <v>0.942326</v>
-      </c>
-      <c r="F8" s="97">
-        <v>0.94330400000000003</v>
-      </c>
-      <c r="G8" s="97">
-        <v>0.94167500000000004</v>
-      </c>
-      <c r="H8" s="97">
-        <v>0.93548399999999998</v>
-      </c>
-      <c r="I8" s="98">
-        <v>0.91756300000000002</v>
-      </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="64">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-    </row>
-    <row r="9" spans="2:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="B9" s="90"/>
-      <c r="C9" s="67">
-        <v>10</v>
-      </c>
-      <c r="D9" s="97">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="E9" s="97">
-        <v>0.95047199999999998</v>
-      </c>
-      <c r="F9" s="97">
-        <v>0.95145000000000002</v>
-      </c>
-      <c r="G9" s="97">
-        <v>0.94982100000000003</v>
-      </c>
-      <c r="H9" s="97">
-        <v>0.94362999999999997</v>
-      </c>
-      <c r="I9" s="98">
-        <v>0.92538299999999996</v>
-      </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="64">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="AE9" s="84">
-        <v>0.95</v>
-      </c>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-    </row>
-    <row r="10" spans="2:40" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="73">
-        <v>20</v>
-      </c>
-      <c r="D10" s="99">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="E10" s="99">
-        <v>0.94525899999999996</v>
-      </c>
-      <c r="F10" s="99">
-        <v>0.94688799999999995</v>
-      </c>
-      <c r="G10" s="99">
-        <v>0.94525899999999996</v>
-      </c>
-      <c r="H10" s="99">
-        <v>0.93906800000000001</v>
-      </c>
-      <c r="I10" s="100">
-        <v>0.92049499999999995</v>
-      </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="64">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="82">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="64">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AB10" s="83">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="AC10" s="83">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AD10" s="83">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AE10" s="84">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-    </row>
-    <row r="11" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="69">
-        <v>0.52</v>
-      </c>
-      <c r="Q11" s="69">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="R11" s="69">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="S11" s="70">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83">
-        <v>0.94</v>
-      </c>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-    </row>
-    <row r="12" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="66"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="69">
-        <v>0.52</v>
-      </c>
-      <c r="Q12" s="69">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="R12" s="69">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="S12" s="70">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="AE12" s="84">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="L13" s="66"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="69">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="Q13" s="69">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="R13" s="69">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="S13" s="70">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="82">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="64">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AB13" s="83">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="AC13" s="83">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AD13" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="AE13" s="84">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-    </row>
-    <row r="14" spans="2:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="66"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="69">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="Q14" s="69">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="R14" s="69">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="S14" s="70">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="W14" s="30"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="L15" s="66"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="69">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="Q15" s="69">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="R15" s="69">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="S15" s="70">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="W15" s="30"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="AE15" s="84">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="L16" s="66"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="69">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="Q16" s="69">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="R16" s="69">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="S16" s="70">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="W16" s="30"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="82">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="64">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="AB16" s="83">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="AC16" s="83">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="AD16" s="83">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="AE16" s="84">
-        <v>0.4</v>
-      </c>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-    </row>
-    <row r="17" spans="12:34" x14ac:dyDescent="0.25">
-      <c r="L17" s="66"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="69">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="Q17" s="69">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="R17" s="69">
-        <v>0.877</v>
-      </c>
-      <c r="S17" s="70">
-        <v>0.95</v>
-      </c>
-      <c r="W17" s="30"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-    </row>
-    <row r="18" spans="12:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="66"/>
-      <c r="M18" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="68"/>
-      <c r="O18" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="69">
-        <v>0.495</v>
-      </c>
-      <c r="Q18" s="69">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="R18" s="69">
-        <v>0.495</v>
-      </c>
-      <c r="S18" s="70">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="AE18" s="89">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-    </row>
-    <row r="19" spans="12:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="66"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="69">
+      <c r="T19" s="19">
         <v>0.47199999999999998</v>
       </c>
-      <c r="Q19" s="69">
+      <c r="U19" s="19">
         <v>0.628</v>
       </c>
-      <c r="R19" s="69">
+      <c r="V19" s="19">
         <v>0.58899999999999997</v>
       </c>
-      <c r="S19" s="70">
+      <c r="W19" s="40">
         <v>0.68200000000000005</v>
       </c>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
       <c r="Y19" s="30"/>
       <c r="Z19" s="30"/>
       <c r="AA19" s="30"/>
@@ -5569,444 +5539,398 @@
       <c r="AD19" s="30"/>
       <c r="AE19" s="30"/>
       <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-    </row>
-    <row r="20" spans="12:34" x14ac:dyDescent="0.25">
-      <c r="L20" s="66"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="67" t="s">
+    </row>
+    <row r="20" spans="16:32" x14ac:dyDescent="0.25">
+      <c r="P20" s="82"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="69">
+      <c r="T20" s="19">
         <v>0.52600000000000002</v>
       </c>
-      <c r="Q20" s="69">
+      <c r="U20" s="19">
         <v>0.627</v>
       </c>
-      <c r="R20" s="69">
+      <c r="V20" s="19">
         <v>0.51200000000000001</v>
       </c>
-      <c r="S20" s="70">
+      <c r="W20" s="40">
         <v>0.67900000000000005</v>
       </c>
-      <c r="W20" s="30"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="80" t="s">
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AA20" s="80" t="s">
+      <c r="AC20" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AB20" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC20" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD20" s="80" t="s">
+      <c r="AD20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AE20" s="81" t="s">
+      <c r="AE20" s="36" t="s">
         <v>52</v>
       </c>
       <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-    </row>
-    <row r="21" spans="12:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="66"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="67" t="s">
+    </row>
+    <row r="21" spans="16:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="82"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="69">
+      <c r="T21" s="19">
         <v>0.51600000000000001</v>
       </c>
-      <c r="Q21" s="69">
+      <c r="U21" s="19">
         <v>0.64</v>
       </c>
-      <c r="R21" s="69">
+      <c r="V21" s="19">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S21" s="70">
+      <c r="W21" s="40">
         <v>0.66300000000000003</v>
       </c>
-      <c r="W21" s="30"/>
-      <c r="X21" s="61" t="s">
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="58" t="s">
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA21" s="64">
+      <c r="AC21" s="71">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="84"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="39"/>
       <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-    </row>
-    <row r="22" spans="12:34" x14ac:dyDescent="0.25">
-      <c r="L22" s="66"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62" t="s">
+    </row>
+    <row r="22" spans="16:32" x14ac:dyDescent="0.25">
+      <c r="P22" s="82"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="67" t="s">
+      <c r="S22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="69">
+      <c r="T22" s="19">
         <v>0.60599999999999998</v>
       </c>
-      <c r="Q22" s="69">
+      <c r="U22" s="19">
         <v>0.872</v>
       </c>
-      <c r="R22" s="69">
+      <c r="V22" s="19">
         <v>0.92900000000000005</v>
       </c>
-      <c r="S22" s="70">
+      <c r="W22" s="40">
         <v>0.93600000000000005</v>
       </c>
-      <c r="W22" s="30"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="58" t="s">
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="84"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="39"/>
       <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-    </row>
-    <row r="23" spans="12:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="66"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="67" t="s">
+    </row>
+    <row r="23" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="82"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="69">
+      <c r="T23" s="19">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Q23" s="69">
+      <c r="U23" s="19">
         <v>0.83799999999999997</v>
       </c>
-      <c r="R23" s="69">
+      <c r="V23" s="19">
         <v>0.82199999999999995</v>
       </c>
-      <c r="S23" s="70">
+      <c r="W23" s="40">
         <v>0.94499999999999995</v>
       </c>
-      <c r="W23" s="30"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="86" t="s">
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="89"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="50"/>
       <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-    </row>
-    <row r="24" spans="12:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="73" t="s">
+    </row>
+    <row r="24" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="83"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="74">
+      <c r="T24" s="42">
         <v>0.51700000000000002</v>
       </c>
-      <c r="Q24" s="74">
+      <c r="U24" s="42">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R24" s="74">
+      <c r="V24" s="42">
         <v>0.91600000000000004</v>
       </c>
-      <c r="S24" s="75">
+      <c r="W24" s="43">
         <v>0.94099999999999995</v>
       </c>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-    </row>
-    <row r="25" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="X25" s="77"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+    </row>
+    <row r="25" spans="16:32" x14ac:dyDescent="0.2">
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="44"/>
       <c r="AB25" s="32"/>
-    </row>
-    <row r="26" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-    </row>
-    <row r="27" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-    </row>
-    <row r="28" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="X28" s="77"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
+      <c r="AC25" s="32"/>
+    </row>
+    <row r="26" spans="16:32" x14ac:dyDescent="0.2">
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+    </row>
+    <row r="27" spans="16:32" x14ac:dyDescent="0.2">
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+    </row>
+    <row r="28" spans="16:32" x14ac:dyDescent="0.2">
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="44"/>
       <c r="AB28" s="32"/>
-    </row>
-    <row r="29" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-    </row>
-    <row r="30" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-    </row>
-    <row r="31" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="X31" s="14"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
+      <c r="AC28" s="32"/>
+    </row>
+    <row r="29" spans="16:32" x14ac:dyDescent="0.2">
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+    </row>
+    <row r="30" spans="16:32" x14ac:dyDescent="0.2">
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+    </row>
+    <row r="31" spans="16:32" x14ac:dyDescent="0.2">
+      <c r="Z31" s="14"/>
       <c r="AA31" s="24"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
       <c r="AD31" s="31"/>
-      <c r="AH31" s="30"/>
-    </row>
-    <row r="32" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="W32" s="20"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
+    </row>
+    <row r="32" spans="16:32" x14ac:dyDescent="0.2">
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="34"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
-      <c r="AH32" s="30"/>
-    </row>
-    <row r="33" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W33" s="20"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
+    </row>
+    <row r="33" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="34"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
-      <c r="AH33" s="50"/>
-    </row>
-    <row r="34" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W34" s="20"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
+    </row>
+    <row r="34" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="34"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
-      <c r="AH34" s="50"/>
-    </row>
-    <row r="35" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W35" s="20"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
+    </row>
+    <row r="35" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="34"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
-      <c r="AH35" s="50"/>
-    </row>
-    <row r="36" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W36" s="20"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
+    </row>
+    <row r="36" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="34"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
-      <c r="AH36" s="50"/>
-    </row>
-    <row r="37" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W37" s="20"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
+    </row>
+    <row r="37" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="34"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
-      <c r="AH37" s="50"/>
-    </row>
-    <row r="38" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W38" s="20"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
+    </row>
+    <row r="38" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="34"/>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
-      <c r="AH38" s="50"/>
-    </row>
-    <row r="39" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W39" s="20"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
+    </row>
+    <row r="39" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="34"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
     </row>
-    <row r="40" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W40" s="20"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
+    <row r="40" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="34"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
     </row>
-    <row r="41" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W41" s="20"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
+    <row r="41" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="34"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="32"/>
     </row>
-    <row r="42" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W42" s="20"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
+    <row r="42" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="34"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
     </row>
-    <row r="43" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W43" s="20"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
+    <row r="43" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="34"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
     </row>
-    <row r="44" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W44" s="20"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
+    <row r="44" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="34"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="32"/>
     </row>
-    <row r="45" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W45" s="20"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
+    <row r="45" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="34"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
-      <c r="AH45" s="50"/>
-    </row>
-    <row r="46" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="W46" s="20"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
+    </row>
+    <row r="46" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="34"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
-      <c r="AH46" s="50"/>
-    </row>
-    <row r="47" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="AH47" s="50"/>
-    </row>
-    <row r="48" spans="23:34" x14ac:dyDescent="0.2">
-      <c r="X48" s="77"/>
-      <c r="Y48" s="76"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="32"/>
-      <c r="AH48" s="50"/>
-    </row>
-    <row r="49" spans="24:34" x14ac:dyDescent="0.2">
-      <c r="X49" s="76"/>
-      <c r="Y49" s="76"/>
-      <c r="AH49" s="50"/>
+    </row>
+    <row r="47" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+    </row>
+    <row r="48" spans="25:30" x14ac:dyDescent="0.2">
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="32"/>
+    </row>
+    <row r="49" spans="26:27" x14ac:dyDescent="0.2">
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="40">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AA21:AA23"/>
-    <mergeCell ref="X21:Y23"/>
-    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AC21:AC23"/>
+    <mergeCell ref="Z21:AA23"/>
+    <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="B5:B10"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AA13:AA15"/>
+    <mergeCell ref="AC13:AC15"/>
+    <mergeCell ref="AA16:AA18"/>
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="Z4:Z18"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AC7:AC9"/>
     <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="Y13:Y15"/>
-    <mergeCell ref="AA13:AA15"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="AA16:AA18"/>
-    <mergeCell ref="X4:X18"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="L3:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="L5:M10"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="L11:L24"/>
-    <mergeCell ref="M11:M17"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="M18:M24"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="P3:S4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P5:Q10"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="P11:P24"/>
+    <mergeCell ref="Q11:Q17"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="Q18:Q24"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="R22:R24"/>
   </mergeCells>
-  <conditionalFormatting sqref="P5:S7 P11:Q24 S11:S24 P8:P10">
+  <conditionalFormatting sqref="K5:K6 D8:N10 D5:I5 D6:K7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:W7 T11:U24 W11:W24 T8:T10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:V24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6018,30 +5942,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R24">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:I10">
+  <conditionalFormatting sqref="AC4:AE18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFCFCFF"/>
+        <color theme="2"/>
         <color theme="6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102C3E5-8A05-7F4B-8560-80B8B418B10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969CC8F3-A649-FC4C-9016-B7F385C8AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="13260" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="join-no-learning" sheetId="1" r:id="rId1"/>
@@ -657,43 +657,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -705,6 +714,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,35 +744,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2737,24 +2737,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2769,120 +2769,120 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="74">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="74">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="74">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="74">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="74">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="74">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2901,31 +2901,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="69" t="s">
+      <c r="M9" s="78"/>
+      <c r="N9" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2943,31 +2943,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="69" t="s">
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69" t="s">
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
     </row>
     <row r="11" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2983,39 +2983,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70" t="s">
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="69" t="s">
+      <c r="O11" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69" t="s">
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="70" t="s">
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="69" t="s">
+      <c r="V11" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69" t="s">
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3031,9 +3031,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="69"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="69"/>
+      <c r="U12" s="76"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -3073,9 +3073,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -3099,53 +3099,53 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="72">
+      <c r="N13" s="77">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="73">
+      <c r="O13" s="79">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="73">
+      <c r="P13" s="79">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="71">
+      <c r="Q13" s="74">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="71">
+      <c r="R13" s="74">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="71">
+      <c r="S13" s="74">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="71">
+      <c r="T13" s="74">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="72">
+      <c r="U13" s="77">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="73">
+      <c r="V13" s="79">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="73">
+      <c r="W13" s="79">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="71">
+      <c r="X13" s="74">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="71">
+      <c r="Y13" s="74">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="71">
+      <c r="Z13" s="74">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="71">
+      <c r="AA13" s="74">
         <v>0.916585206907787</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -3167,25 +3167,25 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -3207,24 +3207,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="72"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78" t="s">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3249,25 +3249,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="72"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3291,25 +3291,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3327,9 +3327,9 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3347,9 +3347,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3369,9 +3369,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3404,9 +3404,9 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3464,43 +3464,43 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="75">
         <v>0.995</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="75"/>
       <c r="L24" s="24"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
       <c r="L25" s="24"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3516,9 +3516,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3526,9 +3526,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3536,9 +3536,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3550,9 +3550,9 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3560,9 +3560,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3572,9 +3572,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3582,9 +3582,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3592,9 +3592,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3602,9 +3602,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3612,12 +3612,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="70"/>
+      <c r="B36" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3630,41 +3630,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3681,6 +3646,41 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H22">
     <cfRule type="colorScale" priority="1">
@@ -3742,18 +3742,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3778,10 +3778,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3797,16 +3797,16 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="80">
+      <c r="M2" s="81">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="71">
+      <c r="O2" s="74">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3826,31 +3826,31 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="74">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="80"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="71"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3862,27 +3862,27 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="74">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="80"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="71"/>
+      <c r="O4" s="74"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -3896,31 +3896,31 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="74">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="80">
+      <c r="L5" s="73"/>
+      <c r="M5" s="81">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="71">
+      <c r="O5" s="74">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3940,27 +3940,27 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="74">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="80"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="71"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3972,10 +3972,10 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="73" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3994,12 +3994,12 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4013,9 +4013,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -4033,14 +4033,14 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="80">
+      <c r="L8" s="73"/>
+      <c r="M8" s="81">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="71">
+      <c r="O8" s="74">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -4060,9 +4060,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -4078,12 +4078,12 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="78"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="71"/>
+      <c r="O9" s="74"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4095,9 +4095,9 @@
       <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -4113,12 +4113,12 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4132,9 +4132,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -4152,14 +4152,14 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="80">
+      <c r="L11" s="73"/>
+      <c r="M11" s="81">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="71">
+      <c r="O11" s="74">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -4179,9 +4179,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -4197,12 +4197,12 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="71"/>
+      <c r="O12" s="74"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4214,9 +4214,9 @@
       <c r="T12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -4232,12 +4232,12 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="71"/>
+      <c r="O13" s="74"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4251,8 +4251,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -4271,14 +4271,14 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="80">
+      <c r="L14" s="73"/>
+      <c r="M14" s="81">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="71">
+      <c r="O14" s="74">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -4298,9 +4298,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78" t="s">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4318,12 +4318,12 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="71"/>
+      <c r="O15" s="74"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4335,9 +4335,9 @@
       <c r="T15" s="17"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4353,12 +4353,12 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="78"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="71"/>
+      <c r="O16" s="74"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4372,9 +4372,9 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4394,9 +4394,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4422,9 +4422,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4444,9 +4444,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="72"/>
+      <c r="M28" s="77"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="72"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="72"/>
+      <c r="M30" s="77"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="72"/>
+      <c r="M31" s="77"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="72"/>
+      <c r="M32" s="77"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4551,6 +4551,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
     <mergeCell ref="M28:M32"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C3:C4"/>
@@ -4567,18 +4579,6 @@
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H6 E7:F20 H7:H20">
     <cfRule type="colorScale" priority="4">
@@ -4613,7 +4613,7 @@
   <dimension ref="B2:AK49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4651,53 +4651,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:37" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="P2" s="91" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="P2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="Z2" s="91" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="Z2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AG2" s="91" t="s">
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AG2" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
     </row>
     <row r="3" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="91"/>
       <c r="K3" s="46"/>
       <c r="L3" s="51" t="s">
         <v>65</v>
@@ -4708,18 +4708,18 @@
       <c r="N3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="85" t="s">
+      <c r="P3" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86" t="s">
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="88"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="97"/>
       <c r="Y3" s="30"/>
       <c r="Z3" s="46"/>
       <c r="AA3" s="47"/>
@@ -4753,8 +4753,8 @@
       </c>
     </row>
     <row r="4" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="13" t="s">
         <v>56</v>
       </c>
@@ -4786,10 +4786,10 @@
         <f>AVERAGE(D6:D10)</f>
         <v>0.92059999999999997</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
       <c r="T4" s="16" t="s">
         <v>36</v>
       </c>
@@ -4804,16 +4804,16 @@
       </c>
       <c r="X4" s="20"/>
       <c r="Y4" s="30"/>
-      <c r="Z4" s="82" t="s">
+      <c r="Z4" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="80">
+      <c r="AA4" s="81">
         <v>1</v>
       </c>
       <c r="AB4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="71">
+      <c r="AC4" s="74">
         <v>0.86699999999999999</v>
       </c>
       <c r="AD4" s="17">
@@ -4840,7 +4840,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="92" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -4876,30 +4876,30 @@
         <f>AVERAGE(E5:I5)</f>
         <v>0.84460000000000002</v>
       </c>
-      <c r="P5" s="89" t="s">
+      <c r="P5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78" t="s">
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="71">
+      <c r="T5" s="74">
         <v>0.86699999999999999</v>
       </c>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="90"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="98"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="30"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="80"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="81"/>
       <c r="AB5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="71"/>
+      <c r="AC5" s="74"/>
       <c r="AD5" s="17">
         <v>0.91500000000000004</v>
       </c>
@@ -4922,7 +4922,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="97"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="13">
         <v>1</v>
       </c>
@@ -4958,36 +4958,34 @@
         <f>AVERAGE(E6:I10)</f>
         <v>0.91474745461062212</v>
       </c>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
       <c r="S6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="71">
+      <c r="T6" s="74">
         <v>0.94799999999999995</v>
       </c>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="90"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="98"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="30"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="80"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="81"/>
       <c r="AB6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="17">
-        <v>0.91500000000000004</v>
-      </c>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="17"/>
       <c r="AE6" s="39">
         <v>0.95</v>
       </c>
       <c r="AF6" s="33"/>
     </row>
     <row r="7" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="97"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="13">
         <v>2</v>
       </c>
@@ -5014,30 +5012,30 @@
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78" t="s">
+      <c r="P7" s="85"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73" t="s">
         <v>26</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="71">
+      <c r="T7" s="74">
         <v>0.83499999999999996</v>
       </c>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="90"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="98"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="30"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="80">
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="81">
         <v>2</v>
       </c>
       <c r="AB7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC7" s="71">
+      <c r="AC7" s="74">
         <v>0.90800000000000003</v>
       </c>
       <c r="AD7" s="17">
@@ -5049,7 +5047,7 @@
       <c r="AF7" s="17"/>
     </row>
     <row r="8" spans="2:37" ht="20" x14ac:dyDescent="0.2">
-      <c r="B8" s="97"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="13">
         <v>5</v>
       </c>
@@ -5076,26 +5074,26 @@
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
       <c r="N8" s="54"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
       <c r="S8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="71">
+      <c r="T8" s="74">
         <v>0.85199999999999998</v>
       </c>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="90"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="98"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="30"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="80"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="81"/>
       <c r="AB8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="71"/>
+      <c r="AC8" s="74"/>
       <c r="AD8" s="17">
         <v>0.93200000000000005</v>
       </c>
@@ -5103,7 +5101,7 @@
       <c r="AF8" s="17"/>
     </row>
     <row r="9" spans="2:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="13">
         <v>10</v>
       </c>
@@ -5130,38 +5128,36 @@
       <c r="L9" s="54"/>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78" t="s">
+      <c r="P9" s="85"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73" t="s">
         <v>27</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="71">
+      <c r="T9" s="74">
         <v>0.83699999999999997</v>
       </c>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="90"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="98"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="30"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="80"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="81"/>
       <c r="AB9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="17">
-        <v>0.92300000000000004</v>
-      </c>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="17"/>
       <c r="AE9" s="39">
         <v>0.95</v>
       </c>
       <c r="AF9" s="33"/>
     </row>
     <row r="10" spans="2:37" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="98"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="41">
         <v>20</v>
       </c>
@@ -5188,28 +5184,28 @@
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
       <c r="N10" s="54"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
       <c r="S10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="71">
+      <c r="T10" s="74">
         <v>0.95099999999999996</v>
       </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="90"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="98"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="30"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="80">
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="81">
         <v>5</v>
       </c>
       <c r="AB10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="71">
+      <c r="AC10" s="74">
         <v>0.94599999999999995</v>
       </c>
       <c r="AD10" s="17">
@@ -5227,10 +5223,10 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="P11" s="82" t="s">
+      <c r="P11" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="78" t="s">
+      <c r="Q11" s="73" t="s">
         <v>6</v>
       </c>
       <c r="R11" s="15"/>
@@ -5250,12 +5246,12 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="Y11" s="30"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="80"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="81"/>
       <c r="AB11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" s="71"/>
+      <c r="AC11" s="74"/>
       <c r="AD11" s="17">
         <v>0.94799999999999995</v>
       </c>
@@ -5263,9 +5259,9 @@
       <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P12" s="82"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78" t="s">
+      <c r="P12" s="85"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73" t="s">
         <v>23</v>
       </c>
       <c r="S12" s="13" t="s">
@@ -5284,24 +5280,22 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="Y12" s="30"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="80"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="81"/>
       <c r="AB12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="17">
-        <v>0.92400000000000004</v>
-      </c>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="17"/>
       <c r="AE12" s="39">
         <v>0.95199999999999996</v>
       </c>
       <c r="AF12" s="33"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="P13" s="82"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
       <c r="S13" s="13" t="s">
         <v>26</v>
       </c>
@@ -5318,14 +5312,14 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="Y13" s="30"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="80">
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="81">
         <v>10</v>
       </c>
       <c r="AB13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC13" s="71">
+      <c r="AC13" s="74">
         <v>0.94799999999999995</v>
       </c>
       <c r="AD13" s="17">
@@ -5337,9 +5331,9 @@
       <c r="AF13" s="17"/>
     </row>
     <row r="14" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P14" s="82"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
       <c r="S14" s="13" t="s">
         <v>27</v>
       </c>
@@ -5356,12 +5350,12 @@
         <v>0.67600000000000005</v>
       </c>
       <c r="Y14" s="30"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="80"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="81"/>
       <c r="AB14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC14" s="71"/>
+      <c r="AC14" s="74"/>
       <c r="AD14" s="17">
         <v>0.94799999999999995</v>
       </c>
@@ -5369,9 +5363,9 @@
       <c r="AF14" s="17"/>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="P15" s="82"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78" t="s">
+      <c r="P15" s="85"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73" t="s">
         <v>24</v>
       </c>
       <c r="S15" s="13" t="s">
@@ -5390,24 +5384,22 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="Y15" s="30"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="80"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="81"/>
       <c r="AB15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="17">
-        <v>0.91200000000000003</v>
-      </c>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="17"/>
       <c r="AE15" s="39">
         <v>0.95199999999999996</v>
       </c>
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="P16" s="82"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
       <c r="S16" s="13" t="s">
         <v>26</v>
       </c>
@@ -5424,14 +5416,14 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="Y16" s="30"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="80">
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="81">
         <v>20</v>
       </c>
       <c r="AB16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC16" s="71">
+      <c r="AC16" s="74">
         <v>0.93400000000000005</v>
       </c>
       <c r="AD16" s="17">
@@ -5443,9 +5435,9 @@
       <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="16:32" x14ac:dyDescent="0.25">
-      <c r="P17" s="82"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
       <c r="S17" s="13" t="s">
         <v>27</v>
       </c>
@@ -5462,12 +5454,12 @@
         <v>0.95</v>
       </c>
       <c r="Y17" s="30"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="80"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="81"/>
       <c r="AB17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="71"/>
+      <c r="AC17" s="74"/>
       <c r="AD17" s="17">
         <v>0.93700000000000006</v>
       </c>
@@ -5475,8 +5467,8 @@
       <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P18" s="82"/>
-      <c r="Q18" s="78" t="s">
+      <c r="P18" s="85"/>
+      <c r="Q18" s="73" t="s">
         <v>7</v>
       </c>
       <c r="R18" s="15"/>
@@ -5496,24 +5488,22 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="Y18" s="30"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="91"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="82"/>
       <c r="AB18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="49">
-        <v>0.91200000000000003</v>
-      </c>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="49"/>
       <c r="AE18" s="50">
         <v>0.94699999999999995</v>
       </c>
       <c r="AF18" s="33"/>
     </row>
     <row r="19" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P19" s="82"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78" t="s">
+      <c r="P19" s="85"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73" t="s">
         <v>23</v>
       </c>
       <c r="S19" s="13" t="s">
@@ -5541,9 +5531,9 @@
       <c r="AF19" s="30"/>
     </row>
     <row r="20" spans="16:32" x14ac:dyDescent="0.25">
-      <c r="P20" s="82"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
       <c r="S20" s="13" t="s">
         <v>26</v>
       </c>
@@ -5560,8 +5550,8 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="Y20" s="30"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="94"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
       <c r="AB20" s="35" t="s">
         <v>55</v>
       </c>
@@ -5577,9 +5567,9 @@
       <c r="AF20" s="30"/>
     </row>
     <row r="21" spans="16:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P21" s="82"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
       <c r="S21" s="13" t="s">
         <v>27</v>
       </c>
@@ -5596,14 +5586,14 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="Y21" s="30"/>
-      <c r="Z21" s="89" t="s">
+      <c r="Z21" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="AA21" s="78"/>
+      <c r="AA21" s="73"/>
       <c r="AB21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC21" s="71">
+      <c r="AC21" s="74">
         <v>0.95099999999999996</v>
       </c>
       <c r="AD21" s="17"/>
@@ -5611,9 +5601,9 @@
       <c r="AF21" s="30"/>
     </row>
     <row r="22" spans="16:32" x14ac:dyDescent="0.25">
-      <c r="P22" s="82"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78" t="s">
+      <c r="P22" s="85"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73" t="s">
         <v>24</v>
       </c>
       <c r="S22" s="13" t="s">
@@ -5632,20 +5622,20 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="Y22" s="30"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="78"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="73"/>
       <c r="AB22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="71"/>
+      <c r="AC22" s="74"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="39"/>
       <c r="AF22" s="30"/>
     </row>
     <row r="23" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="82"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
       <c r="S23" s="13" t="s">
         <v>26</v>
       </c>
@@ -5662,20 +5652,20 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="Y23" s="30"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="84"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="87"/>
       <c r="AB23" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AC23" s="92"/>
+      <c r="AC23" s="83"/>
       <c r="AD23" s="49"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="30"/>
     </row>
     <row r="24" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P24" s="83"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
       <c r="S24" s="41" t="s">
         <v>27</v>
       </c>
@@ -5865,6 +5855,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="P11:P24"/>
+    <mergeCell ref="Q11:Q17"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="Q18:Q24"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="R22:R24"/>
+    <mergeCell ref="P3:S4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P5:Q10"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AA10:AA12"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="P2:W2"/>
     <mergeCell ref="Z2:AE2"/>
@@ -5881,30 +5895,6 @@
     <mergeCell ref="AA16:AA18"/>
     <mergeCell ref="AC16:AC18"/>
     <mergeCell ref="Z4:Z18"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="P3:S4"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P5:Q10"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="P11:P24"/>
-    <mergeCell ref="Q11:Q17"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="Q18:Q24"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="R22:R24"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:K6 D8:N10 D5:I5 D6:K7">
     <cfRule type="colorScale" priority="2">

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969CC8F3-A649-FC4C-9016-B7F385C8AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B54E0D-C333-2249-B8FE-9FA8E4635876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -657,43 +657,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -702,18 +729,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,21 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2737,24 +2737,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2769,120 +2769,120 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="71">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="71">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="71">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="71">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="71">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="71">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="78" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2901,31 +2901,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="76" t="s">
+      <c r="M9" s="70"/>
+      <c r="N9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2943,31 +2943,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="76" t="s">
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76" t="s">
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
     </row>
     <row r="11" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2983,39 +2983,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78" t="s">
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="76" t="s">
+      <c r="O11" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76" t="s">
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="78" t="s">
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="76" t="s">
+      <c r="V11" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76" t="s">
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3031,9 +3031,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="76"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="76"/>
+      <c r="U12" s="69"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -3073,9 +3073,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -3099,53 +3099,53 @@
       <c r="M13" s="5">
         <v>0.85728300000000002</v>
       </c>
-      <c r="N13" s="77">
+      <c r="N13" s="72">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="79">
+      <c r="O13" s="73">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="79">
+      <c r="P13" s="73">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="74">
+      <c r="Q13" s="71">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="74">
+      <c r="R13" s="71">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="74">
+      <c r="S13" s="71">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="74">
+      <c r="T13" s="71">
         <v>0.88367546432062505</v>
       </c>
-      <c r="U13" s="77">
+      <c r="U13" s="72">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="79">
+      <c r="V13" s="73">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="79">
+      <c r="W13" s="73">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="74">
+      <c r="X13" s="71">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="74">
+      <c r="Y13" s="71">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="74">
+      <c r="Z13" s="71">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="74">
+      <c r="AA13" s="71">
         <v>0.916585206907787</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -3167,25 +3167,25 @@
       <c r="M14" s="5">
         <v>0.90257399999999999</v>
       </c>
-      <c r="N14" s="77"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -3207,24 +3207,24 @@
       <c r="M15" s="5">
         <v>0.93776499999999996</v>
       </c>
-      <c r="N15" s="77"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3249,25 +3249,25 @@
       <c r="M16" s="5">
         <v>0.94330400000000003</v>
       </c>
-      <c r="N16" s="77"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3291,25 +3291,25 @@
       <c r="M17" s="5">
         <v>0.93548399999999998</v>
       </c>
-      <c r="N17" s="77"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3327,9 +3327,9 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
@@ -3347,9 +3347,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3369,9 +3369,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
@@ -3404,9 +3404,9 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
@@ -3464,43 +3464,43 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="75">
+      <c r="E24" s="76">
         <v>0.995</v>
       </c>
-      <c r="F24" s="75"/>
+      <c r="F24" s="76"/>
       <c r="L24" s="24"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
       <c r="L25" s="24"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="75" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="21">
@@ -3516,9 +3516,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="21">
         <v>2</v>
       </c>
@@ -3526,9 +3526,9 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="21">
         <v>5</v>
       </c>
@@ -3536,9 +3536,9 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="21">
         <v>10</v>
       </c>
@@ -3550,9 +3550,9 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="21">
         <v>20</v>
       </c>
@@ -3560,9 +3560,9 @@
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="21">
@@ -3572,9 +3572,9 @@
       <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="21">
         <v>2</v>
       </c>
@@ -3582,9 +3582,9 @@
       <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="21">
         <v>3</v>
       </c>
@@ -3592,9 +3592,9 @@
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="21">
         <v>4</v>
       </c>
@@ -3602,9 +3602,9 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="21">
         <v>5</v>
       </c>
@@ -3612,12 +3612,12 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71" t="s">
+      <c r="A36" s="74"/>
+      <c r="B36" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="23">
         <v>0.96579999999999999</v>
       </c>
@@ -3630,6 +3630,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="AA13:AA17"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
     <mergeCell ref="N9:AA9"/>
     <mergeCell ref="L9:M12"/>
     <mergeCell ref="Q13:Q17"/>
@@ -3646,41 +3681,6 @@
     <mergeCell ref="X13:X17"/>
     <mergeCell ref="Y13:Y17"/>
     <mergeCell ref="Z13:Z17"/>
-    <mergeCell ref="AA13:AA17"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H22">
     <cfRule type="colorScale" priority="1">
@@ -3742,18 +3742,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="M1" s="14"/>
       <c r="N1" s="24" t="s">
         <v>55</v>
@@ -3778,10 +3778,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -3797,16 +3797,16 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="81">
+      <c r="M2" s="80">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="74">
+      <c r="O2" s="71">
         <v>0.85728300000000002</v>
       </c>
       <c r="P2" s="17">
@@ -3826,31 +3826,31 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="71">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="81"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="74"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3862,27 +3862,27 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="71">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="81"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="74"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -3896,31 +3896,31 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="71">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="81">
+      <c r="L5" s="78"/>
+      <c r="M5" s="80">
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="74">
+      <c r="O5" s="71">
         <v>0.90257399999999999</v>
       </c>
       <c r="P5" s="17">
@@ -3940,27 +3940,27 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="71">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="81"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="74"/>
+      <c r="O6" s="71"/>
       <c r="P6" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -3972,10 +3972,10 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="78" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
@@ -3994,12 +3994,12 @@
       <c r="H7" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L7" s="73"/>
-      <c r="M7" s="81"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="74"/>
+      <c r="O7" s="71"/>
       <c r="P7" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4013,9 +4013,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -4033,14 +4033,14 @@
       <c r="H8" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="81">
+      <c r="L8" s="78"/>
+      <c r="M8" s="80">
         <v>5</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="74">
+      <c r="O8" s="71">
         <v>0.93776499999999996</v>
       </c>
       <c r="P8" s="17">
@@ -4060,9 +4060,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
@@ -4078,12 +4078,12 @@
       <c r="H9" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L9" s="73"/>
-      <c r="M9" s="81"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="74"/>
+      <c r="O9" s="71"/>
       <c r="P9" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4095,9 +4095,9 @@
       <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
@@ -4113,12 +4113,12 @@
       <c r="H10" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L10" s="73"/>
-      <c r="M10" s="81"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="74"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4132,9 +4132,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -4152,14 +4152,14 @@
       <c r="H11" s="19">
         <v>0.94037099999999996</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="81">
+      <c r="L11" s="78"/>
+      <c r="M11" s="80">
         <v>10</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="74">
+      <c r="O11" s="71">
         <v>0.94330400000000003</v>
       </c>
       <c r="P11" s="17">
@@ -4179,9 +4179,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
@@ -4197,12 +4197,12 @@
       <c r="H12" s="19">
         <v>0.754969</v>
       </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="74"/>
+      <c r="O12" s="71"/>
       <c r="P12" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4214,9 +4214,9 @@
       <c r="T12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
@@ -4232,12 +4232,12 @@
       <c r="H13" s="19">
         <v>0.94884299999999999</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="74"/>
+      <c r="O13" s="71"/>
       <c r="P13" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4251,8 +4251,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15"/>
@@ -4271,14 +4271,14 @@
       <c r="H14" s="19">
         <v>0.63245399999999996</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="81">
+      <c r="L14" s="78"/>
+      <c r="M14" s="80">
         <v>20</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="74">
+      <c r="O14" s="71">
         <v>0.93548399999999998</v>
       </c>
       <c r="P14" s="17">
@@ -4298,9 +4298,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -4318,12 +4318,12 @@
       <c r="H15" s="19">
         <v>0.68589100000000003</v>
       </c>
-      <c r="L15" s="73"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="74"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="17">
         <v>0.90700000000000003</v>
       </c>
@@ -4335,9 +4335,9 @@
       <c r="T15" s="17"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
@@ -4353,12 +4353,12 @@
       <c r="H16" s="19">
         <v>0.68067800000000001</v>
       </c>
-      <c r="L16" s="73"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="74"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="17">
         <v>0.94899999999999995</v>
       </c>
@@ -4372,9 +4372,9 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4394,9 +4394,9 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4422,9 +4422,9 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
@@ -4444,9 +4444,9 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L28" s="5"/>
-      <c r="M28" s="77"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="5"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="5"/>
-      <c r="M29" s="77"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="5"/>
       <c r="O29" s="17"/>
       <c r="P29" s="25"/>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="5"/>
-      <c r="M30" s="77"/>
+      <c r="M30" s="72"/>
       <c r="N30" s="5"/>
       <c r="O30" s="17"/>
       <c r="P30" s="25"/>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L31" s="5"/>
-      <c r="M31" s="77"/>
+      <c r="M31" s="72"/>
       <c r="N31" s="5"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L32" s="5"/>
-      <c r="M32" s="77"/>
+      <c r="M32" s="72"/>
       <c r="N32" s="5"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
@@ -4551,18 +4551,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
     <mergeCell ref="M28:M32"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="C3:C4"/>
@@ -4579,6 +4567,18 @@
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H6 E7:F20 H7:H20">
     <cfRule type="colorScale" priority="4">
@@ -4612,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D01CA2-3159-F448-9006-FF836418E31D}">
   <dimension ref="B2:AK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -4651,53 +4651,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:37" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="P2" s="82" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="P2" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="Z2" s="82" t="s">
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="Z2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AG2" s="82" t="s">
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AG2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
     </row>
     <row r="3" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="91"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="96"/>
       <c r="K3" s="46"/>
       <c r="L3" s="51" t="s">
         <v>65</v>
@@ -4708,18 +4708,18 @@
       <c r="N3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="94" t="s">
+      <c r="P3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95" t="s">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="97"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="88"/>
       <c r="Y3" s="30"/>
       <c r="Z3" s="46"/>
       <c r="AA3" s="47"/>
@@ -4753,8 +4753,8 @@
       </c>
     </row>
     <row r="4" spans="2:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="81"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="13" t="s">
         <v>56</v>
       </c>
@@ -4786,10 +4786,10 @@
         <f>AVERAGE(D6:D10)</f>
         <v>0.92059999999999997</v>
       </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="16" t="s">
         <v>36</v>
       </c>
@@ -4804,16 +4804,16 @@
       </c>
       <c r="X4" s="20"/>
       <c r="Y4" s="30"/>
-      <c r="Z4" s="85" t="s">
+      <c r="Z4" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="81">
+      <c r="AA4" s="80">
         <v>1</v>
       </c>
       <c r="AB4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="74">
+      <c r="AC4" s="71">
         <v>0.86699999999999999</v>
       </c>
       <c r="AD4" s="17">
@@ -4840,7 +4840,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="97" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -4876,34 +4876,36 @@
         <f>AVERAGE(E5:I5)</f>
         <v>0.84460000000000002</v>
       </c>
-      <c r="P5" s="84" t="s">
+      <c r="P5" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73" t="s">
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="74">
+      <c r="T5" s="71">
         <v>0.86699999999999999</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="98"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="90"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="30"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="81"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="80"/>
       <c r="AB5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="74"/>
+      <c r="AC5" s="71"/>
       <c r="AD5" s="17">
         <v>0.91500000000000004</v>
       </c>
-      <c r="AE5" s="39"/>
+      <c r="AE5" s="39">
+        <v>0.93700000000000006</v>
+      </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="62">
         <v>10</v>
@@ -4922,7 +4924,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="92"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="13">
         <v>1</v>
       </c>
@@ -4958,26 +4960,26 @@
         <f>AVERAGE(E6:I10)</f>
         <v>0.91474745461062212</v>
       </c>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
       <c r="S6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="74">
+      <c r="T6" s="71">
         <v>0.94799999999999995</v>
       </c>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="98"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="90"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="30"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="81"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="80"/>
       <c r="AB6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="74"/>
+      <c r="AC6" s="71"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="39">
         <v>0.95</v>
@@ -4985,7 +4987,7 @@
       <c r="AF6" s="33"/>
     </row>
     <row r="7" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="92"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="13">
         <v>2</v>
       </c>
@@ -5012,30 +5014,30 @@
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73" t="s">
+      <c r="P7" s="82"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78" t="s">
         <v>26</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="74">
+      <c r="T7" s="71">
         <v>0.83499999999999996</v>
       </c>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="98"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="90"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="30"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="81">
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="80">
         <v>2</v>
       </c>
       <c r="AB7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC7" s="74">
+      <c r="AC7" s="71">
         <v>0.90800000000000003</v>
       </c>
       <c r="AD7" s="17">
@@ -5047,7 +5049,7 @@
       <c r="AF7" s="17"/>
     </row>
     <row r="8" spans="2:37" ht="20" x14ac:dyDescent="0.2">
-      <c r="B8" s="92"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="13">
         <v>5</v>
       </c>
@@ -5074,34 +5076,36 @@
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
       <c r="N8" s="54"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
       <c r="S8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="74">
+      <c r="T8" s="71">
         <v>0.85199999999999998</v>
       </c>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="98"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="90"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="30"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="81"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="80"/>
       <c r="AB8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="74"/>
+      <c r="AC8" s="71"/>
       <c r="AD8" s="17">
         <v>0.93200000000000005</v>
       </c>
-      <c r="AE8" s="39"/>
+      <c r="AE8" s="39">
+        <v>0.93700000000000006</v>
+      </c>
       <c r="AF8" s="17"/>
     </row>
     <row r="9" spans="2:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="B9" s="92"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="13">
         <v>10</v>
       </c>
@@ -5128,28 +5132,28 @@
       <c r="L9" s="54"/>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73" t="s">
+      <c r="P9" s="82"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78" t="s">
         <v>27</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="74">
+      <c r="T9" s="71">
         <v>0.83699999999999997</v>
       </c>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="98"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="90"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="30"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="80"/>
       <c r="AB9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" s="74"/>
+      <c r="AC9" s="71"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="39">
         <v>0.95</v>
@@ -5157,7 +5161,7 @@
       <c r="AF9" s="33"/>
     </row>
     <row r="10" spans="2:37" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="93"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="41">
         <v>20</v>
       </c>
@@ -5184,28 +5188,28 @@
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
       <c r="N10" s="54"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
       <c r="S10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="74">
+      <c r="T10" s="71">
         <v>0.95099999999999996</v>
       </c>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="98"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="90"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="30"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="81">
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="80">
         <v>5</v>
       </c>
       <c r="AB10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="74">
+      <c r="AC10" s="71">
         <v>0.94599999999999995</v>
       </c>
       <c r="AD10" s="17">
@@ -5223,10 +5227,10 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="P11" s="85" t="s">
+      <c r="P11" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="73" t="s">
+      <c r="Q11" s="78" t="s">
         <v>6</v>
       </c>
       <c r="R11" s="15"/>
@@ -5246,12 +5250,12 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="Y11" s="30"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="81"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="80"/>
       <c r="AB11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" s="74"/>
+      <c r="AC11" s="71"/>
       <c r="AD11" s="17">
         <v>0.94799999999999995</v>
       </c>
@@ -5259,9 +5263,9 @@
       <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P12" s="85"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73" t="s">
+      <c r="P12" s="82"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78" t="s">
         <v>23</v>
       </c>
       <c r="S12" s="13" t="s">
@@ -5280,12 +5284,12 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="Y12" s="30"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="81"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
       <c r="AB12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" s="74"/>
+      <c r="AC12" s="71"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="39">
         <v>0.95199999999999996</v>
@@ -5293,9 +5297,9 @@
       <c r="AF12" s="33"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="P13" s="85"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
       <c r="S13" s="13" t="s">
         <v>26</v>
       </c>
@@ -5312,14 +5316,14 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="Y13" s="30"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="81">
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="80">
         <v>10</v>
       </c>
       <c r="AB13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC13" s="74">
+      <c r="AC13" s="71">
         <v>0.94799999999999995</v>
       </c>
       <c r="AD13" s="17">
@@ -5331,9 +5335,9 @@
       <c r="AF13" s="17"/>
     </row>
     <row r="14" spans="2:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P14" s="85"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
       <c r="S14" s="13" t="s">
         <v>27</v>
       </c>
@@ -5350,12 +5354,12 @@
         <v>0.67600000000000005</v>
       </c>
       <c r="Y14" s="30"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="81"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="80"/>
       <c r="AB14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC14" s="74"/>
+      <c r="AC14" s="71"/>
       <c r="AD14" s="17">
         <v>0.94799999999999995</v>
       </c>
@@ -5363,9 +5367,9 @@
       <c r="AF14" s="17"/>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="P15" s="85"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73" t="s">
+      <c r="P15" s="82"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78" t="s">
         <v>24</v>
       </c>
       <c r="S15" s="13" t="s">
@@ -5384,12 +5388,12 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="Y15" s="30"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="81"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="80"/>
       <c r="AB15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AC15" s="74"/>
+      <c r="AC15" s="71"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="39">
         <v>0.95199999999999996</v>
@@ -5397,9 +5401,9 @@
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="P16" s="85"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
       <c r="S16" s="13" t="s">
         <v>26</v>
       </c>
@@ -5416,14 +5420,14 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="Y16" s="30"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="81">
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="80">
         <v>20</v>
       </c>
       <c r="AB16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC16" s="74">
+      <c r="AC16" s="71">
         <v>0.93400000000000005</v>
       </c>
       <c r="AD16" s="17">
@@ -5435,9 +5439,9 @@
       <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="16:32" x14ac:dyDescent="0.25">
-      <c r="P17" s="85"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="13" t="s">
         <v>27</v>
       </c>
@@ -5454,12 +5458,12 @@
         <v>0.95</v>
       </c>
       <c r="Y17" s="30"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="81"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="80"/>
       <c r="AB17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="74"/>
+      <c r="AC17" s="71"/>
       <c r="AD17" s="17">
         <v>0.93700000000000006</v>
       </c>
@@ -5467,8 +5471,8 @@
       <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P18" s="85"/>
-      <c r="Q18" s="73" t="s">
+      <c r="P18" s="82"/>
+      <c r="Q18" s="78" t="s">
         <v>7</v>
       </c>
       <c r="R18" s="15"/>
@@ -5488,12 +5492,12 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="Y18" s="30"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="82"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="91"/>
       <c r="AB18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AC18" s="83"/>
+      <c r="AC18" s="92"/>
       <c r="AD18" s="49"/>
       <c r="AE18" s="50">
         <v>0.94699999999999995</v>
@@ -5501,9 +5505,9 @@
       <c r="AF18" s="33"/>
     </row>
     <row r="19" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P19" s="85"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73" t="s">
+      <c r="P19" s="82"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78" t="s">
         <v>23</v>
       </c>
       <c r="S19" s="13" t="s">
@@ -5531,9 +5535,9 @@
       <c r="AF19" s="30"/>
     </row>
     <row r="20" spans="16:32" x14ac:dyDescent="0.25">
-      <c r="P20" s="85"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
       <c r="S20" s="13" t="s">
         <v>26</v>
       </c>
@@ -5550,8 +5554,8 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="Y20" s="30"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="89"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
       <c r="AB20" s="35" t="s">
         <v>55</v>
       </c>
@@ -5567,9 +5571,9 @@
       <c r="AF20" s="30"/>
     </row>
     <row r="21" spans="16:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P21" s="85"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
       <c r="S21" s="13" t="s">
         <v>27</v>
       </c>
@@ -5586,14 +5590,14 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="Y21" s="30"/>
-      <c r="Z21" s="84" t="s">
+      <c r="Z21" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="AA21" s="73"/>
+      <c r="AA21" s="78"/>
       <c r="AB21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AC21" s="74">
+      <c r="AC21" s="71">
         <v>0.95099999999999996</v>
       </c>
       <c r="AD21" s="17"/>
@@ -5601,9 +5605,9 @@
       <c r="AF21" s="30"/>
     </row>
     <row r="22" spans="16:32" x14ac:dyDescent="0.25">
-      <c r="P22" s="85"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73" t="s">
+      <c r="P22" s="82"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78" t="s">
         <v>24</v>
       </c>
       <c r="S22" s="13" t="s">
@@ -5622,20 +5626,20 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="Y22" s="30"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="73"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="78"/>
       <c r="AB22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="74"/>
+      <c r="AC22" s="71"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="39"/>
       <c r="AF22" s="30"/>
     </row>
     <row r="23" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="85"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
       <c r="S23" s="13" t="s">
         <v>26</v>
       </c>
@@ -5652,20 +5656,20 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="Y23" s="30"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="87"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="84"/>
       <c r="AB23" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AC23" s="83"/>
+      <c r="AC23" s="92"/>
       <c r="AD23" s="49"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="30"/>
     </row>
     <row r="24" spans="16:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P24" s="86"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
       <c r="S24" s="41" t="s">
         <v>27</v>
       </c>
@@ -5855,30 +5859,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P11:P24"/>
-    <mergeCell ref="Q11:Q17"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="Q18:Q24"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="P3:S4"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P5:Q10"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AA10:AA12"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="P2:W2"/>
     <mergeCell ref="Z2:AE2"/>
@@ -5895,6 +5875,30 @@
     <mergeCell ref="AA16:AA18"/>
     <mergeCell ref="AC16:AC18"/>
     <mergeCell ref="Z4:Z18"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="P3:S4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P5:Q10"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="P11:P24"/>
+    <mergeCell ref="Q11:Q17"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="Q18:Q24"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="R22:R24"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:K6 D8:N10 D5:I5 D6:K7">
     <cfRule type="colorScale" priority="2">

--- a/misc/results.xlsx
+++ b/misc/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B54E0D-C333-2249-B8FE-9FA8E4635876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E097AA-1CFA-114C-9DED-1CCFE7453501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="13760" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="68">
   <si>
     <t>llama</t>
   </si>
@@ -366,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -454,12 +454,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,7 +590,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -626,16 +662,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,45 +683,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -705,30 +740,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,6 +757,67 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,23 +1185,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1151,7 +1223,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1178,7 +1250,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1275,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1300,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1253,7 +1325,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1280,7 +1352,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1305,7 +1377,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1402,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1397,20 +1469,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -1445,7 +1517,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="63" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1483,7 +1555,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1591,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1627,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1663,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1629,7 +1701,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1737,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1701,7 +1773,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1809,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1775,7 +1847,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1883,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1847,7 +1919,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1917,23 +1989,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1955,7 +2027,7 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1982,7 +2054,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2007,7 +2079,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2104,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2057,7 +2129,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2084,7 +2156,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2109,7 +2181,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2206,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2201,20 +2273,20 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.2">
       <c r="C2" s="3">
@@ -2249,7 +2321,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="63" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2287,7 +2359,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2395,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2359,7 +2431,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2467,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2443,7 +2515,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +2552,7 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2516,7 +2588,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2552,7 +2624,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2590,7 +2662,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2626,7 +2698,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2734,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2737,24 +2809,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2769,120 +2841,120 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="69">
         <v>0.85728300000000002</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="69">
         <v>0.94330400000000003</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
       <c r="J4" s="5"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="69">
         <v>0.84620399999999996</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
       <c r="J5" s="5"/>
       <c r="K5" s="17"/>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="69">
         <v>0.86510299999999996</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17"/>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="69">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
       <c r="J7" s="5"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="69">
         <v>0.95099999999999996</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
       <c r="J8" s="5"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="68" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15"/>
@@ -2901,31 +2973,31 @@
       <c r="H9" s="19">
         <v>0.603128</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="69" t="s">
+      <c r="M9" s="73"/>
+      <c r="N9" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2943,31 +3015,31 @@
       <c r="H10" s="19">
         <v>0.63962200000000002</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="69" t="s">
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69" t="s">
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
     </row>
     <row r="11" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2983,39 +3055,39 @@
       <c r="H11" s="19">
         <v>0.60540899999999997</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70" t="s">
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="69" t="s">
+      <c r="O11" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69" t="s">
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="70" t="s">
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="69" t="s">
+      <c r="V11" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69" t="s">
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3031,9 +3103,9 @@
       <c r="H12" s="19">
         <v>0.65982399999999997</v>
       </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="69"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="27" t="s">
         <v>25</v>
       </c>
@@ -3052,7 +3124,7 @@
       <c r="T12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="69"/>
+      <c r="U12" s="71"/>
       <c r="V12" s="27" t="s">
         <v>25</v>
       </c>
@@ -3073,9 +3145,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -3102,50 +3174,50 @@
       <c r="N13" s="72">
         <v>0.40795047246660099</v>
       </c>
-      <c r="O13" s="73">
+      <c r="O13" s="74">
         <v>0.59237536656891498</v>
       </c>
-      <c r="P13" s="73">
+      <c r="P13" s="74">
         <v>0.50667970022808695</v>
       </c>
-      <c r="Q13" s="71">
+      <c r="Q13" s="69">
         <v>0.46757901596611201</v>
       </c>
-      <c r="R13" s="71">
+      <c r="R13" s="69">
         <v>0.93385467579015902</v>
       </c>
-      <c r="S13" s="71">
+      <c r="S13" s="69">
         <v>0.76050830889540499</v>
       </c>
-      <c r="T13" s="71">
+      <c r="T13" s="69">
         <v>0.88367546432062505</v>
       </c>
       <c r="U13" s="72">
         <v>0.493320299771912</v>
       </c>
-      <c r="V13" s="73">
+      <c r="V13" s="74">
         <v>0.60182469859889198</v>
       </c>
-      <c r="W13" s="73">
+      <c r="W13" s="74">
         <v>0.516780710329097</v>
       </c>
-      <c r="X13" s="71">
+      <c r="X13" s="69">
         <v>0.53828608667318301</v>
       </c>
-      <c r="Y13" s="71">
+      <c r="Y13" s="69">
         <v>0.928641251221896</v>
       </c>
-      <c r="Z13" s="71">
+      <c r="Z13" s="69">
         <v>0.83447376995764</v>
       </c>
-      <c r="AA13" s="71">
+      <c r="AA13" s="69">
         <v>0.916585206907787</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
@@ -3168,24 +3240,24 @@
         <v>0.90257399999999999</v>
       </c>
       <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -3208,23 +3280,23 @@
         <v>0.93776499999999996</v>
       </c>
       <c r="N15" s="72"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
       <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
@@ -3250,24 +3322,24 @@
         <v>0.94330400000000003</v>
       </c>
       <c r="N16" s="72"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
       <c r="U16" s="72"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3292,24 +3364,24 @@
         <v>0.93548399999999998</v>
       </c>
       <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <